--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E0D8C-BB36-44EF-9F8E-B21D1146D8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4383728-9CF5-4997-8A41-FE6E9EDC708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="japan">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">決済案内!$A$1:$I$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">固都税精算!$A$1:$L$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">支払明細書!$A$1:$I$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">支払明細書!$A$1:$K$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">領収証!$A$1:$J$25</definedName>
     <definedName name="ProjectName" localSheetId="2">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="3">{"Client Name or Project Name"}</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
   <si>
     <t>支払金額合計</t>
     <rPh sb="0" eb="2">
@@ -221,25 +221,25 @@
     <rPh sb="0" eb="1">
       <t>アテ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>№</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>＜振込先＞</t>
     <rPh sb="1" eb="4">
       <t>フリコミサキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>円</t>
     <rPh sb="0" eb="1">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>残代金合計：</t>
@@ -252,7 +252,7 @@
     <rPh sb="3" eb="5">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>円(別紙ご参照ください。)</t>
@@ -265,7 +265,7 @@
     <rPh sb="5" eb="7">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>固都税精算金</t>
@@ -275,7 +275,7 @@
     <rPh sb="3" eb="6">
       <t>セイサンキン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>売買代金</t>
@@ -285,7 +285,7 @@
     <rPh sb="2" eb="4">
       <t>ダイキン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>＜支払内訳＞</t>
@@ -295,7 +295,7 @@
     <rPh sb="3" eb="5">
       <t>ウチワケ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>　　埼央建設株式会社</t>
@@ -337,7 +337,7 @@
     <rPh sb="1" eb="3">
       <t>バショ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>～</t>
@@ -348,14 +348,14 @@
     <rPh sb="1" eb="3">
       <t>ニッテイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>敬具</t>
     <rPh sb="0" eb="2">
       <t>ケイグ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ご多忙の折、大変恐縮ですが何卒宜しくお願い致します。</t>
@@ -374,7 +374,7 @@
     <rPh sb="13" eb="16">
       <t>ナニトゾヨロ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>標記の内容について、下記の通りご案内させて頂きます。</t>
@@ -396,7 +396,7 @@
     <rPh sb="21" eb="22">
       <t>イタダ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>拝啓　時下ますますご清祥のこととお慶び申し上げます。</t>
@@ -418,7 +418,7 @@
     <rPh sb="21" eb="22">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>決済についてのご案内</t>
@@ -428,14 +428,14 @@
     <rPh sb="8" eb="10">
       <t>アンナイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>03-6457-9420</t>
   </si>
   <si>
     <t>☎</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>株式会社メトロス開発</t>
@@ -468,7 +468,7 @@
     <rPh sb="0" eb="2">
       <t>オンチュウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>領収金額を訂正した場合または、領収印なき場合は無効となります。</t>
@@ -496,32 +496,32 @@
     <rPh sb="23" eb="25">
       <t>ムコウ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>住所</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>御中</t>
     <rPh sb="0" eb="2">
       <t>オンチュウ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>（Ｄ）＋（Ｅ）</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>精算金</t>
@@ -531,11 +531,11 @@
     <rPh sb="2" eb="3">
       <t>キン</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>（Ｅ）</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>建物分消費税</t>
@@ -548,11 +548,11 @@
     <rPh sb="3" eb="6">
       <t>ショウヒゼイ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>－</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>売主分</t>
@@ -562,29 +562,29 @@
     <rPh sb="2" eb="3">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>（Ｄ）</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>／</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>建物</t>
     <rPh sb="0" eb="2">
       <t>タテモノ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>買主分</t>
@@ -594,7 +594,7 @@
     <rPh sb="2" eb="3">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>／</t>
@@ -604,7 +604,7 @@
     <rPh sb="0" eb="2">
       <t>トチ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>分担額</t>
@@ -614,7 +614,7 @@
     <rPh sb="2" eb="3">
       <t>ガク</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>買　主</t>
@@ -624,7 +624,7 @@
     <rPh sb="2" eb="3">
       <t>シュ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>売　主</t>
@@ -634,7 +634,7 @@
     <rPh sb="2" eb="3">
       <t>シュ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>分担期間</t>
@@ -644,23 +644,23 @@
     <rPh sb="2" eb="4">
       <t>キカン</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>（C）</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>（B）</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>（Ａ）</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>都市計画税</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>固定資産税</t>
@@ -670,7 +670,7 @@
     <rPh sb="2" eb="5">
       <t>シサンゼイ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>年間税額</t>
@@ -680,14 +680,14 @@
     <rPh sb="2" eb="4">
       <t>ゼイガク</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>買　　主</t>
     <rPh sb="0" eb="4">
       <t>カイヌシ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>株式会社メトロス開発</t>
@@ -704,7 +704,7 @@
     <rPh sb="0" eb="4">
       <t>ウリヌシ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>引渡し日</t>
@@ -714,7 +714,7 @@
     <rPh sb="3" eb="4">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>物件所在地</t>
@@ -724,7 +724,7 @@
     <rPh sb="2" eb="5">
       <t>ショザイチ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>固定資産税・都市計画税　精算書</t>
@@ -749,7 +749,7 @@
     <rPh sb="14" eb="15">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>　　 代表取締役　小柴義弘                     ㊞</t>
@@ -765,7 +765,7 @@
     <rPh sb="11" eb="13">
       <t>ヨシヒロ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>　　 株式会社メトロス開発</t>
@@ -831,11 +831,11 @@
     <rPh sb="24" eb="25">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>上記所在物件の不動産売買契約書第2条に基づく売買代金として</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>上記正に受領いたしました。</t>
@@ -849,14 +849,14 @@
     <rPh sb="20" eb="21">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>上記所在物件の不動産売買契約書第４条に基づく手付金として</t>
     <rPh sb="22" eb="25">
       <t>テツケキン</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>以下余白</t>
@@ -885,7 +885,7 @@
     <rPh sb="12" eb="15">
       <t>ケイヤクショ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>上記所在物件の不動産売買契約書に基づく売買代金として</t>
@@ -896,14 +896,14 @@
     <rPh sb="0" eb="5">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>摘　　　　　　要</t>
     <rPh sb="0" eb="8">
       <t>テキヨウ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>物件所在地</t>
@@ -916,7 +916,7 @@
     <rPh sb="4" eb="5">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>受　領　書</t>
@@ -929,14 +929,14 @@
     <rPh sb="4" eb="5">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>$salesDecisionDay_jpdt_kanji_MM$吉日</t>
     <rPh sb="32" eb="34">
       <t>キチジツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>$salesName$</t>
@@ -992,23 +992,23 @@
   </si>
   <si>
     <t>$bankName$</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>$branchName$</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>$depositTypeName$</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>$accountNumber$</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>$accountHolder$</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>$accountHolder$</t>
@@ -1066,17 +1066,30 @@
     <rPh sb="0" eb="4">
       <t>シュウニュウインシ</t>
     </rPh>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>社長</t>
+    <rPh sb="0" eb="2">
+      <t>シャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="22">
+  <numFmts count="21">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0;&quot;▲ &quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
@@ -1097,7 +1110,7 @@
     <numFmt numFmtId="193" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
     <numFmt numFmtId="194" formatCode="&quot;金 &quot;#,##0&quot; 円也&quot;;&quot;金 ▲&quot;#,##0&quot; 円也&quot;"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,14 +1195,6 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1414,7 +1419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1955,6 +1960,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1963,10 +2123,10 @@
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1991,9 +2151,6 @@
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2003,289 +2160,298 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="26" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="26" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="26" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="21" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="21" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="21" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2306,13 +2472,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2321,385 +2487,418 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="21" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="21" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="21" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="21" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="21" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="21" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="21" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="21" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="21" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="29" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="29" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="21" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="21" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="21" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="191" fontId="25" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="25" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="25" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2725,13 +2924,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
@@ -2806,14 +3005,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9675</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
@@ -2830,8 +3029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086475" y="2962275"/>
-          <a:ext cx="85725" cy="133350"/>
+          <a:off x="5407025" y="3946525"/>
+          <a:ext cx="324000" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2885,62 +3084,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2181225" cy="1450975"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9821E6-02C3-4403-B232-4B806FDF8CD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4422775" y="6064250"/>
-          <a:ext cx="2181225" cy="1450975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4600,7 +4743,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4611,256 +4754,311 @@
     <col min="4" max="4" width="1.58203125" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="7" style="101" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="198" t="s">
+      <c r="G1" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-    </row>
-    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G2" s="97"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="108" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+    </row>
+    <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="96"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="93"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="199" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="199" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+      <c r="H5" s="243"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="95"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="200" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="14">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="240">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="H8" s="240"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9" t="s">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="254" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="K11" s="254"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="201" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="201"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8" t="s">
+      <c r="F12" s="241"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="255" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="K12" s="255"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="201" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="241" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="201"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8" t="s">
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="255" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+      <c r="K13" s="255"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="255" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="K14" s="255"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="255" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" s="255"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="106">
+      <c r="E18" s="244">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="96"/>
-    </row>
-    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="203" t="s">
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="93"/>
+    </row>
+    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="104" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="203" t="s">
+    <row r="23" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="104" t="s">
         <v>111</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="203" t="s">
+    <row r="24" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="104" t="s">
         <v>109</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
+    <row r="27" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="28" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H28" s="246" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="247"/>
+      <c r="J28" s="256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="248"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="257"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="250"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="258"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" s="250"/>
+      <c r="I31" s="251"/>
+      <c r="J31" s="258"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H32" s="252"/>
+      <c r="I32" s="253"/>
+      <c r="J32" s="259"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="17">
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I32"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J29:J32"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E18:H18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4885,119 +5083,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="205" t="s">
+      <c r="H1" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="205"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
       <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="99"/>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="119"/>
+      <c r="I6" s="121"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="120" t="s">
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="22">
+      <c r="C17" s="124"/>
+      <c r="D17" s="19">
         <f>支払明細書!G8</f>
         <v>0.54166666666666663</v>
       </c>
@@ -5007,155 +5205,167 @@
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="208" t="s">
+      <c r="C24" s="116"/>
+      <c r="D24" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="20" t="s">
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="209" t="s">
+      <c r="C25" s="116"/>
+      <c r="D25" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="19" t="s">
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="19" t="s">
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="19" t="s">
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G28" s="19"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="117">
+      <c r="C29" s="116"/>
+      <c r="D29" s="131">
         <f>SUM(D24:F26)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="19" t="s">
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="31" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="205" t="s">
+      <c r="B32" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="205"/>
-      <c r="D32" s="210" t="s">
+      <c r="C32" s="118"/>
+      <c r="D32" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="210"/>
+      <c r="E32" s="130"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="212" t="s">
+      <c r="C33" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="213" t="s">
+      <c r="D33" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="213"/>
+      <c r="E33" s="126"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="205" t="s">
+      <c r="B34" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="214" t="s">
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="107" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H1:I1"/>
@@ -5169,18 +5379,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B20:I20"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5207,415 +5405,428 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="2.58203125" style="25" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="25"/>
+    <col min="1" max="1" width="2.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="2.58203125" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="78"/>
-      <c r="B1" s="161" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="100"/>
+      <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="215" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="151" t="s">
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="152"/>
-      <c r="I3" s="218" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="219"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="75"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="221" t="s">
+      <c r="H4" s="152"/>
+      <c r="I4" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="222"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="73"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="151" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="151" t="s">
+      <c r="E6" s="150"/>
+      <c r="F6" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="151" t="s">
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="153"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="70"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="149"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="154"/>
+      <c r="C7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="224" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="226"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="69" t="s">
+      <c r="G7" s="160"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="155" t="e">
+      <c r="J7" s="161" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="64"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="149"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="154"/>
+      <c r="C8" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="225"/>
-      <c r="F8" s="224" t="s">
+      <c r="E8" s="159"/>
+      <c r="F8" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="67" t="s">
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="155" t="e">
+      <c r="J8" s="161" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="64"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="150"/>
-      <c r="C9" s="66" t="s">
+      <c r="B9" s="155"/>
+      <c r="C9" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="157">
+      <c r="D9" s="163">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="157">
+      <c r="E9" s="164"/>
+      <c r="F9" s="163">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="65" t="s">
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="157">
+      <c r="J9" s="163">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="160"/>
-      <c r="L9" s="64"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="62" t="s">
+      <c r="C11" s="168"/>
+      <c r="D11" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="227" t="s">
+      <c r="E11" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="228"/>
-      <c r="G11" s="102" t="s">
+      <c r="F11" s="172"/>
+      <c r="G11" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="231" t="s">
+      <c r="H11" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="231"/>
-      <c r="J11" s="144" t="e">
+      <c r="I11" s="173"/>
+      <c r="J11" s="174" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="60"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="142"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="61" t="s">
+      <c r="B12" s="169"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="229" t="s">
+      <c r="E12" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="230"/>
-      <c r="G12" s="103" t="s">
+      <c r="F12" s="177"/>
+      <c r="G12" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="232" t="s">
+      <c r="H12" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="232"/>
-      <c r="J12" s="146" t="e">
+      <c r="I12" s="178"/>
+      <c r="J12" s="179" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="147"/>
-      <c r="L12" s="60"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="57" t="e">
+      <c r="E14" s="54" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="138" t="e">
+      <c r="G14" s="194" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="138"/>
-      <c r="I14" s="233" t="s">
+      <c r="H14" s="194"/>
+      <c r="I14" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="233"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="41"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="130"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="182"/>
+      <c r="C15" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="53" t="e">
+      <c r="E15" s="50" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="139" t="e">
+      <c r="G15" s="195" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="235" t="s">
+      <c r="H15" s="195"/>
+      <c r="I15" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="235"/>
-      <c r="K15" s="236"/>
-      <c r="L15" s="41"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="130"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="50" t="s">
+      <c r="B16" s="182"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="47" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="132" t="e">
+      <c r="J16" s="188" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="133"/>
-      <c r="L16" s="41"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="131"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="183"/>
+      <c r="C17" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="44" t="str">
+      <c r="D17" s="42"/>
+      <c r="E17" s="41" t="str">
         <f>I9</f>
         <v>（C）</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="136" t="e">
+      <c r="G17" s="192" t="e">
         <f>J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="134" t="e">
+      <c r="H17" s="192"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="190" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="135"/>
-      <c r="L17" s="41"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="38" t="s">
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="237" t="s">
+      <c r="J19" s="199" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="238"/>
-      <c r="L19" s="41"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="38" t="s">
+      <c r="C21" s="203"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="237" t="s">
+      <c r="J21" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="238"/>
-      <c r="L21" s="37"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -5629,28 +5840,15 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5668,311 +5866,323 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="25" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="25" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="7" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="25" customWidth="1"/>
-    <col min="11" max="14" width="8.6640625" style="25" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="25"/>
+    <col min="1" max="1" width="2.58203125" style="22" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="22" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="22" customWidth="1"/>
+    <col min="11" max="14" width="8.6640625" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="76"/>
+      <c r="A1" s="91"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="78"/>
-      <c r="B2" s="181" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="77"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="74"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34"/>
-      <c r="L4" s="94"/>
-      <c r="N4" s="88"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="31"/>
+      <c r="L4" s="91"/>
+      <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="93" t="s">
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="L5" s="187" t="s">
+      <c r="I5" s="30"/>
+      <c r="L5" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="88"/>
+      <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="188"/>
-      <c r="N6" s="88"/>
+      <c r="L6" s="206"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="182" t="e">
+      <c r="D7" s="221" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="32"/>
-      <c r="L7" s="27"/>
-      <c r="N7" s="88"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="29"/>
+      <c r="L7" s="24"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="92"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="L8" s="27"/>
-      <c r="N8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="L8" s="24"/>
+      <c r="N8" s="85"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="92"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="L9" s="89"/>
-      <c r="N9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="L9" s="86"/>
+      <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="224" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="240" t="s">
+      <c r="C10" s="225"/>
+      <c r="D10" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="32"/>
-      <c r="L10" s="177">
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="29"/>
+      <c r="L10" s="235">
         <v>8250000</v>
       </c>
-      <c r="M10" s="177"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
+      <c r="M10" s="235"/>
+      <c r="N10" s="235"/>
+      <c r="O10" s="235"/>
+      <c r="P10" s="235"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="29"/>
-      <c r="L11" s="25" t="s">
+      <c r="J11" s="26"/>
+      <c r="L11" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196" t="s">
+      <c r="C12" s="217"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="29"/>
-      <c r="L12" s="25" t="s">
+      <c r="H12" s="217"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="26"/>
+      <c r="L12" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="189" t="s">
+      <c r="B13" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="243" t="s">
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="244"/>
-      <c r="I13" s="245"/>
-      <c r="J13" s="29"/>
-      <c r="L13" s="25" t="s">
+      <c r="H13" s="211"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="26"/>
+      <c r="L13" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="243" t="s">
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="244"/>
-      <c r="I14" s="245"/>
-      <c r="J14" s="29"/>
-      <c r="L14" s="25" t="s">
+      <c r="H14" s="211"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="26"/>
+      <c r="L14" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="229" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="234"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="246" t="s">
+      <c r="B17" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="246"/>
-      <c r="D17" s="85" t="s">
+      <c r="C17" s="237"/>
+      <c r="D17" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="30"/>
-      <c r="E19" s="81" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="179" t="s">
+      <c r="F19" s="238" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="238"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="30"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="180" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="31"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="178" t="s">
+      <c r="F21" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="31"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="236"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="31"/>
-      <c r="N22" s="72"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="28"/>
+      <c r="N22" s="69"/>
     </row>
     <row r="23" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="81"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="31"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="31"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="K25" s="31"/>
+      <c r="F25" s="76"/>
+      <c r="K25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -5980,18 +6190,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4383728-9CF5-4997-8A41-FE6E9EDC708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E141FB8-1A09-4885-A0F1-F5BCF2ACB4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -2445,16 +2445,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2467,6 +2518,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2840,65 +2897,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4772,31 +4772,31 @@
       <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -4812,10 +4812,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="243" t="s">
+      <c r="G5" s="259" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="243"/>
+      <c r="H5" s="259"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4849,10 +4849,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="240">
+      <c r="G8" s="133">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H8" s="240"/>
+      <c r="H8" s="133"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4888,10 +4888,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="254" t="s">
+      <c r="J11" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="254"/>
+      <c r="K11" s="122"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -4902,17 +4902,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="241" t="s">
+      <c r="E12" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="241"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="255" t="s">
+      <c r="J12" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="255"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -4923,17 +4923,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="241" t="s">
+      <c r="E13" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="255" t="s">
+      <c r="J13" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="255"/>
+      <c r="K13" s="123"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -4942,14 +4942,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="130"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="255" t="s">
+      <c r="J14" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="255"/>
+      <c r="K14" s="123"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -4958,32 +4958,32 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="255" t="s">
+      <c r="J15" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="255"/>
+      <c r="K15" s="123"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="110"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="244">
+      <c r="E18" s="109">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="245"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5012,36 +5012,39 @@
     </row>
     <row r="27" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H28" s="246" t="s">
+      <c r="H28" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="I28" s="247"/>
-      <c r="J28" s="256" t="s">
+      <c r="I28" s="113"/>
+      <c r="J28" s="108" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H29" s="248"/>
-      <c r="I29" s="249"/>
-      <c r="J29" s="257"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="124"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H30" s="250"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="258"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="125"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H31" s="250"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="258"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="125"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H32" s="252"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="259"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I32"/>
     <mergeCell ref="G1:K1"/>
@@ -5057,8 +5060,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E18:H18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5083,17 +5084,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="118"/>
+      <c r="I1" s="137"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
@@ -5104,44 +5105,44 @@
       <c r="F4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="121"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -5191,10 +5192,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="124"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="19">
         <f>支払明細書!G8</f>
         <v>0.54166666666666663</v>
@@ -5210,28 +5211,28 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -5249,49 +5250,49 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117" t="s">
+      <c r="C24" s="135"/>
+      <c r="D24" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="127" t="s">
+      <c r="C25" s="135"/>
+      <c r="D25" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
       <c r="G25" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
       <c r="G26" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
       <c r="G27" s="16" t="s">
         <v>20</v>
       </c>
@@ -5300,16 +5301,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="131">
+      <c r="C29" s="135"/>
+      <c r="D29" s="150">
         <f>SUM(D24:F26)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
@@ -5321,14 +5322,14 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="130" t="s">
+      <c r="C32" s="137"/>
+      <c r="D32" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="130"/>
+      <c r="E32" s="149"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="105" t="s">
@@ -5337,17 +5338,17 @@
       <c r="C33" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D33" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="126"/>
+      <c r="E33" s="145"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="107" t="s">
         <v>17</v>
       </c>
@@ -5422,17 +5423,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -5440,45 +5441,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="149" t="s">
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="150"/>
-      <c r="I3" s="138" t="s">
+      <c r="H3" s="169"/>
+      <c r="I3" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="139"/>
-      <c r="K3" s="140"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143" t="s">
+      <c r="C4" s="161"/>
+      <c r="D4" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="151" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="146" t="s">
+      <c r="H4" s="171"/>
+      <c r="I4" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="148"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5493,98 +5494,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="172" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="149" t="s">
+      <c r="E6" s="169"/>
+      <c r="F6" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="149" t="s">
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="176"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="154"/>
+      <c r="B7" s="173"/>
       <c r="C7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="158" t="s">
+      <c r="E7" s="178"/>
+      <c r="F7" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="160"/>
-      <c r="H7" s="159"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="178"/>
       <c r="I7" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="161" t="e">
+      <c r="J7" s="180" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="162"/>
+      <c r="K7" s="181"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="154"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="158" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
       <c r="I8" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="161" t="e">
+      <c r="J8" s="180" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="162"/>
+      <c r="K8" s="181"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="155"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="163">
+      <c r="D9" s="182">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="163">
+      <c r="E9" s="183"/>
+      <c r="F9" s="182">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
       <c r="I9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="163">
+      <c r="J9" s="182">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="166"/>
+      <c r="K9" s="185"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5599,58 +5600,58 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="168"/>
+      <c r="C11" s="187"/>
       <c r="D11" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="171" t="s">
+      <c r="E11" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="172"/>
+      <c r="F11" s="191"/>
       <c r="G11" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="173" t="s">
+      <c r="H11" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="173"/>
-      <c r="J11" s="174" t="e">
+      <c r="I11" s="192"/>
+      <c r="J11" s="193" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="175"/>
+      <c r="K11" s="194"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="169"/>
-      <c r="C12" s="170"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="189"/>
       <c r="D12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="196"/>
       <c r="G12" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="178" t="s">
+      <c r="H12" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179" t="e">
+      <c r="I12" s="197"/>
+      <c r="J12" s="198" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="180"/>
+      <c r="K12" s="199"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="200" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="56"/>
@@ -5664,20 +5665,20 @@
       <c r="F14" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="194" t="e">
+      <c r="G14" s="213" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="184" t="s">
+      <c r="H14" s="213"/>
+      <c r="I14" s="203" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="184"/>
-      <c r="K14" s="185"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="204"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="182"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="52" t="s">
         <v>56</v>
       </c>
@@ -5691,40 +5692,40 @@
       <c r="F15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="195" t="e">
+      <c r="G15" s="214" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="195"/>
-      <c r="I15" s="186" t="s">
+      <c r="H15" s="214"/>
+      <c r="I15" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="206"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="182"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
       <c r="I16" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="188" t="e">
+      <c r="J16" s="207" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="189"/>
+      <c r="K16" s="208"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="183"/>
+      <c r="B17" s="202"/>
       <c r="C17" s="43" t="s">
         <v>51</v>
       </c>
@@ -5736,17 +5737,17 @@
       <c r="F17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="192" t="e">
-        <f>J16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" s="192"/>
+      <c r="G17" s="211" t="str">
+        <f>I16</f>
+        <v>（Ｄ）</v>
+      </c>
+      <c r="H17" s="211"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="190" t="e">
+      <c r="J17" s="209" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="191"/>
+      <c r="K17" s="210"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5754,22 +5755,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
       <c r="I19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="199" t="s">
+      <c r="J19" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="200"/>
+      <c r="K19" s="219"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5779,22 +5780,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="202" t="s">
+      <c r="B21" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="223"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
       <c r="I21" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="199" t="s">
+      <c r="J21" s="218" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="200"/>
+      <c r="K21" s="219"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5885,16 +5886,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="238" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -5917,34 +5918,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="239" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
       <c r="F5" s="90" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="205" t="s">
+      <c r="L5" s="224" t="s">
         <v>123</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="206"/>
+      <c r="L6" s="225"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="221" t="e">
+      <c r="D7" s="240" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -5971,26 +5972,26 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226" t="s">
+      <c r="C10" s="244"/>
+      <c r="D10" s="245" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="227"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="228"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="247"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="235">
+      <c r="L10" s="254">
         <v>8250000</v>
       </c>
-      <c r="M10" s="235"/>
-      <c r="N10" s="235"/>
-      <c r="O10" s="235"/>
-      <c r="P10" s="235"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -5999,70 +6000,70 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217" t="s">
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="217"/>
-      <c r="I12" s="218"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="237"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="226" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="210" t="s">
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="211"/>
-      <c r="I13" s="212"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="231"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="213" t="s">
+      <c r="B14" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="210" t="s">
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="229" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="211"/>
-      <c r="I14" s="212"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="231"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="229" t="s">
+      <c r="B15" s="248" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="232"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="234"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="250"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="253"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6075,10 +6076,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="256" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="237"/>
+      <c r="C17" s="256"/>
       <c r="D17" s="82" t="s">
         <v>80</v>
       </c>
@@ -6103,36 +6104,36 @@
       <c r="E19" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="238" t="s">
+      <c r="F19" s="257" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="238"/>
-      <c r="H19" s="238"/>
-      <c r="I19" s="238"/>
-      <c r="J19" s="238"/>
+      <c r="G19" s="257"/>
+      <c r="H19" s="257"/>
+      <c r="I19" s="257"/>
+      <c r="J19" s="257"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="239" t="s">
+      <c r="F20" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="239"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="239"/>
+      <c r="G20" s="258"/>
+      <c r="H20" s="258"/>
+      <c r="I20" s="258"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="236" t="s">
+      <c r="F21" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="236"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="236"/>
-      <c r="J21" s="236"/>
+      <c r="G21" s="255"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="255"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E141FB8-1A09-4885-A0F1-F5BCF2ACB4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0590526-3DF1-4BBA-BC6D-7867CA3298CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
   <si>
     <t>支払金額合計</t>
     <rPh sb="0" eb="2">
@@ -296,41 +296,6 @@
       <t>ウチワケ</t>
     </rPh>
     <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>　　埼央建設株式会社</t>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンセツ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　〒338-0002　さいたま市中央区下落合6-8-8　埼央ビル</t>
-    <rPh sb="16" eb="17">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>チュウオウク</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>シモオチアイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>＜場所＞</t>
@@ -1081,6 +1046,18 @@
       <t>サクセイシャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>賃料精算金</t>
+  </si>
+  <si>
+    <t>その他精算金</t>
+  </si>
+  <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>円(別紙ご参照ください。)</t>
   </si>
 </sst>
 </file>
@@ -2448,6 +2425,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2523,16 +2506,31 @@
     <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2556,23 +2554,167 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2621,215 +2763,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2864,41 +2835,47 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4772,31 +4749,31 @@
       <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
+      <c r="G1" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -4807,15 +4784,15 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="102" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="259" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="259"/>
+      <c r="G5" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="110"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4844,15 +4821,13 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="103" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="133">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H8" s="133"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4888,10 +4863,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="122" t="s">
+      <c r="J11" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="122"/>
+      <c r="K11" s="124"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -4902,17 +4877,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
+      <c r="E12" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="123"/>
+      <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -4923,17 +4898,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
+      <c r="E13" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="123" t="s">
+      <c r="J13" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="123"/>
+      <c r="K13" s="125"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -4942,14 +4917,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="132"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="123" t="s">
+      <c r="J14" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="123"/>
+      <c r="K14" s="125"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -4958,32 +4933,32 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="134"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="123" t="s">
+      <c r="J15" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="123"/>
+      <c r="K15" s="125"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="128"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="109">
+      <c r="E18" s="111">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4991,75 +4966,75 @@
     </row>
     <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="104" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="104" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H28" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="113"/>
+      <c r="H28" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="115"/>
       <c r="J28" s="108" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="124"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="126"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H30" s="116"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="125"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="127"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H31" s="116"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="125"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="127"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="126"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I32"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J29:J32"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5085,69 +5060,69 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H1" s="137" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="137"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="138" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="B2" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="96"/>
     </row>
     <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="139" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
+        <v>38</v>
+      </c>
+      <c r="G4" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="135" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
+      <c r="G5" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="140"/>
+        <v>35</v>
+      </c>
+      <c r="H6" s="147" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="147"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
+      <c r="C9" s="148" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5157,7 +5132,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5167,7 +5142,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5182,57 +5157,50 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="143" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="19">
-        <f>支払明細書!G8</f>
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="B17" s="150" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="150"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="144" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -5250,67 +5218,75 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="144" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="146" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
+      <c r="B26" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="138"/>
+      <c r="D26" s="140" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
+      <c r="B27" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="138"/>
+      <c r="D27" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="150">
-        <f>SUM(D24:F26)</f>
+      <c r="C29" s="138"/>
+      <c r="D29" s="143">
+        <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
@@ -5323,29 +5299,29 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="137"/>
-      <c r="D32" s="149" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="149"/>
+      <c r="D32" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="142"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="145" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="145"/>
+      <c r="D33" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="136"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="137" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="137"/>
       <c r="D34" s="137"/>
@@ -5355,18 +5331,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H1:I1"/>
@@ -5380,6 +5344,18 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5423,17 +5399,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="151" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
+      <c r="B1" s="206" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -5441,45 +5417,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="152" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="168" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="169"/>
-      <c r="I3" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="B3" s="207" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="193" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="194"/>
+      <c r="I3" s="212" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="213"/>
+      <c r="K3" s="214"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="160" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="170" t="s">
+      <c r="B4" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="165" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="166"/>
-      <c r="K4" s="167"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="217" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="218"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="223" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="224"/>
+      <c r="I4" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5494,98 +5470,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="172" t="s">
-        <v>68</v>
+      <c r="B6" s="190" t="s">
+        <v>66</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="168" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="169"/>
-      <c r="F6" s="168" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="168" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="175"/>
-      <c r="K6" s="176"/>
+      <c r="D6" s="193" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="194"/>
+      <c r="F6" s="193" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="193" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="195"/>
+      <c r="K6" s="196"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="173"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="177" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="197" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="198"/>
+      <c r="F7" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="179"/>
-      <c r="H7" s="178"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="198"/>
       <c r="I7" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="180" t="e">
+        <v>63</v>
+      </c>
+      <c r="J7" s="200" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="181"/>
+      <c r="K7" s="201"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="173"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="177" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="197" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="198"/>
+      <c r="F8" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="177" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
       <c r="I8" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="180" t="e">
+        <v>62</v>
+      </c>
+      <c r="J8" s="200" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="181"/>
+      <c r="K8" s="201"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="174"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="182">
+        <v>51</v>
+      </c>
+      <c r="D9" s="202">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="183"/>
-      <c r="F9" s="182">
+      <c r="E9" s="203"/>
+      <c r="F9" s="202">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
       <c r="I9" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="182">
+        <v>61</v>
+      </c>
+      <c r="J9" s="202">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="185"/>
+      <c r="K9" s="205"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5600,134 +5576,134 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="186" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="187"/>
+      <c r="B11" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="177"/>
       <c r="D11" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="190" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="181"/>
+      <c r="G11" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="191"/>
-      <c r="G11" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="192" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="192"/>
-      <c r="J11" s="193" t="e">
+      <c r="I11" s="182"/>
+      <c r="J11" s="183" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="194"/>
+      <c r="K11" s="184"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="188"/>
-      <c r="C12" s="189"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="179"/>
       <c r="D12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="195" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="185" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="186"/>
+      <c r="G12" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="196"/>
-      <c r="G12" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="197" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="197"/>
-      <c r="J12" s="198" t="e">
+      <c r="I12" s="187"/>
+      <c r="J12" s="188" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="199"/>
+      <c r="K12" s="189"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="200" t="s">
-        <v>59</v>
+      <c r="B14" s="161" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="54" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="213" t="e">
+        <v>55</v>
+      </c>
+      <c r="G14" s="174" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="213"/>
-      <c r="I14" s="203" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="203"/>
-      <c r="K14" s="204"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="201"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="50" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="214" t="e">
+        <v>52</v>
+      </c>
+      <c r="G15" s="175" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="214"/>
-      <c r="I15" s="205" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="205"/>
-      <c r="K15" s="206"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="166"/>
+      <c r="K15" s="167"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="201"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
       <c r="I16" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="207" t="e">
+        <v>50</v>
+      </c>
+      <c r="J16" s="168" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="208"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="202"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="41" t="str">
@@ -5735,19 +5711,19 @@
         <v>（C）</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="211" t="str">
+        <v>48</v>
+      </c>
+      <c r="G17" s="172" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="211"/>
+      <c r="H17" s="172"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="209" t="e">
+      <c r="J17" s="170" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="210"/>
+      <c r="K17" s="171"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5755,22 +5731,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="215" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="216"/>
-      <c r="D19" s="217"/>
+      <c r="B19" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
       <c r="I19" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="218" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="219"/>
+        <v>46</v>
+      </c>
+      <c r="J19" s="155" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="156"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5780,22 +5756,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="221" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="222"/>
-      <c r="D21" s="223"/>
+      <c r="B21" s="158" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
       <c r="I21" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="218" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" s="219"/>
+        <v>44</v>
+      </c>
+      <c r="J21" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="156"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5806,28 +5782,15 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -5841,15 +5804,28 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5886,16 +5862,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="238" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
+      <c r="B2" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -5918,34 +5894,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="239" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
+      <c r="B5" s="237" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
       <c r="F5" s="90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="224" t="s">
-        <v>123</v>
+      <c r="L5" s="246" t="s">
+        <v>121</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="225"/>
+      <c r="L6" s="247"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="240" t="e">
+      <c r="D7" s="238" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="242"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -5972,98 +5948,98 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="243" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="244"/>
-      <c r="D10" s="245" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="247"/>
+      <c r="B10" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="242"/>
+      <c r="D10" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="245"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="254">
+      <c r="L10" s="231">
         <v>8250000</v>
       </c>
-      <c r="M10" s="254"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="254"/>
-      <c r="P10" s="254"/>
+      <c r="M10" s="231"/>
+      <c r="N10" s="231"/>
+      <c r="O10" s="231"/>
+      <c r="P10" s="231"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
       <c r="L11" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="235" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="236" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="236"/>
-      <c r="I12" s="237"/>
+      <c r="B12" s="257" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="258"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="258"/>
+      <c r="F12" s="258"/>
+      <c r="G12" s="258" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="258"/>
+      <c r="I12" s="259"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="226" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="229" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="230"/>
-      <c r="I13" s="231"/>
+      <c r="B13" s="248" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="251" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="252"/>
+      <c r="I13" s="253"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="232" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="229" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="230"/>
-      <c r="I14" s="231"/>
+      <c r="B14" s="254" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="255"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="255"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="251" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="252"/>
+      <c r="I14" s="253"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="248" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="249"/>
-      <c r="D15" s="249"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="250"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="253"/>
+      <c r="B15" s="225" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="226"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="230"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6076,12 +6052,12 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="256" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="256"/>
+      <c r="B17" s="233" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="233"/>
       <c r="D17" s="82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
@@ -6102,38 +6078,38 @@
     <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="27"/>
       <c r="E19" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="257" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="257"/>
+        <v>42</v>
+      </c>
+      <c r="F19" s="234" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="234"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="234"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="258" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="258"/>
-      <c r="H20" s="258"/>
-      <c r="I20" s="258"/>
+      <c r="F20" s="235" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="255" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="255"/>
-      <c r="H21" s="255"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="255"/>
+        <v>41</v>
+      </c>
+      <c r="F21" s="232" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="232"/>
+      <c r="H21" s="232"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="232"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6165,13 +6141,25 @@
     </row>
     <row r="25" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="76"/>
       <c r="K25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="L10:P10"/>
@@ -6179,18 +6167,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0590526-3DF1-4BBA-BC6D-7867CA3298CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56BC6B-19D2-4761-8C0C-4809CFDD5DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -49,20 +49,10 @@
     <definedName name="分析" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -242,19 +232,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>残代金合計：</t>
-    <rPh sb="0" eb="1">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ダイキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>円(別紙ご参照ください。)</t>
     <rPh sb="0" eb="1">
       <t>エン</t>
@@ -1058,6 +1035,16 @@
   </si>
   <si>
     <t>円(別紙ご参照ください。)</t>
+  </si>
+  <si>
+    <t>代金合計：　</t>
+    <rPh sb="0" eb="2">
+      <t>ダイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -2103,7 +2090,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2395,40 +2382,67 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2464,76 +2478,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2542,18 +2493,215 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2581,193 +2729,80 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2793,7 +2828,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2801,81 +2836,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3065,7 +3025,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="概要"/>
@@ -4732,7 +4692,7 @@
     <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" customWidth="1"/>
-    <col min="8" max="8" width="7" style="101" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="7.75" customWidth="1"/>
@@ -4749,31 +4709,31 @@
       <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="G1" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -4783,16 +4743,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="102" t="s">
-        <v>91</v>
+      <c r="C5" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="110"/>
+      <c r="G5" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="119"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4820,14 +4780,14 @@
         <v>12</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="103" t="s">
-        <v>92</v>
+      <c r="C8" s="101" t="s">
+        <v>91</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4863,10 +4823,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="124" t="s">
+      <c r="J11" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="124"/>
+      <c r="K11" s="116"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -4877,17 +4837,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
+      <c r="E12" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="125" t="s">
+      <c r="J12" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="125"/>
+      <c r="K12" s="104"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -4898,17 +4858,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
+      <c r="E13" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="125" t="s">
+      <c r="J13" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="125"/>
+      <c r="K13" s="104"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -4917,14 +4877,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="132"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="125" t="s">
+      <c r="J14" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="125"/>
+      <c r="K14" s="104"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -4933,96 +4893,90 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="134"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="125" t="s">
+      <c r="J15" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="125"/>
+      <c r="K15" s="104"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="111">
+      <c r="E18" s="120">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="104" t="s">
-        <v>108</v>
+      <c r="C22" t="s">
+        <v>107</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="104" t="s">
-        <v>109</v>
+      <c r="C23" t="s">
+        <v>108</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="104" t="s">
-        <v>107</v>
+      <c r="C24" t="s">
+        <v>106</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H28" s="114" t="s">
+      <c r="H28" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="124"/>
+      <c r="J28" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="115"/>
-      <c r="J28" s="108" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="126"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="105"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="106"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H32" s="120"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="128"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="J11:K11"/>
@@ -5032,6 +4986,12 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I32"/>
@@ -5059,70 +5019,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="137" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="137"/>
+      <c r="H1" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="B2" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="96"/>
     </row>
     <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
+      <c r="G4" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="138" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
+      <c r="G5" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="147"/>
+      <c r="H6" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="135"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="C9" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5132,7 +5092,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5142,7 +5102,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5157,50 +5117,50 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="150" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="150"/>
+      <c r="B17" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="138"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -5214,73 +5174,73 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="144" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
+      <c r="B24" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
+      <c r="B25" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="131"/>
+      <c r="D25" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
       <c r="G25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="131"/>
+      <c r="D26" s="142" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="140" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="138" t="s">
+      <c r="C27" s="131"/>
+      <c r="D27" s="141" t="s">
         <v>125</v>
-      </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="141" t="s">
-        <v>126</v>
       </c>
       <c r="E27" s="141"/>
       <c r="F27" s="141"/>
       <c r="G27" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="138" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="138"/>
+      <c r="B29" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="131"/>
       <c r="D29" s="143">
         <f>SUM(D24:F27)</f>
         <v>0</v>
@@ -5298,39 +5258,51 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="131"/>
+      <c r="D32" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="142" t="s">
+      <c r="E32" s="135"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="142"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="105" t="s">
+      <c r="C33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="106" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="136" t="s">
+      <c r="E33" s="140"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="136"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="137" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="107" t="s">
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H1:I1"/>
@@ -5344,18 +5316,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B20:I20"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5399,17 +5359,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="206" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
+      <c r="B1" s="144" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -5417,45 +5377,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="207" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="193" t="s">
+      <c r="B3" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="194"/>
-      <c r="I3" s="212" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="214"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="162"/>
+      <c r="I3" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="215" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217" t="s">
+      <c r="B4" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="223" t="s">
+      <c r="C4" s="154"/>
+      <c r="D4" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="224"/>
-      <c r="I4" s="220" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="163" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="164"/>
+      <c r="I4" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="159"/>
+      <c r="K4" s="160"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5470,98 +5430,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="190" t="s">
-        <v>66</v>
+      <c r="B6" s="165" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="193" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="194"/>
-      <c r="F6" s="193" t="s">
+      <c r="D6" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="193" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="195"/>
-      <c r="K6" s="196"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="168"/>
+      <c r="K6" s="169"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="191"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="197" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="197" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="199"/>
-      <c r="H7" s="198"/>
+        <v>55</v>
+      </c>
+      <c r="D7" s="170" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="171"/>
+      <c r="F7" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="172"/>
+      <c r="H7" s="171"/>
       <c r="I7" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="200" t="e">
+        <v>62</v>
+      </c>
+      <c r="J7" s="170" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="201"/>
+      <c r="K7" s="173"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="191"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="197" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="198"/>
-      <c r="F8" s="197" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
+        <v>52</v>
+      </c>
+      <c r="D8" s="170" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="171"/>
+      <c r="F8" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="200" t="e">
+        <v>61</v>
+      </c>
+      <c r="J8" s="170" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="201"/>
+      <c r="K8" s="173"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="192"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="202">
+        <v>50</v>
+      </c>
+      <c r="D9" s="174">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="203"/>
-      <c r="F9" s="202">
+      <c r="E9" s="175"/>
+      <c r="F9" s="174">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
       <c r="I9" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="202">
+        <v>60</v>
+      </c>
+      <c r="J9" s="174">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="205"/>
+      <c r="K9" s="177"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5576,134 +5536,134 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="177"/>
+      <c r="B11" s="178" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="179"/>
       <c r="D11" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="181"/>
+        <v>58</v>
+      </c>
+      <c r="E11" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="183"/>
       <c r="G11" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="182" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="182"/>
-      <c r="J11" s="183" t="e">
+        <v>26</v>
+      </c>
+      <c r="H11" s="184" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="184"/>
+      <c r="J11" s="185" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="184"/>
+      <c r="K11" s="186"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="178"/>
-      <c r="C12" s="179"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="185" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="186"/>
+        <v>57</v>
+      </c>
+      <c r="E12" s="187" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="188"/>
       <c r="G12" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="187" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="187"/>
-      <c r="J12" s="188" t="e">
+        <v>26</v>
+      </c>
+      <c r="H12" s="189" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="189"/>
+      <c r="J12" s="190" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="189"/>
+      <c r="K12" s="191"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="161" t="s">
-        <v>57</v>
+      <c r="B14" s="192" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="54" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="174" t="e">
+        <v>54</v>
+      </c>
+      <c r="G14" s="205" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="174"/>
-      <c r="I14" s="164" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="195"/>
+      <c r="K14" s="196"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="162"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="50" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="175" t="e">
+        <v>51</v>
+      </c>
+      <c r="G15" s="206" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="175"/>
-      <c r="I15" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="166"/>
-      <c r="K15" s="167"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="197" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="162"/>
+      <c r="B16" s="193"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
       <c r="I16" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="168" t="e">
+        <v>49</v>
+      </c>
+      <c r="J16" s="199" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="169"/>
+      <c r="K16" s="200"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="163"/>
+      <c r="B17" s="194"/>
       <c r="C17" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="41" t="str">
@@ -5711,19 +5671,19 @@
         <v>（C）</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="172" t="str">
+        <v>47</v>
+      </c>
+      <c r="G17" s="203" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="172"/>
+      <c r="H17" s="203"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="170" t="e">
+      <c r="J17" s="201" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="171"/>
+      <c r="K17" s="202"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5731,22 +5691,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
+      <c r="B19" s="207" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
       <c r="I19" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="156"/>
+        <v>45</v>
+      </c>
+      <c r="J19" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="211"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5756,22 +5716,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="158" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="B21" s="213" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="214"/>
+      <c r="D21" s="215"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
       <c r="I21" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="156"/>
+        <v>43</v>
+      </c>
+      <c r="J21" s="210" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="211"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5782,15 +5742,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -5804,28 +5777,15 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5862,16 +5822,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="236" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
+      <c r="B2" s="230" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -5894,34 +5854,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="237" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
+      <c r="B5" s="231" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
       <c r="F5" s="90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="246" t="s">
-        <v>121</v>
+      <c r="L5" s="216" t="s">
+        <v>120</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="247"/>
+      <c r="L6" s="217"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="238" t="e">
+      <c r="D7" s="232" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="234"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -5948,98 +5908,98 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="241" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="242"/>
-      <c r="D10" s="243" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="245"/>
+      <c r="B10" s="235" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="236"/>
+      <c r="D10" s="237" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="239"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="231">
+      <c r="L10" s="246">
         <v>8250000</v>
       </c>
-      <c r="M10" s="231"/>
-      <c r="N10" s="231"/>
-      <c r="O10" s="231"/>
-      <c r="P10" s="231"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="246"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
       <c r="L11" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="257" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="258"/>
-      <c r="D12" s="258"/>
-      <c r="E12" s="258"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="258" t="s">
+      <c r="B12" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="258"/>
-      <c r="I12" s="259"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="228"/>
+      <c r="I12" s="229"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="248" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="251" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="252"/>
-      <c r="I13" s="253"/>
+      <c r="B13" s="218" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="221" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="222"/>
+      <c r="I13" s="223"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="254" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="255"/>
-      <c r="D14" s="255"/>
-      <c r="E14" s="255"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="251" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="252"/>
-      <c r="I14" s="253"/>
+      <c r="B14" s="224" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="225"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="221" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="222"/>
+      <c r="I14" s="223"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="225" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="230"/>
+      <c r="B15" s="240" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="245"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6052,12 +6012,12 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="233" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="233"/>
+      <c r="B17" s="248" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="248"/>
       <c r="D17" s="82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
@@ -6078,38 +6038,38 @@
     <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="27"/>
       <c r="E19" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="234" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
+        <v>41</v>
+      </c>
+      <c r="F19" s="249" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="235" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
+      <c r="F20" s="250" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="250"/>
+      <c r="H20" s="250"/>
+      <c r="I20" s="250"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="232" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="232"/>
-      <c r="H21" s="232"/>
-      <c r="I21" s="232"/>
-      <c r="J21" s="232"/>
+        <v>40</v>
+      </c>
+      <c r="F21" s="247" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="247"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="247"/>
+      <c r="J21" s="247"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6141,13 +6101,25 @@
     </row>
     <row r="25" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="76"/>
       <c r="K25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -6155,18 +6127,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56BC6B-19D2-4761-8C0C-4809CFDD5DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F37924-5039-49E5-B1BB-177F1D64E430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -383,25 +383,6 @@
     <t>株式会社メトロス開発</t>
   </si>
   <si>
-    <t>東京都中央区銀座4-10-10</t>
-    <rPh sb="0" eb="2">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ギンザ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〒104-0061</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -716,37 +697,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　東京都中央区銀座四丁目１０番１０号</t>
-    <rPh sb="2" eb="4">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ギンザ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>チョウメ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1045,6 +995,23 @@
       <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>東京都中央区銀座3-9-7</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギンザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　東京都中央区銀座三丁目９番７号</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2397,8 +2364,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2427,24 +2412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2478,21 +2445,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2505,17 +2484,164 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2564,212 +2690,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2804,38 +2762,47 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4709,31 +4676,31 @@
       <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="G1" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -4744,15 +4711,15 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="119"/>
+      <c r="G5" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="110"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4781,13 +4748,13 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4823,10 +4790,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="116" t="s">
+      <c r="J11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="116"/>
+      <c r="K11" s="106"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -4837,17 +4804,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
+      <c r="E12" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="104"/>
+      <c r="K12" s="107"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -4858,17 +4825,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
+      <c r="E13" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="104"/>
+      <c r="K13" s="107"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -4877,14 +4844,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="104" t="s">
+      <c r="J14" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="104"/>
+      <c r="K14" s="107"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -4893,24 +4860,24 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="104" t="s">
+      <c r="J15" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="104"/>
+      <c r="K15" s="107"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="109"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="5"/>
       <c r="E18" s="120">
         <f>SUM(E12:G15)</f>
@@ -4926,21 +4893,21 @@
     </row>
     <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -4948,35 +4915,44 @@
     <row r="27" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H28" s="123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I28" s="124"/>
       <c r="J28" s="103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H29" s="125"/>
       <c r="I29" s="126"/>
-      <c r="J29" s="105"/>
+      <c r="J29" s="111"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H30" s="127"/>
       <c r="I30" s="128"/>
-      <c r="J30" s="106"/>
+      <c r="J30" s="112"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H31" s="127"/>
       <c r="I31" s="128"/>
-      <c r="J31" s="106"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H32" s="129"/>
       <c r="I32" s="130"/>
-      <c r="J32" s="107"/>
+      <c r="J32" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I32"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="J11:K11"/>
@@ -4986,15 +4962,6 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5019,39 +4986,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="131"/>
+      <c r="H1" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="96"/>
     </row>
     <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
+      <c r="G4" s="139" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
@@ -5063,21 +5030,21 @@
       <c r="I6" s="135"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="137" t="s">
+      <c r="C9" s="140" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -5127,10 +5094,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="138"/>
+      <c r="B17" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="142"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
@@ -5143,24 +5110,24 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -5178,75 +5145,75 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="132"/>
+      <c r="D26" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="D26" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
       <c r="G26" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="131" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="143">
+      <c r="B29" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="132"/>
+      <c r="D29" s="136">
         <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
@@ -5258,51 +5225,39 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="131"/>
+      <c r="B32" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="132"/>
       <c r="D32" s="135" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E32" s="135"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="140" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="140"/>
+      <c r="D33" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="131"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="131" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
+      <c r="B34" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H1:I1"/>
@@ -5316,6 +5271,18 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5359,17 +5326,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="144" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
+      <c r="B1" s="197" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -5377,45 +5344,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="145" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="161" t="s">
+      <c r="B3" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="150" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="201"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="185" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="186"/>
+      <c r="I3" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="204"/>
+      <c r="K3" s="205"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="155" t="s">
+      <c r="B4" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="163" t="s">
+      <c r="C4" s="207"/>
+      <c r="D4" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="159"/>
-      <c r="K4" s="160"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="214" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="215"/>
+      <c r="I4" s="211" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="212"/>
+      <c r="K4" s="213"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5430,98 +5397,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="165" t="s">
-        <v>65</v>
+      <c r="B6" s="182" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="161" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="161" t="s">
+      <c r="D6" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="168"/>
-      <c r="K6" s="169"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="185" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="187"/>
+      <c r="K6" s="188"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="166"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="170" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="189" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="190"/>
+      <c r="F7" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="170" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="172"/>
-      <c r="H7" s="171"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="190"/>
       <c r="I7" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="170" t="e">
+        <v>61</v>
+      </c>
+      <c r="J7" s="189" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="173"/>
+      <c r="K7" s="192"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="166"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="170" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="189" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="190"/>
+      <c r="F8" s="189" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="170" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
       <c r="I8" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="170" t="e">
+        <v>60</v>
+      </c>
+      <c r="J8" s="189" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="173"/>
+      <c r="K8" s="192"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="167"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="174">
+        <v>49</v>
+      </c>
+      <c r="D9" s="193">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="175"/>
-      <c r="F9" s="174">
+      <c r="E9" s="194"/>
+      <c r="F9" s="193">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
       <c r="I9" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="174">
+        <v>59</v>
+      </c>
+      <c r="J9" s="193">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="177"/>
+      <c r="K9" s="196"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5536,134 +5503,134 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="178" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="179"/>
+      <c r="B11" s="168" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="169"/>
       <c r="D11" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="183"/>
+        <v>57</v>
+      </c>
+      <c r="E11" s="172" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="173"/>
       <c r="G11" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="184" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="184"/>
-      <c r="J11" s="185" t="e">
+      <c r="H11" s="174" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="186"/>
+      <c r="K11" s="176"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="188"/>
+        <v>56</v>
+      </c>
+      <c r="E12" s="177" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="178"/>
       <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="189" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="190" t="e">
+      <c r="H12" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="179"/>
+      <c r="J12" s="180" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="191"/>
+      <c r="K12" s="181"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="192" t="s">
-        <v>56</v>
+      <c r="B14" s="153" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="54" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="205" t="e">
+        <v>53</v>
+      </c>
+      <c r="G14" s="166" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="205"/>
-      <c r="I14" s="195" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="195"/>
-      <c r="K14" s="196"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="193"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="50" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="206" t="e">
+        <v>50</v>
+      </c>
+      <c r="G15" s="167" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="206"/>
-      <c r="I15" s="197" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="197"/>
-      <c r="K15" s="198"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="158" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="158"/>
+      <c r="K15" s="159"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="193"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
       <c r="I16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="199" t="e">
+        <v>48</v>
+      </c>
+      <c r="J16" s="160" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="200"/>
+      <c r="K16" s="161"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="194"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="41" t="str">
@@ -5671,19 +5638,19 @@
         <v>（C）</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="203" t="str">
+        <v>46</v>
+      </c>
+      <c r="G17" s="164" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="203"/>
+      <c r="H17" s="164"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="201" t="e">
+      <c r="J17" s="162" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="202"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5691,22 +5658,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="207" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
+      <c r="B19" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
       <c r="I19" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="210" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="211"/>
+        <v>44</v>
+      </c>
+      <c r="J19" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="148"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5716,22 +5683,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="213" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="214"/>
-      <c r="D21" s="215"/>
+      <c r="B21" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
       <c r="I21" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="210" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" s="211"/>
+        <v>42</v>
+      </c>
+      <c r="J21" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="148"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5742,28 +5709,15 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -5777,15 +5731,28 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5822,16 +5789,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="230" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
+      <c r="B2" s="227" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -5854,34 +5821,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="231" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
+      <c r="B5" s="228" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
       <c r="F5" s="90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="216" t="s">
-        <v>120</v>
+      <c r="L5" s="237" t="s">
+        <v>118</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="217"/>
+      <c r="L6" s="238"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="232" t="e">
+      <c r="D7" s="229" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="234"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="231"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -5908,98 +5875,98 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="235" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="236"/>
-      <c r="D10" s="237" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
-      <c r="G10" s="238"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="239"/>
+      <c r="B10" s="232" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="233"/>
+      <c r="D10" s="234" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="235"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="235"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="236"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="246">
+      <c r="L10" s="222">
         <v>8250000</v>
       </c>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="246"/>
+      <c r="M10" s="222"/>
+      <c r="N10" s="222"/>
+      <c r="O10" s="222"/>
+      <c r="P10" s="222"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
       <c r="L11" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="227" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="228"/>
-      <c r="I12" s="229"/>
+      <c r="B12" s="248" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="249"/>
+      <c r="I12" s="250"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="218" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="221" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="222"/>
-      <c r="I13" s="223"/>
+      <c r="B13" s="239" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="242" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="243"/>
+      <c r="I13" s="244"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="224" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="225"/>
-      <c r="D14" s="225"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="221" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="222"/>
-      <c r="I14" s="223"/>
+      <c r="B14" s="245" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="246"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="242" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="243"/>
+      <c r="I14" s="244"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="240" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="243"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="245"/>
+      <c r="B15" s="216" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="221"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6012,12 +5979,12 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="248" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="248"/>
+      <c r="B17" s="224" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="224"/>
       <c r="D17" s="82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
@@ -6038,38 +6005,38 @@
     <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="27"/>
       <c r="E19" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="249" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="249"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="225" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="225"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="225"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="250" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="250"/>
-      <c r="H20" s="250"/>
-      <c r="I20" s="250"/>
+      <c r="F20" s="226" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="247"/>
+        <v>39</v>
+      </c>
+      <c r="F21" s="223" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6101,13 +6068,25 @@
     </row>
     <row r="25" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="76"/>
       <c r="K25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="L10:P10"/>
@@ -6115,18 +6094,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\振替伝票依頼\テンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F37924-5039-49E5-B1BB-177F1D64E430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C875187D-C820-451A-AC73-3986DB430ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="支払明細書" sheetId="1" r:id="rId1"/>
     <sheet name="決済案内" sheetId="2" r:id="rId2"/>
     <sheet name="固都税精算" sheetId="3" r:id="rId3"/>
     <sheet name="領収証" sheetId="4" r:id="rId4"/>
+    <sheet name="振替伝票" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="____ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
@@ -38,6 +39,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">決済案内!$A$1:$I$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">固都税精算!$A$1:$L$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">支払明細書!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">振替伝票!$A$1:$K$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">領収証!$A$1:$J$25</definedName>
     <definedName name="ProjectName" localSheetId="2">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="3">{"Client Name or Project Name"}</definedName>
@@ -49,7 +51,7 @@
     <definedName name="分析" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="154">
   <si>
     <t>支払金額合計</t>
     <rPh sb="0" eb="2">
@@ -1011,6 +1013,185 @@
   </si>
   <si>
     <t>　　東京都中央区銀座三丁目９番７号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振替伝票</t>
+    <rPh sb="0" eb="4">
+      <t>フリカエデンピョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$salesDecisionDay$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票№</t>
+    <rPh sb="0" eb="2">
+      <t>デンピョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>借方勘定科目</t>
+    <rPh sb="0" eb="2">
+      <t>カリカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>借方金額</t>
+    <rPh sb="0" eb="2">
+      <t>カリカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸方勘定科目</t>
+    <rPh sb="0" eb="2">
+      <t>カシカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸方金額</t>
+    <rPh sb="0" eb="2">
+      <t>カシカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シャッキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>借方補助科目</t>
+    <rPh sb="0" eb="2">
+      <t>カリカタ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ホジョカモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸方補助科目</t>
+    <rPh sb="0" eb="2">
+      <t>カシカタ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ホジョカモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$debtorKanjyoName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$debtorPayPrice$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$creditorKanjyoName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$creditorPayPrice$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$remark$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$note$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$debtorPayTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$creditorPayTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>借方合計</t>
+    <rPh sb="0" eb="4">
+      <t>カリカタゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸方合計</t>
+    <rPh sb="0" eb="2">
+      <t>カシカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸借バランス</t>
+    <rPh sb="0" eb="2">
+      <t>タイシャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$debtorKanjyoDetailName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$creditorKanjyoDetailName$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1018,9 +1199,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="21">
+  <numFmts count="24">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0;&quot;▲ &quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
@@ -1040,8 +1222,10 @@
     <numFmt numFmtId="192" formatCode="&quot;（消費税及び地方消費税金&quot;#,##0&quot;円を含む）&quot;"/>
     <numFmt numFmtId="193" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
     <numFmt numFmtId="194" formatCode="&quot;金 &quot;#,##0&quot; 円也&quot;;&quot;金 ▲&quot;#,##0&quot; 円也&quot;"/>
+    <numFmt numFmtId="195" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="196" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,8 +1519,16 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,8 +1541,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2046,6 +2244,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2057,7 +2327,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2364,6 +2634,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -2373,9 +2754,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2385,263 +2763,44 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2690,44 +2849,212 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2762,46 +3089,91 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3003,6 +3375,9 @@
       <sheetName val="精算書"/>
       <sheetName val="取引台帳"/>
       <sheetName val="ﾚﾝﾀﾙ確認書"/>
+      <sheetName val="Ikoma Data"/>
+      <sheetName val="リスト"/>
+      <sheetName val="CodeTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4336,12 +4711,1344 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="1">
+          <cell r="A1">
+            <v>1</v>
+          </cell>
+          <cell r="B1">
+            <v>2</v>
+          </cell>
+          <cell r="C1">
+            <v>3</v>
+          </cell>
+          <cell r="D1">
+            <v>4</v>
+          </cell>
+          <cell r="E1">
+            <v>5</v>
+          </cell>
+          <cell r="F1">
+            <v>6</v>
+          </cell>
+          <cell r="G1">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>NO.</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>会社名</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>支店名</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>住所</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>ビル名</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>TEL</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>免許番号</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>媒介契約期限</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>50</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>インタープラネット 株式会社</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>大阪市北区堂島 2-1-27</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>桜橋千代田ﾋﾞﾙ 8F</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>06-442-7777</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>大阪府知事(1)第46128号</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>東京都新宿区西新宿7-21-3</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+          <cell r="H5">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>町田営業店</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>東京都町田市原町田4-2-10</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>0427-23-6651</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+          <cell r="H6">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1.2</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>札幌営業店</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>札幌市中央区南八条西4-422-5</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>011-532-7767</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+          <cell r="H7">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1.3</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>広島営業店</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>広島市中区幟町13-11</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>明治生命広島幟町ﾋﾞﾙ2F</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>082-223-1201</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+          <cell r="H8">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1.4</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>仙台営業店</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>宮崎県仙台市青葉区一番町 3-6-1</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>022-213-0711</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+          <cell r="H9">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1.5</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>名古屋営業店</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>名古屋市中区栄4-1-8</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>052-243-1511</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+          <cell r="H10">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1.6</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>福岡営業店</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>福岡市中央区天神3-11-20</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>天神エフﾋﾞﾙ4F</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>092-714-4431</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1.7</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>江坂店</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>大阪府吹田市広芝町10-40</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>水川ビル2F</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>06-6389-4451</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1.8</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>株式会社 大京住宅流通</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>神戸三宮営業所</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>神戸市中央区京町72</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>新タレセントビル4階</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>078-393-2201</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>建設大臣(3)第4139号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>株式会社 ハウス管理ｻｰﾋﾞｽ</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>盛岡市南大通2-1-12</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>019-654-6363</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>岩手県知事(2)第1866号</v>
+          </cell>
+          <cell r="H14">
+            <v>36070</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>3</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>株式会社 リクルートコスモス</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>3.1</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>株式会社 リクルートコスモス</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>池袋支店</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>東京都豊島区東池袋1-17-8</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>03-5391-1570</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>建設大臣(7)第2361号</v>
+          </cell>
+          <cell r="H16">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>3.2</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>株式会社 リクルートコスモス</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>神戸支店</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>神戸市中央区江戸川町95</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>03-54404032</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>建設大臣(8)第2361号</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>3.3</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>株式会社 リクルートコスモス</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>横浜支店</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>横浜市西区北幸3-9-15</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>建設大臣(8)第2361号</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>4</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>豊川住宅センター 株式会社</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>豊川市開運通2-48-1</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>0533-86-5554</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>愛知県知事(6)第12377号</v>
+          </cell>
+          <cell r="H19">
+            <v>36143</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>5</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>株式会社 マテックコーポレーション</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>京都市右京区西院坤町2番地</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>075-706-3800</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>京都府知事(1)第010674号</v>
+          </cell>
+          <cell r="H20">
+            <v>36018</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>6</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>株式会社タイヨーコーポレーション</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>情報センター晩翠通り店</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>仙台市青葉区国分町2-8-14</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>022-221-3811</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>建設大臣(4)第3587号</v>
+          </cell>
+          <cell r="H21">
+            <v>36068</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>7</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>株式会社 タミー・コーポレーション</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>大阪市西区江戸堀1-17-16</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>大阪府知事(3)第041172号</v>
+          </cell>
+          <cell r="H22">
+            <v>36018</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>8</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>株式会社 アイランド</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v xml:space="preserve">福岡市中央区赤坂1-15-15 </v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>平和台ﾊｲﾂ503号</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>092-724-8633</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>福岡県知事(2)第12825号</v>
+          </cell>
+          <cell r="H23">
+            <v>36022</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>9</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>藤和不動産流通サービス 株式会社</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>東京都豊島区東池袋1-15-2</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>建設大臣(5)第3266号</v>
+          </cell>
+          <cell r="H24">
+            <v>36053</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>9.1</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>藤和不動産流通サービス 株式会社</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>東京都豊島区東池袋1-15-2</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>建設大臣(5)第3266号</v>
+          </cell>
+          <cell r="H25">
+            <v>36053</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>9.1999999999999993</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>藤和不動産流通サービス 株式会社</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>上野営業所</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>東京都文京区湯島4-6-11</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>03-3815-0234</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>建設大臣(5)第3266号</v>
+          </cell>
+          <cell r="H26">
+            <v>36289</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>10</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>株式会社 ビルネット</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>大阪市中央区南船場3-8-7</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>06-258-8165</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>大阪府知事(1)第45208号</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>11</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>株式会社 日本リロケーション</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>東京都新宿区新宿4-3-23</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>建設大臣(4)第3675号</v>
+          </cell>
+          <cell r="H28">
+            <v>36149</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>12</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>三和住宅 株式会社</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>愛媛県新居浜市西原町2-2-9</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>0897-34-0404</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>愛知県知事(4)第3542号</v>
+          </cell>
+          <cell r="H29">
+            <v>36130</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>13</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>有限会社 緑町エステート</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>函館市松陰町1-30</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>ﾗｲｵﾝｽﾞﾏﾝｼｮﾝ松陰1F</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>0138-52-4100</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>北海道知事 渡島(4)第716号</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>14</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>ヘイケン株式会社</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>東京都新宿区左門町6</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>03-3353-3705</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>東京都知事(4)第50018号</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>15</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>東洋不動産</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>16</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>株式会社フットワーク</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>東京都町田市森野1-32-13</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>新光ﾋﾞﾙ2F</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>042-728-7411</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>東京都知事(4)第50125号</v>
+          </cell>
+          <cell r="H33">
+            <v>36339</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>17</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>株式会社オー・ジー・アイ</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>岡山県岡谷市東古松3-12-30</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>086-225-3344</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>岡山県知事(4)第3497号</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>18</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>中国リハウス株式会社</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>岡山店</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>岡山県岡谷市鹿田町1-7-17</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>086-222-0031</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>建設大臣免許(2)第5169号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>19</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>有限会社 千成土地住宅社</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>神奈川県相模原市淵野辺4-15-1</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>千成ビル</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>0427-52-4108</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>神奈川県知事(11)第3393号</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>20</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>住友不動産販売株式会社</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>20.100000000000001</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>住友不動産販売株式会社</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>福岡営業センター</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>福岡市中央区舞鶴1-2-22</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>092-716-7282</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>建設大臣(8)第2077号</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>20.2</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>住友不動産販売株式会社</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>岡山営業センター</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>岡山市磨屋町3-10</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>086-223-5111</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>建設大臣(8)第2077号</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>20.3</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>住友不動産販売株式会社</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>町田営業店</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>東京都町田市町田6-3-8</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>住友銀行町田ﾋﾞﾙ3F</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>042-723-1311</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>建設大臣(8)第2077号</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>20.399999999999999</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>住友不動産販売株式会社</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>仙台営業センター</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>仙台市青葉区中央2-2-6</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>住友銀行仙台ﾋﾞﾙ4F</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>022-267-4531</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>建設大臣(8)第2077号</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>20.5</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>住友不動産販売株式会社</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>学園前営業ｾﾝﾀｰ</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>奈良市学園北1-8-8</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>0742-43-3911</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>建設大臣(8)第2077号</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>20.6</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>住友不動産販売株式会社</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>東大阪営業センター</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>東大阪市長堂2-3-21</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>日本生命布施駅前ビル1F</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>06-6788-5761</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>建設大臣(8)第2077号</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>20.7</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>住友不動産販売株式会社</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>二日市営業センター</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>筑紫野市大字二日市644-7</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>第二青山ビル３階</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>092-924-6912</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>建設大臣(8)第2077号</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>21</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>有限会社スタート</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>札幌市南区澄川３条４丁目3-10</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>澄川中央ﾋﾞﾙ２F</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>011-813-1181</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>北海道知事免許石狩(3)第5776号</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>22</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>有限会社ウェーブハウス</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>岡山市野田2-3-8</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>086-245-9595</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>岡山県知事(2)第4022号</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>23</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>株式会社アパマンPLAZA</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>札幌市中央区大通西17丁目</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>011-613-1551</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>北海道知事　石狩(5)第3992号</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>24</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>パシフィックマネジメント株式会社</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>渋谷区広尾1-1-39恵比寿ﾌﾟﾗｲﾑｽｸｪｱﾀﾜｰ13F</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>03-5766-2015</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>東京都知事(1)第76276号</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>25</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>株式会社サンホーム</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>東京都豊島区東池袋1-3-7</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>03-3988-3238</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>東京都知事(2)第70538号</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>26</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>有楽土地住宅販売株式会社</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>町田営業所</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>東京都町田市原町田6-3-20</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>新原町田駅前ﾋﾞﾙ5階</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>042-727-1215</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>建設大臣(5)第3394号</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>27</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>東急リバブル株式会社</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>仙台営業所</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>仙台市青葉区上杉1-5-15</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>日本生命匂当台南ビル1F</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>022-261-0109</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>建設大臣(7)第2611号</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>28</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>株式会社オリエントハウジング</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>京都府向日市寺戸町渋川2-12</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>オリエントビル1F</v>
+          </cell>
+          <cell r="F52" t="str">
+            <v>075-935-1230</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>京都府知事(3)第8945号</v>
+          </cell>
+          <cell r="H52">
+            <v>36507</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>29</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>株式会社ディーピー・プロパティーズ</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>東京都渋谷区恵比寿4-20-3</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>恵比寿ガーデンプレイスタワー7F</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v>03-5424-7198</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>東京都知事(3)第61400号</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>30</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>有限会社リンクル</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>愛媛県新居浜市八雲町5番26号</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>0897-35-1146</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>愛媛県知事(1)第4293号</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>31</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>株式会社東洋館</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>東京都板橋区東新町2-60-4</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>03-5965-4621</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>東京都知事(2)第70012号</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>32</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>株式会社マイホームステージ町田</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>東京都町田市</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>042-739-6012</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>東京都知事(1)第76363号</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>33</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>神鋼興産株式会社</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>東加古川営業所</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>加古川市平岡町新在家2-273-2</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>建設大臣免許(11)第107号</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>34</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>三井不動産販売株式会社</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>大阪市北区曽根崎2-5-10</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>建設大臣(10)第777号</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>35</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>株式会社森不動産</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>北九州市八幡西区穴生1-6-7</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>093-641-9500</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>福岡県知事(3)第12129号</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>36</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>有限会社ホームワーク</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>札幌市白石区本郷通４丁目北７－１５</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>丸正ビル２階</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>011-866-8181</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>北海道知事免許石狩(1)第6356号</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>37</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>38</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>株式会社エー・ディー・ワークス</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>東京都中央区銀座6-8-7</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>交詢ビル５階</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>03-3572-7561</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>39</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>有限会社ティエムエヌ</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>福岡県福岡市中央区六本松2丁目6番6号</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>舩津ﾋﾞﾙ３F</v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>092-711-7098</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>福岡県知事(1)第13538号</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>40</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>東北住宅興業株式会社</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>仙台支店</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>仙台市青葉区本町2丁目9-3</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>産伸ビル２F</v>
+          </cell>
+          <cell r="F64" t="str">
+            <v>022-227-2266</v>
+          </cell>
+          <cell r="G64" t="str">
+            <v>宮城県知事(6)第2599号</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>41</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>富商不動産株式会社</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>金沢市増泉1丁目16番30号</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>076-247-6364</v>
+          </cell>
+          <cell r="G65" t="str">
+            <v>石川県知事(4)第2294号</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>42</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>有限会社オークライフ</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>京都市中京区烏丸通二条下ル秋野々町514-1</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>ラ・シュウム１階</v>
+          </cell>
+          <cell r="F66" t="str">
+            <v>075-252-1210</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>43</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>有限会社ハウスマーケット</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>仙台市青葉区木町通2丁目5-45-1F</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>022-301-8050</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="920">
+          <cell r="AV920">
+            <v>36636</v>
+          </cell>
+          <cell r="CP920">
+            <v>59000</v>
+          </cell>
+          <cell r="CQ920">
+            <v>2450</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4651,13 +6358,13 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="1.58203125" customWidth="1"/>
+    <col min="4" max="4" width="1.625" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
@@ -4665,7 +6372,7 @@
     <col min="11" max="11" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -4676,36 +6383,36 @@
       <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-    </row>
-    <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+    </row>
+    <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="105" t="s">
+    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-    </row>
-    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="93"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -4716,13 +6423,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="110"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4732,7 +6439,7 @@
       <c r="G6" s="95"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="95"/>
@@ -4742,7 +6449,7 @@
       <c r="G7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -4753,11 +6460,11 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="11"/>
@@ -4767,7 +6474,7 @@
       <c r="G9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11"/>
@@ -4779,7 +6486,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -4790,12 +6497,12 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="106" t="s">
+      <c r="J11" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="106"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" s="143"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
@@ -4804,19 +6511,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="107" t="s">
+      <c r="J12" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="107"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="120"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
@@ -4825,125 +6532,134 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="107" t="s">
+      <c r="J13" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="107"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="120"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="127"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="107" t="s">
+      <c r="J14" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="107"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="120"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="107" t="s">
+      <c r="J15" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="107"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" s="120"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G16" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="115"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="120">
+      <c r="E18" s="130">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C21" s="93"/>
     </row>
-    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>106</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="28" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H28" s="123" t="s">
+    <row r="27" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H28" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="124"/>
+      <c r="I28" s="134"/>
       <c r="J28" s="103" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H29" s="125"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="111"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="112"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H31" s="127"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="112"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="113"/>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="135"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="121"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="137"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="122"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="137"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="122"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H32" s="139"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J29:J32"/>
@@ -4953,19 +6669,10 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I32"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4976,78 +6683,78 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="132" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H1" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="132"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="138" t="s">
+      <c r="I1" s="147"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="132" t="s">
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G5" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="135"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="140" t="s">
+      <c r="I6" s="151"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="141" t="s">
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-    </row>
-    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+    </row>
+    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" s="20" t="s">
         <v>31</v>
       </c>
@@ -5057,7 +6764,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
@@ -5067,7 +6774,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
@@ -5077,7 +6784,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5087,49 +6794,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="142" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="154"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-    </row>
-    <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+    </row>
+    <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -5139,125 +6846,137 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="132" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="137" t="s">
+      <c r="C24" s="147"/>
+      <c r="D24" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="132" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133" t="s">
+      <c r="C25" s="147"/>
+      <c r="D25" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="132" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="134" t="s">
+      <c r="C26" s="147"/>
+      <c r="D26" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="132" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133" t="s">
+      <c r="C27" s="147"/>
+      <c r="D27" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
       <c r="G27" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="132" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="136">
+      <c r="C29" s="147"/>
+      <c r="D29" s="159">
         <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="132" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="135" t="s">
+      <c r="C32" s="147"/>
+      <c r="D32" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="135"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" s="151"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="102" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="131" t="s">
+      <c r="D33" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="131"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="132" t="s">
+      <c r="E33" s="156"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H1:I1"/>
@@ -5271,18 +6990,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B20:I20"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5307,85 +7014,85 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="22" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="2.58203125" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="22"/>
+    <col min="11" max="11" width="6.875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="75"/>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="97"/>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="198" t="s">
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200" t="s">
+      <c r="C3" s="162"/>
+      <c r="D3" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="201"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="185" t="s">
+      <c r="E3" s="164"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="186"/>
-      <c r="I3" s="203" t="s">
+      <c r="H3" s="178"/>
+      <c r="I3" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="204"/>
-      <c r="K3" s="205"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="72"/>
     </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="206" t="s">
+    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="208" t="s">
+      <c r="C4" s="170"/>
+      <c r="D4" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="209"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="214" t="s">
+      <c r="E4" s="172"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="215"/>
-      <c r="I4" s="211" t="s">
+      <c r="H4" s="180"/>
+      <c r="I4" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="212"/>
-      <c r="K4" s="213"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="176"/>
       <c r="L4" s="70"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="D5" s="98"/>
@@ -5396,102 +7103,102 @@
       <c r="I5" s="60"/>
       <c r="J5" s="60"/>
     </row>
-    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="182" t="s">
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="181" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="186"/>
-      <c r="F6" s="185" t="s">
+      <c r="E6" s="178"/>
+      <c r="F6" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="185" t="s">
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="187"/>
-      <c r="K6" s="188"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="185"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="183"/>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="182"/>
       <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="189" t="s">
+      <c r="D7" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="189" t="s">
+      <c r="E7" s="187"/>
+      <c r="F7" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="190"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="187"/>
       <c r="I7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="189" t="e">
+      <c r="J7" s="186" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="192"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="61"/>
     </row>
-    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="183"/>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="182"/>
       <c r="C8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="189" t="s">
+      <c r="D8" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="189" t="s">
+      <c r="E8" s="187"/>
+      <c r="F8" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
       <c r="I8" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="189" t="e">
+      <c r="J8" s="186" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="192"/>
+      <c r="K8" s="189"/>
       <c r="L8" s="61"/>
     </row>
-    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="184"/>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="183"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="193">
+      <c r="D9" s="190">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="194"/>
-      <c r="F9" s="193">
+      <c r="E9" s="191"/>
+      <c r="F9" s="190">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
       <c r="I9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="193">
+      <c r="J9" s="190">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="196"/>
+      <c r="K9" s="193"/>
       <c r="L9" s="61"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
@@ -5502,59 +7209,59 @@
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="168" t="s">
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="169"/>
+      <c r="C11" s="195"/>
       <c r="D11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="172" t="s">
+      <c r="E11" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="173"/>
+      <c r="F11" s="199"/>
       <c r="G11" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="174" t="s">
+      <c r="H11" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175" t="e">
+      <c r="I11" s="200"/>
+      <c r="J11" s="201" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="176"/>
+      <c r="K11" s="202"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="170"/>
-      <c r="C12" s="171"/>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="196"/>
+      <c r="C12" s="197"/>
       <c r="D12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="177" t="s">
+      <c r="E12" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="178"/>
+      <c r="F12" s="204"/>
       <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="179" t="s">
+      <c r="H12" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="179"/>
-      <c r="J12" s="180" t="e">
+      <c r="I12" s="205"/>
+      <c r="J12" s="206" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="181"/>
+      <c r="K12" s="207"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="153" t="s">
+    <row r="13" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="208" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="56"/>
@@ -5568,20 +7275,20 @@
       <c r="F14" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="166" t="e">
+      <c r="G14" s="221" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="166"/>
-      <c r="I14" s="156" t="s">
+      <c r="H14" s="221"/>
+      <c r="I14" s="211" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="156"/>
-      <c r="K14" s="157"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="212"/>
       <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="154"/>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="209"/>
       <c r="C15" s="52" t="s">
         <v>52</v>
       </c>
@@ -5595,40 +7302,40 @@
       <c r="F15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="167" t="e">
+      <c r="G15" s="222" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="167"/>
-      <c r="I15" s="158" t="s">
+      <c r="H15" s="222"/>
+      <c r="I15" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="158"/>
-      <c r="K15" s="159"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="214"/>
       <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="154"/>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="209"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
       <c r="I16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="160" t="e">
+      <c r="J16" s="215" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="161"/>
+      <c r="K16" s="216"/>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="155"/>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="210"/>
       <c r="C17" s="43" t="s">
         <v>47</v>
       </c>
@@ -5640,68 +7347,68 @@
       <c r="F17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="164" t="str">
+      <c r="G17" s="219" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="164"/>
+      <c r="H17" s="219"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="162" t="e">
+      <c r="J17" s="217" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="163"/>
+      <c r="K17" s="218"/>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
     </row>
-    <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="144" t="s">
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
       <c r="I19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="147" t="s">
+      <c r="J19" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="148"/>
+      <c r="K19" s="227"/>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
     </row>
-    <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="150" t="s">
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="231"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
       <c r="I21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="147" t="s">
+      <c r="J21" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="148"/>
+      <c r="K21" s="227"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="33"/>
@@ -5709,15 +7416,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -5731,28 +7451,15 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5768,47 +7475,47 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="22" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="22" customWidth="1"/>
+    <col min="2" max="3" width="6.625" style="22" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="22" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="22" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="22" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="22" customWidth="1"/>
     <col min="9" max="9" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="22" customWidth="1"/>
-    <col min="11" max="14" width="8.6640625" style="22" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="22"/>
+    <col min="10" max="10" width="2.625" style="22" customWidth="1"/>
+    <col min="11" max="14" width="8.625" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="91"/>
       <c r="K1" s="92"/>
       <c r="L1" s="73"/>
     </row>
-    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="75"/>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="246" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
       <c r="N2" s="85"/>
     </row>
-    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M3" s="85"/>
       <c r="N3" s="85"/>
     </row>
-    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -5820,41 +7527,41 @@
       <c r="L4" s="91"/>
       <c r="N4" s="85"/>
     </row>
-    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228" t="s">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="247" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="237" t="s">
+      <c r="L5" s="232" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="85"/>
     </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="238"/>
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="233"/>
       <c r="N6" s="85"/>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="229" t="e">
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="248" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="231"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
       <c r="N7" s="85"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="89"/>
       <c r="F8" s="88"/>
       <c r="G8" s="87"/>
@@ -5864,7 +7571,7 @@
       <c r="L8" s="24"/>
       <c r="N8" s="85"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" s="89"/>
       <c r="F9" s="88"/>
       <c r="G9" s="87"/>
@@ -5874,101 +7581,101 @@
       <c r="L9" s="86"/>
       <c r="N9" s="85"/>
     </row>
-    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="232" t="s">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="251" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="233"/>
-      <c r="D10" s="234" t="s">
+      <c r="C10" s="252"/>
+      <c r="D10" s="253" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="236"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="255"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="222">
+      <c r="L10" s="262">
         <v>8250000</v>
       </c>
-      <c r="M10" s="222"/>
-      <c r="N10" s="222"/>
-      <c r="O10" s="222"/>
-      <c r="P10" s="222"/>
-    </row>
-    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="262"/>
+      <c r="P10" s="262"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J11" s="26"/>
       <c r="L11" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="248" t="s">
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249" t="s">
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="249"/>
-      <c r="I12" s="250"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="245"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="239" t="s">
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="242" t="s">
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="243"/>
-      <c r="I13" s="244"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="239"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="245" t="s">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="240" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="242" t="s">
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="237" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="243"/>
-      <c r="I14" s="244"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="239"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="216" t="s">
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="221"/>
-    </row>
-    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="261"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -5978,11 +7685,11 @@
       <c r="H16" s="83"/>
       <c r="I16" s="83"/>
     </row>
-    <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="224" t="s">
+    <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="264" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="224"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="82" t="s">
         <v>75</v>
       </c>
@@ -5992,7 +7699,7 @@
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
     </row>
-    <row r="18" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
@@ -6002,44 +7709,44 @@
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
     </row>
-    <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="27"/>
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="225" t="s">
+      <c r="F19" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="225"/>
-      <c r="H19" s="225"/>
-      <c r="I19" s="225"/>
-      <c r="J19" s="225"/>
-    </row>
-    <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="265"/>
+      <c r="H19" s="265"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="265"/>
+    </row>
+    <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="226" t="s">
+      <c r="F20" s="266" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="226"/>
+      <c r="G20" s="266"/>
+      <c r="H20" s="266"/>
+      <c r="I20" s="266"/>
       <c r="J20" s="28"/>
     </row>
-    <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="223" t="s">
+      <c r="F21" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="263"/>
+      <c r="I21" s="263"/>
+      <c r="J21" s="263"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" s="78"/>
       <c r="F22" s="79"/>
       <c r="G22" s="79"/>
@@ -6049,7 +7756,7 @@
       <c r="K22" s="28"/>
       <c r="N22" s="69"/>
     </row>
-    <row r="23" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" s="78"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
@@ -6058,7 +7765,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.4">
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
@@ -6075,6 +7782,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -6082,18 +7801,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6101,4 +7808,212 @@
   <pageSetup paperSize="9" scale="110" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AAB72C-F088-49F3-A7DD-8E76D4229389}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="267"/>
+      <c r="N3" s="267"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I4" s="268"/>
+      <c r="J4" s="270"/>
+      <c r="K4" s="268"/>
+      <c r="L4" s="271"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="267"/>
+    </row>
+    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="273" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="273"/>
+      <c r="K6" s="273"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="273"/>
+      <c r="I7" s="273"/>
+      <c r="J7" s="273"/>
+      <c r="K7" s="273"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="274" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="280" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="277"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="279"/>
+      <c r="I9" s="280"/>
+      <c r="J9" s="280"/>
+      <c r="K9" s="280"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="119">
+        <f>SUM(B8:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="119">
+        <f>SUM(D8:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="281" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="125"/>
+      <c r="G10" s="282">
+        <f>SUM(B10-D10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="283"/>
+      <c r="I10" s="281"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="284"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I11" s="272" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\振替伝票依頼\テンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C875187D-C820-451A-AC73-3986DB430ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF147D46-C6B1-4989-9F19-A123F0E3C2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="支払明細書" sheetId="1" r:id="rId1"/>
@@ -51,17 +51,26 @@
     <definedName name="分析" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
   <si>
     <t>支払金額合計</t>
     <rPh sb="0" eb="2">
@@ -961,20 +970,6 @@
       <t>シュウニュウインシ</t>
     </rPh>
     <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <t>社長</t>
-    <rPh sb="0" eb="2">
-      <t>シャチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>賃料精算金</t>
@@ -2327,7 +2322,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2680,6 +2675,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3201,13 +3199,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
@@ -3224,8 +3222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6076950" y="2724150"/>
-          <a:ext cx="95250" cy="133350"/>
+          <a:off x="5499100" y="3565525"/>
+          <a:ext cx="304800" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3282,13 +3280,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>758825</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9675</xdr:colOff>
+      <xdr:colOff>168425</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
@@ -3305,8 +3303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5407025" y="3946525"/>
-          <a:ext cx="324000" cy="209550"/>
+          <a:off x="5508625" y="3946525"/>
+          <a:ext cx="304950" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6358,21 +6356,20 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="1.625" customWidth="1"/>
+    <col min="4" max="4" width="1.58203125" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.58203125" customWidth="1"/>
+    <col min="8" max="8" width="7.08203125" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="11" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -6380,39 +6377,38 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="H1" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-    </row>
-    <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+    </row>
+    <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="142" t="s">
+    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-    </row>
-    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -6423,13 +6419,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="146"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6439,7 +6435,7 @@
       <c r="G6" s="95"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="95"/>
@@ -6449,7 +6445,7 @@
       <c r="G7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -6460,11 +6456,11 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="11"/>
@@ -6474,7 +6470,7 @@
       <c r="G9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11"/>
@@ -6486,7 +6482,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -6497,12 +6493,12 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="143" t="s">
+      <c r="J11" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="143"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K11" s="144"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
@@ -6511,19 +6507,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="120" t="s">
+      <c r="J12" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="120"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="121"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
@@ -6532,126 +6528,136 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="145" t="s">
+      <c r="E13" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="120" t="s">
+      <c r="J13" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="120"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K13" s="121"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="128"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="120" t="s">
+      <c r="J14" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="120"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="121"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="130"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="120" t="s">
+      <c r="J15" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="120"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="121"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="125"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="130">
+      <c r="E18" s="131">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="133"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="93"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
         <v>106</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H28" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="134"/>
-      <c r="J28" s="103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="121"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H30" s="137"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="122"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="137"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="122"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H32" s="139"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="123"/>
+    <row r="27" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="28" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="120"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="136"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="138"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="138"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="F32" s="140"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G1:K1"/>
+  <mergeCells count="21">
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
@@ -6660,6 +6666,7 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J29:J32"/>
@@ -6669,10 +6676,13 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I32"/>
+    <mergeCell ref="F29:G32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K29:K32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6683,78 +6693,78 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="H1" s="147" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="147"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="149" t="s">
+      <c r="I1" s="148"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="150" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="G5" s="147" t="s">
+      <c r="G4" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="151" t="s">
+      <c r="H6" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="151"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="152" t="s">
+      <c r="I6" s="152"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="153" t="s">
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-    </row>
-    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+    </row>
+    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="20" t="s">
         <v>31</v>
       </c>
@@ -6764,7 +6774,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
@@ -6774,7 +6784,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
@@ -6784,7 +6794,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6794,49 +6804,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="154" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="154"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-    </row>
-    <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+    </row>
+    <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -6846,119 +6856,119 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="147" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148" t="s">
+      <c r="C24" s="148"/>
+      <c r="D24" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="147" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="157" t="s">
+      <c r="C25" s="148"/>
+      <c r="D25" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="147" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="148"/>
+      <c r="D26" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="158" t="s">
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="148"/>
+      <c r="D27" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="147" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="159">
+      <c r="C29" s="148"/>
+      <c r="D29" s="160">
         <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="147" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="151" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="151"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E32" s="152"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="102" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="156" t="s">
+      <c r="D33" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="156"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="147" t="s">
+      <c r="E33" s="157"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7014,85 +7024,85 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" style="22" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="22" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="22"/>
+    <col min="11" max="11" width="6.83203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="2.58203125" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="97"/>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="s">
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="164"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="177" t="s">
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="178"/>
-      <c r="I3" s="166" t="s">
+      <c r="H3" s="179"/>
+      <c r="I3" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="167"/>
-      <c r="K3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="169"/>
       <c r="L3" s="72"/>
     </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="169" t="s">
+    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="171" t="s">
+      <c r="C4" s="171"/>
+      <c r="D4" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="172"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="179" t="s">
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="180"/>
-      <c r="I4" s="174" t="s">
+      <c r="H4" s="181"/>
+      <c r="I4" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="175"/>
-      <c r="K4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="177"/>
       <c r="L4" s="70"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="D5" s="98"/>
@@ -7103,102 +7113,102 @@
       <c r="I5" s="60"/>
       <c r="J5" s="60"/>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="181" t="s">
+    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="182" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="177" t="s">
+      <c r="E6" s="179"/>
+      <c r="F6" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="177" t="s">
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="184"/>
-      <c r="K6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="186"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="182"/>
+    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="183"/>
       <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="186" t="s">
+      <c r="D7" s="187" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="186" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="188"/>
-      <c r="H7" s="187"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="186" t="e">
+      <c r="J7" s="187" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="189"/>
+      <c r="K7" s="190"/>
       <c r="L7" s="61"/>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="182"/>
+    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="183"/>
       <c r="C8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="186" t="s">
+      <c r="E8" s="188"/>
+      <c r="F8" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
       <c r="I8" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="186" t="e">
+      <c r="J8" s="187" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="189"/>
+      <c r="K8" s="190"/>
       <c r="L8" s="61"/>
     </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="183"/>
+    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="184"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="190">
+      <c r="D9" s="191">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="191"/>
-      <c r="F9" s="190">
+      <c r="E9" s="192"/>
+      <c r="F9" s="191">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
       <c r="I9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="190">
+      <c r="J9" s="191">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="193"/>
+      <c r="K9" s="194"/>
       <c r="L9" s="61"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
@@ -7209,59 +7219,59 @@
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="194" t="s">
+    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="195" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="195"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="198" t="s">
+      <c r="E11" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="199"/>
+      <c r="F11" s="200"/>
       <c r="G11" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="200" t="s">
+      <c r="H11" s="201" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201" t="e">
+      <c r="I11" s="201"/>
+      <c r="J11" s="202" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="202"/>
+      <c r="K11" s="203"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="196"/>
-      <c r="C12" s="197"/>
+    <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="197"/>
+      <c r="C12" s="198"/>
       <c r="D12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="203" t="s">
+      <c r="E12" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="204"/>
+      <c r="F12" s="205"/>
       <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="205" t="s">
+      <c r="H12" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="205"/>
-      <c r="J12" s="206" t="e">
+      <c r="I12" s="206"/>
+      <c r="J12" s="207" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="207"/>
+      <c r="K12" s="208"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="208" t="s">
+    <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="209" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="56"/>
@@ -7275,20 +7285,20 @@
       <c r="F14" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="221" t="e">
+      <c r="G14" s="222" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="221"/>
-      <c r="I14" s="211" t="s">
+      <c r="H14" s="222"/>
+      <c r="I14" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="211"/>
-      <c r="K14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="213"/>
       <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="209"/>
+    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="210"/>
       <c r="C15" s="52" t="s">
         <v>52</v>
       </c>
@@ -7302,40 +7312,40 @@
       <c r="F15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="222" t="e">
+      <c r="G15" s="223" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="222"/>
-      <c r="I15" s="213" t="s">
+      <c r="H15" s="223"/>
+      <c r="I15" s="214" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="213"/>
-      <c r="K15" s="214"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="215"/>
       <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="209"/>
+    <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="210"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
       <c r="I16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="215" t="e">
+      <c r="J16" s="216" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="216"/>
+      <c r="K16" s="217"/>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="210"/>
+    <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="211"/>
       <c r="C17" s="43" t="s">
         <v>47</v>
       </c>
@@ -7347,68 +7357,68 @@
       <c r="F17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="219" t="str">
+      <c r="G17" s="220" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="219"/>
+      <c r="H17" s="220"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="217" t="e">
+      <c r="J17" s="218" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="218"/>
+      <c r="K17" s="219"/>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
     </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="223" t="s">
+    <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="224" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="224"/>
-      <c r="D19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="226"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
       <c r="I19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="226" t="s">
+      <c r="J19" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="227"/>
+      <c r="K19" s="228"/>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
     </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="229" t="s">
+    <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="230"/>
-      <c r="D21" s="231"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="228"/>
+      <c r="G21" s="229"/>
+      <c r="H21" s="229"/>
       <c r="I21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="226" t="s">
+      <c r="J21" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="227"/>
+      <c r="K21" s="228"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="33"/>
@@ -7475,47 +7485,47 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="22" customWidth="1"/>
-    <col min="2" max="3" width="6.625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="22" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="22" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="22" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="22" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="22" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="22" customWidth="1"/>
     <col min="9" max="9" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="22" customWidth="1"/>
-    <col min="11" max="14" width="8.625" style="22" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="22"/>
+    <col min="10" max="10" width="2.58203125" style="22" customWidth="1"/>
+    <col min="11" max="14" width="8.58203125" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="8.58203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="91"/>
       <c r="K1" s="92"/>
       <c r="L1" s="73"/>
     </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="247" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
       <c r="N2" s="85"/>
     </row>
-    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="M3" s="85"/>
       <c r="N3" s="85"/>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -7527,41 +7537,41 @@
       <c r="L4" s="91"/>
       <c r="N4" s="85"/>
     </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="247" t="s">
+    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="232" t="s">
+      <c r="L5" s="233" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="85"/>
     </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L6" s="233"/>
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" s="234"/>
       <c r="N6" s="85"/>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="248" t="e">
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="249" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="250"/>
+      <c r="E7" s="250"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="251"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
       <c r="N7" s="85"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="89"/>
       <c r="F8" s="88"/>
       <c r="G8" s="87"/>
@@ -7571,7 +7581,7 @@
       <c r="L8" s="24"/>
       <c r="N8" s="85"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="89"/>
       <c r="F9" s="88"/>
       <c r="G9" s="87"/>
@@ -7581,101 +7591,101 @@
       <c r="L9" s="86"/>
       <c r="N9" s="85"/>
     </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="251" t="s">
+    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="252"/>
-      <c r="D10" s="253" t="s">
+      <c r="C10" s="253"/>
+      <c r="D10" s="254" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="256"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="262">
+      <c r="L10" s="263">
         <v>8250000</v>
       </c>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="262"/>
-      <c r="P10" s="262"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="263"/>
+      <c r="N10" s="263"/>
+      <c r="O10" s="263"/>
+      <c r="P10" s="263"/>
+    </row>
+    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
       <c r="L11" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="243" t="s">
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="244" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="244"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244" t="s">
+      <c r="C12" s="245"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="244"/>
-      <c r="I12" s="245"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="246"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="234" t="s">
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="236"/>
-      <c r="G13" s="237" t="s">
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="238"/>
-      <c r="I13" s="239"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="240"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="240" t="s">
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="241" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="237" t="s">
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="238" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="238"/>
-      <c r="I14" s="239"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="240"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="256" t="s">
+    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="257" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="257"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="260"/>
-      <c r="I15" s="261"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="262"/>
+    </row>
+    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -7685,11 +7695,11 @@
       <c r="H16" s="83"/>
       <c r="I16" s="83"/>
     </row>
-    <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="264" t="s">
+    <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="265" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="82" t="s">
         <v>75</v>
       </c>
@@ -7699,7 +7709,7 @@
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
     </row>
-    <row r="18" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
@@ -7709,44 +7719,44 @@
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
     </row>
-    <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="27"/>
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="265" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="265"/>
-      <c r="H19" s="265"/>
-      <c r="I19" s="265"/>
-      <c r="J19" s="265"/>
-    </row>
-    <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="266" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="266"/>
+      <c r="H19" s="266"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="266"/>
+    </row>
+    <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="266" t="s">
+      <c r="F20" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="266"/>
-      <c r="H20" s="266"/>
-      <c r="I20" s="266"/>
+      <c r="G20" s="267"/>
+      <c r="H20" s="267"/>
+      <c r="I20" s="267"/>
       <c r="J20" s="28"/>
     </row>
-    <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="263" t="s">
+      <c r="F21" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="263"/>
-      <c r="H21" s="263"/>
-      <c r="I21" s="263"/>
-      <c r="J21" s="263"/>
+      <c r="G21" s="264"/>
+      <c r="H21" s="264"/>
+      <c r="I21" s="264"/>
+      <c r="J21" s="264"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="78"/>
       <c r="F22" s="79"/>
       <c r="G22" s="79"/>
@@ -7756,7 +7766,7 @@
       <c r="K22" s="28"/>
       <c r="N22" s="69"/>
     </row>
-    <row r="23" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="78"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
@@ -7765,7 +7775,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
@@ -7819,180 +7829,180 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
     <col min="6" max="7" width="12.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I2" s="105"/>
       <c r="J2" s="105"/>
       <c r="K2" s="105"/>
       <c r="L2" s="106"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="D3" s="110"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="268"/>
+      <c r="N3" s="268"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="269"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="269"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="268"/>
+      <c r="N4" s="268"/>
+    </row>
+    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="B6" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="267"/>
-      <c r="N3" s="267"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I4" s="268"/>
-      <c r="J4" s="270"/>
-      <c r="K4" s="268"/>
-      <c r="L4" s="271"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-    </row>
-    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="112" t="s">
+      <c r="C6" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="E6" s="274" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="F6" s="274"/>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="274" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="273" t="s">
+      <c r="J6" s="274"/>
+      <c r="K6" s="274"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273" t="s">
+      <c r="B7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="273"/>
-      <c r="K6" s="273"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="112" t="s">
+      <c r="C7" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="D7" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="274"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="274"/>
+      <c r="J7" s="274"/>
+      <c r="K7" s="274"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="B8" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="112" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="273"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="273"/>
-      <c r="I7" s="273"/>
-      <c r="J7" s="273"/>
-      <c r="K7" s="273"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="113" t="s">
+      <c r="C8" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="E8" s="275" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="277"/>
+      <c r="I8" s="281" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="274" t="s">
+      <c r="J8" s="281"/>
+      <c r="K8" s="281"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="276"/>
-      <c r="I8" s="280" t="s">
+      <c r="C9" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="280"/>
-      <c r="K8" s="280"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="117" t="s">
+      <c r="E9" s="278"/>
+      <c r="F9" s="279"/>
+      <c r="G9" s="279"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="281"/>
+      <c r="K9" s="281"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="111" t="s">
         <v>147</v>
-      </c>
-      <c r="C9" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="118" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="277"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="280"/>
-      <c r="J9" s="280"/>
-      <c r="K9" s="280"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="111" t="s">
-        <v>149</v>
       </c>
       <c r="B10" s="119">
         <f>SUM(B8:B9)</f>
         <v>0</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="119">
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="281" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="125"/>
-      <c r="G10" s="282">
+      <c r="E10" s="282" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="126"/>
+      <c r="G10" s="283">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="283"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="284"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I11" s="272" t="s">
+      <c r="H10" s="284"/>
+      <c r="I10" s="282"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="285"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="273" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="272"/>
-      <c r="K11" s="272"/>
+      <c r="J11" s="273"/>
+      <c r="K11" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8014,6 +8024,6 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF147D46-C6B1-4989-9F19-A123F0E3C2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D230C-260A-4484-90C9-1068052CCB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -2680,8 +2680,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2743,39 +2761,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2788,17 +2800,164 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2847,212 +3006,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3087,52 +3078,46 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3172,6 +3157,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6380,30 +6380,30 @@
       <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -6419,10 +6419,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="147" t="s">
+      <c r="G5" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6456,8 +6456,8 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6493,10 +6493,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="144" t="s">
+      <c r="J11" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="144"/>
+      <c r="K11" s="122"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -6507,17 +6507,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="121" t="s">
+      <c r="J12" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="121"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -6528,17 +6528,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="121" t="s">
+      <c r="J13" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="121"/>
+      <c r="K13" s="123"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -6547,14 +6547,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="128"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="134"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="121" t="s">
+      <c r="J14" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="121"/>
+      <c r="K14" s="123"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -6563,32 +6563,32 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="130"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="136"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="121" t="s">
+      <c r="J15" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="121"/>
+      <c r="K15" s="123"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="126"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="131">
+      <c r="E18" s="137">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="133"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="139"/>
       <c r="I18" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -6617,55 +6617,47 @@
     </row>
     <row r="27" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F28" s="134"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="135"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="141"/>
       <c r="J28" s="103"/>
       <c r="K28" s="120"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F30" s="138"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F31" s="138"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F32" s="140"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -6679,6 +6671,14 @@
     <mergeCell ref="F29:G32"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K29:K32"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6703,17 +6703,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="148"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
@@ -6724,18 +6724,18 @@
       <c r="F4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="148" t="s">
+      <c r="G5" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
@@ -6747,21 +6747,21 @@
       <c r="I6" s="152"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -6811,10 +6811,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="155"/>
+      <c r="C17" s="159"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
@@ -6827,24 +6827,24 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -6862,57 +6862,57 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149" t="s">
+      <c r="C24" s="149"/>
+      <c r="D24" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="148" t="s">
+      <c r="B25" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="148"/>
-      <c r="D25" s="158" t="s">
+      <c r="C25" s="149"/>
+      <c r="D25" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="159" t="s">
+      <c r="C26" s="149"/>
+      <c r="D26" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
       <c r="G26" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="148" t="s">
+      <c r="B27" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="158" t="s">
+      <c r="C27" s="149"/>
+      <c r="D27" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
       <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
@@ -6921,16 +6921,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="148"/>
-      <c r="D29" s="160">
+      <c r="C29" s="149"/>
+      <c r="D29" s="153">
         <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
@@ -6942,10 +6942,10 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="148" t="s">
+      <c r="B32" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="148"/>
+      <c r="C32" s="149"/>
       <c r="D32" s="152" t="s">
         <v>100</v>
       </c>
@@ -6958,35 +6958,23 @@
       <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="157" t="s">
+      <c r="D33" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="157"/>
+      <c r="E33" s="148"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H1:I1"/>
@@ -7000,6 +6988,18 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -7043,17 +7043,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -7061,45 +7061,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164" t="s">
+      <c r="C3" s="216"/>
+      <c r="D3" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="178" t="s">
+      <c r="E3" s="218"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="179"/>
-      <c r="I3" s="167" t="s">
+      <c r="H3" s="203"/>
+      <c r="I3" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="168"/>
-      <c r="K3" s="169"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="172" t="s">
+      <c r="C4" s="224"/>
+      <c r="D4" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="173"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="180" t="s">
+      <c r="E4" s="226"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="181"/>
-      <c r="I4" s="175" t="s">
+      <c r="H4" s="232"/>
+      <c r="I4" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="176"/>
-      <c r="K4" s="177"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="230"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7114,98 +7114,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="199" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="178" t="s">
+      <c r="D6" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="178" t="s">
+      <c r="E6" s="203"/>
+      <c r="F6" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="178" t="s">
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="185"/>
-      <c r="K6" s="186"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="205"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="183"/>
+      <c r="B7" s="200"/>
       <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="188"/>
-      <c r="F7" s="187" t="s">
+      <c r="E7" s="207"/>
+      <c r="F7" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="189"/>
-      <c r="H7" s="188"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="207"/>
       <c r="I7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="187" t="e">
+      <c r="J7" s="206" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="190"/>
+      <c r="K7" s="209"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="183"/>
+      <c r="B8" s="200"/>
       <c r="C8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="187" t="s">
+      <c r="D8" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="188"/>
-      <c r="F8" s="187" t="s">
+      <c r="E8" s="207"/>
+      <c r="F8" s="206" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
       <c r="I8" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="187" t="e">
+      <c r="J8" s="206" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="190"/>
+      <c r="K8" s="209"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="184"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="191">
+      <c r="D9" s="210">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="192"/>
-      <c r="F9" s="191">
+      <c r="E9" s="211"/>
+      <c r="F9" s="210">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="212"/>
       <c r="I9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="191">
+      <c r="J9" s="210">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="194"/>
+      <c r="K9" s="213"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7220,58 +7220,58 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="196"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="200"/>
+      <c r="F11" s="190"/>
       <c r="G11" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="201" t="s">
+      <c r="H11" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202" t="e">
+      <c r="I11" s="191"/>
+      <c r="J11" s="192" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="203"/>
+      <c r="K11" s="193"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="197"/>
-      <c r="C12" s="198"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="204" t="s">
+      <c r="E12" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="205"/>
+      <c r="F12" s="195"/>
       <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="206" t="s">
+      <c r="H12" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="206"/>
-      <c r="J12" s="207" t="e">
+      <c r="I12" s="196"/>
+      <c r="J12" s="197" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="208"/>
+      <c r="K12" s="198"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="170" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="56"/>
@@ -7285,20 +7285,20 @@
       <c r="F14" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="222" t="e">
+      <c r="G14" s="183" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="222"/>
-      <c r="I14" s="212" t="s">
+      <c r="H14" s="183"/>
+      <c r="I14" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="212"/>
-      <c r="K14" s="213"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="174"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="210"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="52" t="s">
         <v>52</v>
       </c>
@@ -7312,40 +7312,40 @@
       <c r="F15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="223" t="e">
+      <c r="G15" s="184" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="223"/>
-      <c r="I15" s="214" t="s">
+      <c r="H15" s="184"/>
+      <c r="I15" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="214"/>
-      <c r="K15" s="215"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="210"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
       <c r="I16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="216" t="e">
+      <c r="J16" s="177" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="217"/>
+      <c r="K16" s="178"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="211"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="43" t="s">
         <v>47</v>
       </c>
@@ -7357,17 +7357,17 @@
       <c r="F17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="220" t="str">
+      <c r="G17" s="181" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="220"/>
+      <c r="H17" s="181"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="218" t="e">
+      <c r="J17" s="179" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="219"/>
+      <c r="K17" s="180"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7375,22 +7375,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
       <c r="I19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="227" t="s">
+      <c r="J19" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="228"/>
+      <c r="K19" s="165"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7400,22 +7400,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="229"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
       <c r="I21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="227" t="s">
+      <c r="J21" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="228"/>
+      <c r="K21" s="165"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7426,28 +7426,15 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -7461,15 +7448,28 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7506,16 +7506,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="244" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -7538,34 +7538,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="245" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="233" t="s">
+      <c r="L5" s="254" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="234"/>
+      <c r="L6" s="255"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="249" t="e">
+      <c r="D7" s="246" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="251"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="248"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -7592,26 +7592,26 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="252" t="s">
+      <c r="B10" s="249" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="254" t="s">
+      <c r="C10" s="250"/>
+      <c r="D10" s="251" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="255"/>
-      <c r="H10" s="255"/>
-      <c r="I10" s="256"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="253"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="263">
+      <c r="L10" s="239">
         <v>8250000</v>
       </c>
-      <c r="M10" s="263"/>
-      <c r="N10" s="263"/>
-      <c r="O10" s="263"/>
-      <c r="P10" s="263"/>
+      <c r="M10" s="239"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="239"/>
+      <c r="P10" s="239"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -7620,70 +7620,70 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="244" t="s">
+      <c r="B12" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="245"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="245"/>
-      <c r="G12" s="245" t="s">
+      <c r="C12" s="266"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="245"/>
-      <c r="I12" s="246"/>
+      <c r="H12" s="266"/>
+      <c r="I12" s="267"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="235" t="s">
+      <c r="B13" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="238" t="s">
+      <c r="C13" s="257"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="259" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="239"/>
-      <c r="I13" s="240"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="261"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="241" t="s">
+      <c r="B14" s="262" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="242"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="238" t="s">
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="264"/>
+      <c r="G14" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="239"/>
-      <c r="I14" s="240"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="261"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="257" t="s">
+      <c r="B15" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="258"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="262"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="236"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="238"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -7696,10 +7696,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="241" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="241"/>
       <c r="D17" s="82" t="s">
         <v>75</v>
       </c>
@@ -7724,36 +7724,36 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="266" t="s">
+      <c r="F19" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="266"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="267" t="s">
+      <c r="F20" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="267"/>
-      <c r="H20" s="267"/>
-      <c r="I20" s="267"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="243"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="264" t="s">
+      <c r="F21" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="264"/>
-      <c r="H21" s="264"/>
-      <c r="I21" s="264"/>
-      <c r="J21" s="264"/>
+      <c r="G21" s="240"/>
+      <c r="H21" s="240"/>
+      <c r="I21" s="240"/>
+      <c r="J21" s="240"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7792,6 +7792,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="L10:P10"/>
@@ -7799,18 +7811,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7845,6 +7845,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="105"/>
       <c r="I2" s="105"/>
       <c r="J2" s="105"/>
       <c r="K2" s="105"/>
@@ -7861,20 +7862,22 @@
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="270"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="268"/>
-      <c r="N3" s="268"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="269"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="268"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="285"/>
+      <c r="M4" s="281"/>
+      <c r="N4" s="281"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7890,17 +7893,17 @@
       <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="274" t="s">
+      <c r="E6" s="269" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274" t="s">
+      <c r="F6" s="269"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="274"/>
-      <c r="K6" s="274"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="112" t="s">
@@ -7915,13 +7918,13 @@
       <c r="D7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="274"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="274"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="269"/>
+      <c r="K7" s="269"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="113" t="s">
@@ -7936,17 +7939,17 @@
       <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="275" t="s">
+      <c r="E8" s="270" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="276"/>
-      <c r="G8" s="276"/>
-      <c r="H8" s="277"/>
-      <c r="I8" s="281" t="s">
+      <c r="F8" s="271"/>
+      <c r="G8" s="271"/>
+      <c r="H8" s="272"/>
+      <c r="I8" s="276" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="281"/>
-      <c r="K8" s="281"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="276"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116" t="s">
@@ -7961,13 +7964,13 @@
       <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="278"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="280"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="281"/>
-      <c r="K9" s="281"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="274"/>
+      <c r="G9" s="274"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="276"/>
+      <c r="J9" s="276"/>
+      <c r="K9" s="276"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="111" t="s">
@@ -7984,28 +7987,35 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="282" t="s">
+      <c r="E10" s="277" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="126"/>
-      <c r="G10" s="283">
+      <c r="F10" s="132"/>
+      <c r="G10" s="278">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="284"/>
-      <c r="I10" s="282"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="285"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="280"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="273" t="s">
+      <c r="I11" s="268" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="273"/>
-      <c r="K11" s="273"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -8014,12 +8024,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,55 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D230C-260A-4484-90C9-1068052CCB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0FC2A9-4FCA-4233-9F70-3FBB7ECEDB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="支払明細書" sheetId="1" r:id="rId1"/>
-    <sheet name="決済案内" sheetId="2" r:id="rId2"/>
-    <sheet name="固都税精算" sheetId="3" r:id="rId3"/>
-    <sheet name="領収証" sheetId="4" r:id="rId4"/>
-    <sheet name="振替伝票" sheetId="5" r:id="rId5"/>
+    <sheet name="支払依頼書帳票" sheetId="6" r:id="rId2"/>
+    <sheet name="決済案内" sheetId="2" r:id="rId3"/>
+    <sheet name="固都税精算" sheetId="3" r:id="rId4"/>
+    <sheet name="領収証" sheetId="4" r:id="rId5"/>
+    <sheet name="領収証 (仲介手数料)" sheetId="8" r:id="rId6"/>
+    <sheet name="領収証 (業務委託料)" sheetId="7" r:id="rId7"/>
+    <sheet name="振替伝票" sheetId="5" r:id="rId8"/>
+    <sheet name="振替伝票 (仲介・業務委託)" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="____ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
-    <definedName name="___ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
-    <definedName name="__ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
-    <definedName name="_ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
-    <definedName name="ALL" localSheetId="2">[1]台帳!$1:$1048576</definedName>
-    <definedName name="ALL" localSheetId="3">[1]台帳!$1:$1048576</definedName>
-    <definedName name="ALL">[1]台帳!$1:$1048576</definedName>
-    <definedName name="Data" localSheetId="2">#REF!</definedName>
-    <definedName name="Data">#REF!</definedName>
-    <definedName name="DB" localSheetId="2">#REF!</definedName>
-    <definedName name="DB">#REF!</definedName>
-    <definedName name="japan" localSheetId="2">#REF!</definedName>
-    <definedName name="japan">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">決済案内!$A$1:$I$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">固都税精算!$A$1:$L$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">支払明細書!$A$1:$K$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">振替伝票!$A$1:$K$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">領収証!$A$1:$J$25</definedName>
-    <definedName name="ProjectName" localSheetId="2">{"Client Name or Project Name"}</definedName>
-    <definedName name="ProjectName" localSheetId="3">{"Client Name or Project Name"}</definedName>
-    <definedName name="ProjectName">{"Client Name or Project Name"}</definedName>
-    <definedName name="富永リクエスト" localSheetId="2">{"Client Name or Project Name"}</definedName>
-    <definedName name="富永リクエスト" localSheetId="3">{"Client Name or Project Name"}</definedName>
-    <definedName name="富永リクエスト">{"Client Name or Project Name"}</definedName>
-    <definedName name="分析" localSheetId="2">{"Client Name or Project Name"}</definedName>
-    <definedName name="分析" localSheetId="3">{"Client Name or Project Name"}</definedName>
-    <definedName name="分析">{"Client Name or Project Name"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'領収証 (業務委託料)'!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'領収証 (仲介手数料)'!$A$1:$J$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="203">
   <si>
     <t>支払金額合計</t>
     <rPh sb="0" eb="2">
@@ -1187,6 +1163,317 @@
   </si>
   <si>
     <t>$creditorKanjyoDetailName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　振込一覧</t>
+    <rPh sb="1" eb="3">
+      <t>フリコミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(物件番号：$contractBukkenNo$）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDay_dt_kanji_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払い</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>買主： 株式会社メトロス開発</t>
+  </si>
+  <si>
+    <t>担当：$contractStaffName$</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約書
+番号</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地　番
+家屋番号</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カオクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>支払先</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>振込先</t>
+  </si>
+  <si>
+    <t>振込口座名義</t>
+    <rPh sb="2" eb="4">
+      <t>コウザ</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>銀行・信用金庫等</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口座種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口座番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代金</t>
+    <rPh sb="0" eb="2">
+      <t>ダイキン</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>送金金額</t>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDateTime_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFormNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$list_blockOrBuildingNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$supplierName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$bankName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$bank_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$branchName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$accountTypeName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$accountName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTax_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$paymentName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDateTime_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$supplierName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$bankName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$bank_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$branchName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$accountTypeName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$accountName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTax_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$paymentName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>株式会社メトロス開発</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>$addressAndBlockOrBuildingNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記所在物件の合意書に基づく立退料残金として</t>
+    <rPh sb="7" eb="10">
+      <t>ゴウイショ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>タチノキリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ザンキン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テキン</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>上記所在物件の業務委託契約書に基づく業務委託料として</t>
+    <rPh sb="0" eb="6">
+      <t>ジョウキショザイブッケン</t>
+    </rPh>
+    <rPh sb="7" eb="14">
+      <t>ギョウムイタクケイヤクショ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>ギョウムイタクリョウ</t>
+    </rPh>
+    <phoneticPr fontId="42"/>
+  </si>
+  <si>
+    <t>上記所在物件の不動産売買契約書第4条に基づく売買代金（内金）として</t>
+    <rPh sb="15" eb="16">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>以下余白</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記所在物件の不動産売買契約書第3条に基づく売買代金として</t>
+    <rPh sb="22" eb="24">
+      <t>バイバイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>$contractFixDay_dt_kanji_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　 　　　　　                                  ㊞</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>上記所在物件の業務委託契約書に基づく仲介手数料として</t>
+    <rPh sb="0" eb="6">
+      <t>ジョウキショザイブッケン</t>
+    </rPh>
+    <rPh sb="7" eb="14">
+      <t>ギョウムイタクケイヤクショ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="42"/>
+  </si>
+  <si>
+    <t>$contractFixDay$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1194,7 +1481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="28">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1219,8 +1506,12 @@
     <numFmt numFmtId="194" formatCode="&quot;金 &quot;#,##0&quot; 円也&quot;;&quot;金 ▲&quot;#,##0&quot; 円也&quot;"/>
     <numFmt numFmtId="195" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="196" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="197" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="198" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="199" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="200" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1522,8 +1813,67 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1542,8 +1892,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -2311,8 +2667,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2321,8 +2757,11 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2680,11 +3119,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="44" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="26" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="200" fontId="46" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="46" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="49" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2759,6 +3279,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="46" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="48" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="46" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3120,6 +3718,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3159,12 +3770,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3175,10 +3786,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{BD7445E9-A777-4780-9CDC-405701966106}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{558CD263-EAC3-4D4B-BA9B-6FF15973EAFA}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{40683CB0-AAFE-4F5C-BBF9-245FEBE54B2F}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3359,2697 +3971,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="概要"/>
-      <sheetName val="仲介業者ﾘｽﾄ"/>
-      <sheetName val="台帳"/>
-      <sheetName val="契約報告書"/>
-      <sheetName val="決済報告書"/>
-      <sheetName val="精算書"/>
-      <sheetName val="取引台帳"/>
-      <sheetName val="ﾚﾝﾀﾙ確認書"/>
-      <sheetName val="Ikoma Data"/>
-      <sheetName val="リスト"/>
-      <sheetName val="CodeTable"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="1">
-          <cell r="A1">
-            <v>1</v>
-          </cell>
-          <cell r="B1">
-            <v>2</v>
-          </cell>
-          <cell r="C1">
-            <v>3</v>
-          </cell>
-          <cell r="D1">
-            <v>4</v>
-          </cell>
-          <cell r="E1">
-            <v>5</v>
-          </cell>
-          <cell r="F1">
-            <v>6</v>
-          </cell>
-          <cell r="G1">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>NO.</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>会社名</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>支店名</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>住所</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>ビル名</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>TEL</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>免許番号</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>媒介契約期限</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>50</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>インタープラネット 株式会社</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>大阪市北区堂島 2-1-27</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>桜橋千代田ﾋﾞﾙ 8F</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>06-442-7777</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>大阪府知事(1)第46128号</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>東京都新宿区西新宿7-21-3</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H5">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>町田営業店</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>東京都町田市原町田4-2-10</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>0427-23-6651</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H6">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1.2</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>札幌営業店</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>札幌市中央区南八条西4-422-5</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>011-532-7767</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H7">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1.3</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>広島営業店</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>広島市中区幟町13-11</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>明治生命広島幟町ﾋﾞﾙ2F</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>082-223-1201</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H8">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1.4</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>仙台営業店</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>宮崎県仙台市青葉区一番町 3-6-1</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>022-213-0711</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H9">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1.5</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>名古屋営業店</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>名古屋市中区栄4-1-8</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>052-243-1511</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H10">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1.6</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>福岡営業店</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>福岡市中央区天神3-11-20</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>天神エフﾋﾞﾙ4F</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>092-714-4431</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1.7</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>江坂店</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>大阪府吹田市広芝町10-40</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>水川ビル2F</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>06-6389-4451</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1.8</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>神戸三宮営業所</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>神戸市中央区京町72</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>新タレセントビル4階</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>078-393-2201</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>株式会社 ハウス管理ｻｰﾋﾞｽ</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>盛岡市南大通2-1-12</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>019-654-6363</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>岩手県知事(2)第1866号</v>
-          </cell>
-          <cell r="H14">
-            <v>36070</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>3</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>株式会社 リクルートコスモス</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>3.1</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>株式会社 リクルートコスモス</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>池袋支店</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>東京都豊島区東池袋1-17-8</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>03-5391-1570</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>建設大臣(7)第2361号</v>
-          </cell>
-          <cell r="H16">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>3.2</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>株式会社 リクルートコスモス</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>神戸支店</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>神戸市中央区江戸川町95</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>03-54404032</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>建設大臣(8)第2361号</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>3.3</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>株式会社 リクルートコスモス</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>横浜支店</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>横浜市西区北幸3-9-15</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>建設大臣(8)第2361号</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>4</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>豊川住宅センター 株式会社</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>豊川市開運通2-48-1</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>0533-86-5554</v>
-          </cell>
-          <cell r="G19" t="str">
-            <v>愛知県知事(6)第12377号</v>
-          </cell>
-          <cell r="H19">
-            <v>36143</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>5</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>株式会社 マテックコーポレーション</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>京都市右京区西院坤町2番地</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>075-706-3800</v>
-          </cell>
-          <cell r="G20" t="str">
-            <v>京都府知事(1)第010674号</v>
-          </cell>
-          <cell r="H20">
-            <v>36018</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>6</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>株式会社タイヨーコーポレーション</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>情報センター晩翠通り店</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>仙台市青葉区国分町2-8-14</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>022-221-3811</v>
-          </cell>
-          <cell r="G21" t="str">
-            <v>建設大臣(4)第3587号</v>
-          </cell>
-          <cell r="H21">
-            <v>36068</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>7</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>株式会社 タミー・コーポレーション</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>大阪市西区江戸堀1-17-16</v>
-          </cell>
-          <cell r="G22" t="str">
-            <v>大阪府知事(3)第041172号</v>
-          </cell>
-          <cell r="H22">
-            <v>36018</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>8</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>株式会社 アイランド</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v xml:space="preserve">福岡市中央区赤坂1-15-15 </v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>平和台ﾊｲﾂ503号</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>092-724-8633</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v>福岡県知事(2)第12825号</v>
-          </cell>
-          <cell r="H23">
-            <v>36022</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>9</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>藤和不動産流通サービス 株式会社</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>東京都豊島区東池袋1-15-2</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v>建設大臣(5)第3266号</v>
-          </cell>
-          <cell r="H24">
-            <v>36053</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>9.1</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>藤和不動産流通サービス 株式会社</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>東京都豊島区東池袋1-15-2</v>
-          </cell>
-          <cell r="G25" t="str">
-            <v>建設大臣(5)第3266号</v>
-          </cell>
-          <cell r="H25">
-            <v>36053</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>9.1999999999999993</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>藤和不動産流通サービス 株式会社</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>上野営業所</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>東京都文京区湯島4-6-11</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>03-3815-0234</v>
-          </cell>
-          <cell r="G26" t="str">
-            <v>建設大臣(5)第3266号</v>
-          </cell>
-          <cell r="H26">
-            <v>36289</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>10</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>株式会社 ビルネット</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>大阪市中央区南船場3-8-7</v>
-          </cell>
-          <cell r="F27" t="str">
-            <v>06-258-8165</v>
-          </cell>
-          <cell r="G27" t="str">
-            <v>大阪府知事(1)第45208号</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>11</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>株式会社 日本リロケーション</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>東京都新宿区新宿4-3-23</v>
-          </cell>
-          <cell r="G28" t="str">
-            <v>建設大臣(4)第3675号</v>
-          </cell>
-          <cell r="H28">
-            <v>36149</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>12</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>三和住宅 株式会社</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>愛媛県新居浜市西原町2-2-9</v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>0897-34-0404</v>
-          </cell>
-          <cell r="G29" t="str">
-            <v>愛知県知事(4)第3542号</v>
-          </cell>
-          <cell r="H29">
-            <v>36130</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>13</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>有限会社 緑町エステート</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>函館市松陰町1-30</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>ﾗｲｵﾝｽﾞﾏﾝｼｮﾝ松陰1F</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>0138-52-4100</v>
-          </cell>
-          <cell r="G30" t="str">
-            <v>北海道知事 渡島(4)第716号</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>14</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>ヘイケン株式会社</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>東京都新宿区左門町6</v>
-          </cell>
-          <cell r="F31" t="str">
-            <v>03-3353-3705</v>
-          </cell>
-          <cell r="G31" t="str">
-            <v>東京都知事(4)第50018号</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>15</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>東洋不動産</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>16</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>株式会社フットワーク</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>東京都町田市森野1-32-13</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>新光ﾋﾞﾙ2F</v>
-          </cell>
-          <cell r="F33" t="str">
-            <v>042-728-7411</v>
-          </cell>
-          <cell r="G33" t="str">
-            <v>東京都知事(4)第50125号</v>
-          </cell>
-          <cell r="H33">
-            <v>36339</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>17</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>株式会社オー・ジー・アイ</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>岡山県岡谷市東古松3-12-30</v>
-          </cell>
-          <cell r="F34" t="str">
-            <v>086-225-3344</v>
-          </cell>
-          <cell r="G34" t="str">
-            <v>岡山県知事(4)第3497号</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>18</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>中国リハウス株式会社</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>岡山店</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>岡山県岡谷市鹿田町1-7-17</v>
-          </cell>
-          <cell r="F35" t="str">
-            <v>086-222-0031</v>
-          </cell>
-          <cell r="G35" t="str">
-            <v>建設大臣免許(2)第5169号</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>19</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>有限会社 千成土地住宅社</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>神奈川県相模原市淵野辺4-15-1</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>千成ビル</v>
-          </cell>
-          <cell r="F36" t="str">
-            <v>0427-52-4108</v>
-          </cell>
-          <cell r="G36" t="str">
-            <v>神奈川県知事(11)第3393号</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>20</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>20.100000000000001</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>福岡営業センター</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>福岡市中央区舞鶴1-2-22</v>
-          </cell>
-          <cell r="F38" t="str">
-            <v>092-716-7282</v>
-          </cell>
-          <cell r="G38" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>20.2</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>岡山営業センター</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>岡山市磨屋町3-10</v>
-          </cell>
-          <cell r="F39" t="str">
-            <v>086-223-5111</v>
-          </cell>
-          <cell r="G39" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>20.3</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>町田営業店</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>東京都町田市町田6-3-8</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>住友銀行町田ﾋﾞﾙ3F</v>
-          </cell>
-          <cell r="F40" t="str">
-            <v>042-723-1311</v>
-          </cell>
-          <cell r="G40" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>20.399999999999999</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>仙台営業センター</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>仙台市青葉区中央2-2-6</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>住友銀行仙台ﾋﾞﾙ4F</v>
-          </cell>
-          <cell r="F41" t="str">
-            <v>022-267-4531</v>
-          </cell>
-          <cell r="G41" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>20.5</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>学園前営業ｾﾝﾀｰ</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>奈良市学園北1-8-8</v>
-          </cell>
-          <cell r="F42" t="str">
-            <v>0742-43-3911</v>
-          </cell>
-          <cell r="G42" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>20.6</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>東大阪営業センター</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>東大阪市長堂2-3-21</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>日本生命布施駅前ビル1F</v>
-          </cell>
-          <cell r="F43" t="str">
-            <v>06-6788-5761</v>
-          </cell>
-          <cell r="G43" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>20.7</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>二日市営業センター</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>筑紫野市大字二日市644-7</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>第二青山ビル３階</v>
-          </cell>
-          <cell r="F44" t="str">
-            <v>092-924-6912</v>
-          </cell>
-          <cell r="G44" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>21</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>有限会社スタート</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>札幌市南区澄川３条４丁目3-10</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>澄川中央ﾋﾞﾙ２F</v>
-          </cell>
-          <cell r="F45" t="str">
-            <v>011-813-1181</v>
-          </cell>
-          <cell r="G45" t="str">
-            <v>北海道知事免許石狩(3)第5776号</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>22</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>有限会社ウェーブハウス</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>岡山市野田2-3-8</v>
-          </cell>
-          <cell r="F46" t="str">
-            <v>086-245-9595</v>
-          </cell>
-          <cell r="G46" t="str">
-            <v>岡山県知事(2)第4022号</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>23</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>株式会社アパマンPLAZA</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>札幌市中央区大通西17丁目</v>
-          </cell>
-          <cell r="F47" t="str">
-            <v>011-613-1551</v>
-          </cell>
-          <cell r="G47" t="str">
-            <v>北海道知事　石狩(5)第3992号</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>24</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>パシフィックマネジメント株式会社</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>渋谷区広尾1-1-39恵比寿ﾌﾟﾗｲﾑｽｸｪｱﾀﾜｰ13F</v>
-          </cell>
-          <cell r="F48" t="str">
-            <v>03-5766-2015</v>
-          </cell>
-          <cell r="G48" t="str">
-            <v>東京都知事(1)第76276号</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>25</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>株式会社サンホーム</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>東京都豊島区東池袋1-3-7</v>
-          </cell>
-          <cell r="F49" t="str">
-            <v>03-3988-3238</v>
-          </cell>
-          <cell r="G49" t="str">
-            <v>東京都知事(2)第70538号</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>26</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>有楽土地住宅販売株式会社</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>町田営業所</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>東京都町田市原町田6-3-20</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>新原町田駅前ﾋﾞﾙ5階</v>
-          </cell>
-          <cell r="F50" t="str">
-            <v>042-727-1215</v>
-          </cell>
-          <cell r="G50" t="str">
-            <v>建設大臣(5)第3394号</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>27</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>東急リバブル株式会社</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>仙台営業所</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>仙台市青葉区上杉1-5-15</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>日本生命匂当台南ビル1F</v>
-          </cell>
-          <cell r="F51" t="str">
-            <v>022-261-0109</v>
-          </cell>
-          <cell r="G51" t="str">
-            <v>建設大臣(7)第2611号</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>28</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>株式会社オリエントハウジング</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>京都府向日市寺戸町渋川2-12</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>オリエントビル1F</v>
-          </cell>
-          <cell r="F52" t="str">
-            <v>075-935-1230</v>
-          </cell>
-          <cell r="G52" t="str">
-            <v>京都府知事(3)第8945号</v>
-          </cell>
-          <cell r="H52">
-            <v>36507</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>29</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>株式会社ディーピー・プロパティーズ</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>東京都渋谷区恵比寿4-20-3</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>恵比寿ガーデンプレイスタワー7F</v>
-          </cell>
-          <cell r="F53" t="str">
-            <v>03-5424-7198</v>
-          </cell>
-          <cell r="G53" t="str">
-            <v>東京都知事(3)第61400号</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>30</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>有限会社リンクル</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>愛媛県新居浜市八雲町5番26号</v>
-          </cell>
-          <cell r="F54" t="str">
-            <v>0897-35-1146</v>
-          </cell>
-          <cell r="G54" t="str">
-            <v>愛媛県知事(1)第4293号</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>31</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>株式会社東洋館</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>東京都板橋区東新町2-60-4</v>
-          </cell>
-          <cell r="F55" t="str">
-            <v>03-5965-4621</v>
-          </cell>
-          <cell r="G55" t="str">
-            <v>東京都知事(2)第70012号</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>32</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>株式会社マイホームステージ町田</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>東京都町田市</v>
-          </cell>
-          <cell r="F56" t="str">
-            <v>042-739-6012</v>
-          </cell>
-          <cell r="G56" t="str">
-            <v>東京都知事(1)第76363号</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>33</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>神鋼興産株式会社</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>東加古川営業所</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>加古川市平岡町新在家2-273-2</v>
-          </cell>
-          <cell r="G57" t="str">
-            <v>建設大臣免許(11)第107号</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>34</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>三井不動産販売株式会社</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>大阪市北区曽根崎2-5-10</v>
-          </cell>
-          <cell r="G58" t="str">
-            <v>建設大臣(10)第777号</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>35</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>株式会社森不動産</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>北九州市八幡西区穴生1-6-7</v>
-          </cell>
-          <cell r="F59" t="str">
-            <v>093-641-9500</v>
-          </cell>
-          <cell r="G59" t="str">
-            <v>福岡県知事(3)第12129号</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>36</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>有限会社ホームワーク</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>札幌市白石区本郷通４丁目北７－１５</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>丸正ビル２階</v>
-          </cell>
-          <cell r="F60" t="str">
-            <v>011-866-8181</v>
-          </cell>
-          <cell r="G60" t="str">
-            <v>北海道知事免許石狩(1)第6356号</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>37</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>38</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>株式会社エー・ディー・ワークス</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>東京都中央区銀座6-8-7</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>交詢ビル５階</v>
-          </cell>
-          <cell r="F62" t="str">
-            <v>03-3572-7561</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>39</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>有限会社ティエムエヌ</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>福岡県福岡市中央区六本松2丁目6番6号</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>舩津ﾋﾞﾙ３F</v>
-          </cell>
-          <cell r="F63" t="str">
-            <v>092-711-7098</v>
-          </cell>
-          <cell r="G63" t="str">
-            <v>福岡県知事(1)第13538号</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>40</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>東北住宅興業株式会社</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>仙台支店</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>仙台市青葉区本町2丁目9-3</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>産伸ビル２F</v>
-          </cell>
-          <cell r="F64" t="str">
-            <v>022-227-2266</v>
-          </cell>
-          <cell r="G64" t="str">
-            <v>宮城県知事(6)第2599号</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>41</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>富商不動産株式会社</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>金沢市増泉1丁目16番30号</v>
-          </cell>
-          <cell r="F65" t="str">
-            <v>076-247-6364</v>
-          </cell>
-          <cell r="G65" t="str">
-            <v>石川県知事(4)第2294号</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>42</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>有限会社オークライフ</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>京都市中京区烏丸通二条下ル秋野々町514-1</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>ラ・シュウム１階</v>
-          </cell>
-          <cell r="F66" t="str">
-            <v>075-252-1210</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>43</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>有限会社ハウスマーケット</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>仙台市青葉区木町通2丁目5-45-1F</v>
-          </cell>
-          <cell r="F67" t="str">
-            <v>022-301-8050</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="920">
-          <cell r="AV920">
-            <v>36636</v>
-          </cell>
-          <cell r="CP920">
-            <v>59000</v>
-          </cell>
-          <cell r="CQ920">
-            <v>2450</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="1">
-          <cell r="A1">
-            <v>1</v>
-          </cell>
-          <cell r="B1">
-            <v>2</v>
-          </cell>
-          <cell r="C1">
-            <v>3</v>
-          </cell>
-          <cell r="D1">
-            <v>4</v>
-          </cell>
-          <cell r="E1">
-            <v>5</v>
-          </cell>
-          <cell r="F1">
-            <v>6</v>
-          </cell>
-          <cell r="G1">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>NO.</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>会社名</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>支店名</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>住所</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>ビル名</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>TEL</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>免許番号</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>媒介契約期限</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>50</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>インタープラネット 株式会社</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>大阪市北区堂島 2-1-27</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>桜橋千代田ﾋﾞﾙ 8F</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>06-442-7777</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>大阪府知事(1)第46128号</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>東京都新宿区西新宿7-21-3</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H5">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>町田営業店</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>東京都町田市原町田4-2-10</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>0427-23-6651</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H6">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1.2</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>札幌営業店</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>札幌市中央区南八条西4-422-5</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>011-532-7767</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H7">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1.3</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>広島営業店</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>広島市中区幟町13-11</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>明治生命広島幟町ﾋﾞﾙ2F</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>082-223-1201</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H8">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1.4</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>仙台営業店</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>宮崎県仙台市青葉区一番町 3-6-1</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>022-213-0711</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H9">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1.5</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>名古屋営業店</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>名古屋市中区栄4-1-8</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>052-243-1511</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-          <cell r="H10">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1.6</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>福岡営業店</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>福岡市中央区天神3-11-20</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>天神エフﾋﾞﾙ4F</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>092-714-4431</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1.7</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>江坂店</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>大阪府吹田市広芝町10-40</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>水川ビル2F</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>06-6389-4451</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1.8</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>株式会社 大京住宅流通</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>神戸三宮営業所</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>神戸市中央区京町72</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>新タレセントビル4階</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>078-393-2201</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>建設大臣(3)第4139号</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>株式会社 ハウス管理ｻｰﾋﾞｽ</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>盛岡市南大通2-1-12</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>019-654-6363</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>岩手県知事(2)第1866号</v>
-          </cell>
-          <cell r="H14">
-            <v>36070</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>3</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>株式会社 リクルートコスモス</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>3.1</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>株式会社 リクルートコスモス</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>池袋支店</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>東京都豊島区東池袋1-17-8</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>03-5391-1570</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>建設大臣(7)第2361号</v>
-          </cell>
-          <cell r="H16">
-            <v>36039</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>3.2</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>株式会社 リクルートコスモス</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>神戸支店</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>神戸市中央区江戸川町95</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>03-54404032</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>建設大臣(8)第2361号</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>3.3</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>株式会社 リクルートコスモス</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>横浜支店</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>横浜市西区北幸3-9-15</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>建設大臣(8)第2361号</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>4</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>豊川住宅センター 株式会社</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>豊川市開運通2-48-1</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>0533-86-5554</v>
-          </cell>
-          <cell r="G19" t="str">
-            <v>愛知県知事(6)第12377号</v>
-          </cell>
-          <cell r="H19">
-            <v>36143</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>5</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>株式会社 マテックコーポレーション</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>京都市右京区西院坤町2番地</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>075-706-3800</v>
-          </cell>
-          <cell r="G20" t="str">
-            <v>京都府知事(1)第010674号</v>
-          </cell>
-          <cell r="H20">
-            <v>36018</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>6</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>株式会社タイヨーコーポレーション</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>情報センター晩翠通り店</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>仙台市青葉区国分町2-8-14</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>022-221-3811</v>
-          </cell>
-          <cell r="G21" t="str">
-            <v>建設大臣(4)第3587号</v>
-          </cell>
-          <cell r="H21">
-            <v>36068</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>7</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>株式会社 タミー・コーポレーション</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>大阪市西区江戸堀1-17-16</v>
-          </cell>
-          <cell r="G22" t="str">
-            <v>大阪府知事(3)第041172号</v>
-          </cell>
-          <cell r="H22">
-            <v>36018</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>8</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>株式会社 アイランド</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v xml:space="preserve">福岡市中央区赤坂1-15-15 </v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>平和台ﾊｲﾂ503号</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>092-724-8633</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v>福岡県知事(2)第12825号</v>
-          </cell>
-          <cell r="H23">
-            <v>36022</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>9</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>藤和不動産流通サービス 株式会社</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>東京都豊島区東池袋1-15-2</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v>建設大臣(5)第3266号</v>
-          </cell>
-          <cell r="H24">
-            <v>36053</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>9.1</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>藤和不動産流通サービス 株式会社</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>東京都豊島区東池袋1-15-2</v>
-          </cell>
-          <cell r="G25" t="str">
-            <v>建設大臣(5)第3266号</v>
-          </cell>
-          <cell r="H25">
-            <v>36053</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>9.1999999999999993</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>藤和不動産流通サービス 株式会社</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>上野営業所</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>東京都文京区湯島4-6-11</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>03-3815-0234</v>
-          </cell>
-          <cell r="G26" t="str">
-            <v>建設大臣(5)第3266号</v>
-          </cell>
-          <cell r="H26">
-            <v>36289</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>10</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>株式会社 ビルネット</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>大阪市中央区南船場3-8-7</v>
-          </cell>
-          <cell r="F27" t="str">
-            <v>06-258-8165</v>
-          </cell>
-          <cell r="G27" t="str">
-            <v>大阪府知事(1)第45208号</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>11</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>株式会社 日本リロケーション</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>東京都新宿区新宿4-3-23</v>
-          </cell>
-          <cell r="G28" t="str">
-            <v>建設大臣(4)第3675号</v>
-          </cell>
-          <cell r="H28">
-            <v>36149</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>12</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>三和住宅 株式会社</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>愛媛県新居浜市西原町2-2-9</v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>0897-34-0404</v>
-          </cell>
-          <cell r="G29" t="str">
-            <v>愛知県知事(4)第3542号</v>
-          </cell>
-          <cell r="H29">
-            <v>36130</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>13</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>有限会社 緑町エステート</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>函館市松陰町1-30</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>ﾗｲｵﾝｽﾞﾏﾝｼｮﾝ松陰1F</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>0138-52-4100</v>
-          </cell>
-          <cell r="G30" t="str">
-            <v>北海道知事 渡島(4)第716号</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>14</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>ヘイケン株式会社</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>東京都新宿区左門町6</v>
-          </cell>
-          <cell r="F31" t="str">
-            <v>03-3353-3705</v>
-          </cell>
-          <cell r="G31" t="str">
-            <v>東京都知事(4)第50018号</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>15</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>東洋不動産</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>16</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>株式会社フットワーク</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>東京都町田市森野1-32-13</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>新光ﾋﾞﾙ2F</v>
-          </cell>
-          <cell r="F33" t="str">
-            <v>042-728-7411</v>
-          </cell>
-          <cell r="G33" t="str">
-            <v>東京都知事(4)第50125号</v>
-          </cell>
-          <cell r="H33">
-            <v>36339</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>17</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>株式会社オー・ジー・アイ</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>岡山県岡谷市東古松3-12-30</v>
-          </cell>
-          <cell r="F34" t="str">
-            <v>086-225-3344</v>
-          </cell>
-          <cell r="G34" t="str">
-            <v>岡山県知事(4)第3497号</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>18</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>中国リハウス株式会社</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>岡山店</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>岡山県岡谷市鹿田町1-7-17</v>
-          </cell>
-          <cell r="F35" t="str">
-            <v>086-222-0031</v>
-          </cell>
-          <cell r="G35" t="str">
-            <v>建設大臣免許(2)第5169号</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>19</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>有限会社 千成土地住宅社</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>神奈川県相模原市淵野辺4-15-1</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>千成ビル</v>
-          </cell>
-          <cell r="F36" t="str">
-            <v>0427-52-4108</v>
-          </cell>
-          <cell r="G36" t="str">
-            <v>神奈川県知事(11)第3393号</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>20</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>20.100000000000001</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>福岡営業センター</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>福岡市中央区舞鶴1-2-22</v>
-          </cell>
-          <cell r="F38" t="str">
-            <v>092-716-7282</v>
-          </cell>
-          <cell r="G38" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>20.2</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>岡山営業センター</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>岡山市磨屋町3-10</v>
-          </cell>
-          <cell r="F39" t="str">
-            <v>086-223-5111</v>
-          </cell>
-          <cell r="G39" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>20.3</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>町田営業店</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>東京都町田市町田6-3-8</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>住友銀行町田ﾋﾞﾙ3F</v>
-          </cell>
-          <cell r="F40" t="str">
-            <v>042-723-1311</v>
-          </cell>
-          <cell r="G40" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>20.399999999999999</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>仙台営業センター</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>仙台市青葉区中央2-2-6</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>住友銀行仙台ﾋﾞﾙ4F</v>
-          </cell>
-          <cell r="F41" t="str">
-            <v>022-267-4531</v>
-          </cell>
-          <cell r="G41" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>20.5</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>学園前営業ｾﾝﾀｰ</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>奈良市学園北1-8-8</v>
-          </cell>
-          <cell r="F42" t="str">
-            <v>0742-43-3911</v>
-          </cell>
-          <cell r="G42" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>20.6</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>東大阪営業センター</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>東大阪市長堂2-3-21</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>日本生命布施駅前ビル1F</v>
-          </cell>
-          <cell r="F43" t="str">
-            <v>06-6788-5761</v>
-          </cell>
-          <cell r="G43" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>20.7</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>住友不動産販売株式会社</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>二日市営業センター</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>筑紫野市大字二日市644-7</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>第二青山ビル３階</v>
-          </cell>
-          <cell r="F44" t="str">
-            <v>092-924-6912</v>
-          </cell>
-          <cell r="G44" t="str">
-            <v>建設大臣(8)第2077号</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>21</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>有限会社スタート</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>札幌市南区澄川３条４丁目3-10</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>澄川中央ﾋﾞﾙ２F</v>
-          </cell>
-          <cell r="F45" t="str">
-            <v>011-813-1181</v>
-          </cell>
-          <cell r="G45" t="str">
-            <v>北海道知事免許石狩(3)第5776号</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>22</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>有限会社ウェーブハウス</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>岡山市野田2-3-8</v>
-          </cell>
-          <cell r="F46" t="str">
-            <v>086-245-9595</v>
-          </cell>
-          <cell r="G46" t="str">
-            <v>岡山県知事(2)第4022号</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>23</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>株式会社アパマンPLAZA</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>札幌市中央区大通西17丁目</v>
-          </cell>
-          <cell r="F47" t="str">
-            <v>011-613-1551</v>
-          </cell>
-          <cell r="G47" t="str">
-            <v>北海道知事　石狩(5)第3992号</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>24</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>パシフィックマネジメント株式会社</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>渋谷区広尾1-1-39恵比寿ﾌﾟﾗｲﾑｽｸｪｱﾀﾜｰ13F</v>
-          </cell>
-          <cell r="F48" t="str">
-            <v>03-5766-2015</v>
-          </cell>
-          <cell r="G48" t="str">
-            <v>東京都知事(1)第76276号</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>25</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>株式会社サンホーム</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>東京都豊島区東池袋1-3-7</v>
-          </cell>
-          <cell r="F49" t="str">
-            <v>03-3988-3238</v>
-          </cell>
-          <cell r="G49" t="str">
-            <v>東京都知事(2)第70538号</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>26</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>有楽土地住宅販売株式会社</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>町田営業所</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>東京都町田市原町田6-3-20</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>新原町田駅前ﾋﾞﾙ5階</v>
-          </cell>
-          <cell r="F50" t="str">
-            <v>042-727-1215</v>
-          </cell>
-          <cell r="G50" t="str">
-            <v>建設大臣(5)第3394号</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>27</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>東急リバブル株式会社</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>仙台営業所</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>仙台市青葉区上杉1-5-15</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>日本生命匂当台南ビル1F</v>
-          </cell>
-          <cell r="F51" t="str">
-            <v>022-261-0109</v>
-          </cell>
-          <cell r="G51" t="str">
-            <v>建設大臣(7)第2611号</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>28</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>株式会社オリエントハウジング</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>京都府向日市寺戸町渋川2-12</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>オリエントビル1F</v>
-          </cell>
-          <cell r="F52" t="str">
-            <v>075-935-1230</v>
-          </cell>
-          <cell r="G52" t="str">
-            <v>京都府知事(3)第8945号</v>
-          </cell>
-          <cell r="H52">
-            <v>36507</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>29</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>株式会社ディーピー・プロパティーズ</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>東京都渋谷区恵比寿4-20-3</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>恵比寿ガーデンプレイスタワー7F</v>
-          </cell>
-          <cell r="F53" t="str">
-            <v>03-5424-7198</v>
-          </cell>
-          <cell r="G53" t="str">
-            <v>東京都知事(3)第61400号</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>30</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>有限会社リンクル</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>愛媛県新居浜市八雲町5番26号</v>
-          </cell>
-          <cell r="F54" t="str">
-            <v>0897-35-1146</v>
-          </cell>
-          <cell r="G54" t="str">
-            <v>愛媛県知事(1)第4293号</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>31</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>株式会社東洋館</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>東京都板橋区東新町2-60-4</v>
-          </cell>
-          <cell r="F55" t="str">
-            <v>03-5965-4621</v>
-          </cell>
-          <cell r="G55" t="str">
-            <v>東京都知事(2)第70012号</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>32</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>株式会社マイホームステージ町田</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>東京都町田市</v>
-          </cell>
-          <cell r="F56" t="str">
-            <v>042-739-6012</v>
-          </cell>
-          <cell r="G56" t="str">
-            <v>東京都知事(1)第76363号</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>33</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>神鋼興産株式会社</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>東加古川営業所</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>加古川市平岡町新在家2-273-2</v>
-          </cell>
-          <cell r="G57" t="str">
-            <v>建設大臣免許(11)第107号</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>34</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>三井不動産販売株式会社</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>大阪市北区曽根崎2-5-10</v>
-          </cell>
-          <cell r="G58" t="str">
-            <v>建設大臣(10)第777号</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>35</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>株式会社森不動産</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>北九州市八幡西区穴生1-6-7</v>
-          </cell>
-          <cell r="F59" t="str">
-            <v>093-641-9500</v>
-          </cell>
-          <cell r="G59" t="str">
-            <v>福岡県知事(3)第12129号</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>36</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>有限会社ホームワーク</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>札幌市白石区本郷通４丁目北７－１５</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>丸正ビル２階</v>
-          </cell>
-          <cell r="F60" t="str">
-            <v>011-866-8181</v>
-          </cell>
-          <cell r="G60" t="str">
-            <v>北海道知事免許石狩(1)第6356号</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>37</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>38</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>株式会社エー・ディー・ワークス</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>東京都中央区銀座6-8-7</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>交詢ビル５階</v>
-          </cell>
-          <cell r="F62" t="str">
-            <v>03-3572-7561</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>39</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>有限会社ティエムエヌ</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>福岡県福岡市中央区六本松2丁目6番6号</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>舩津ﾋﾞﾙ３F</v>
-          </cell>
-          <cell r="F63" t="str">
-            <v>092-711-7098</v>
-          </cell>
-          <cell r="G63" t="str">
-            <v>福岡県知事(1)第13538号</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>40</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>東北住宅興業株式会社</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>仙台支店</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>仙台市青葉区本町2丁目9-3</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>産伸ビル２F</v>
-          </cell>
-          <cell r="F64" t="str">
-            <v>022-227-2266</v>
-          </cell>
-          <cell r="G64" t="str">
-            <v>宮城県知事(6)第2599号</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>41</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>富商不動産株式会社</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>金沢市増泉1丁目16番30号</v>
-          </cell>
-          <cell r="F65" t="str">
-            <v>076-247-6364</v>
-          </cell>
-          <cell r="G65" t="str">
-            <v>石川県知事(4)第2294号</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>42</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>有限会社オークライフ</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>京都市中京区烏丸通二条下ル秋野々町514-1</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>ラ・シュウム１階</v>
-          </cell>
-          <cell r="F66" t="str">
-            <v>075-252-1210</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>43</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>有限会社ハウスマーケット</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>仙台市青葉区木町通2丁目5-45-1F</v>
-          </cell>
-          <cell r="F67" t="str">
-            <v>022-301-8050</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="920">
-          <cell r="AV920">
-            <v>36636</v>
-          </cell>
-          <cell r="CP920">
-            <v>59000</v>
-          </cell>
-          <cell r="CQ920">
-            <v>2450</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6380,30 +4301,30 @@
       <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -6419,10 +4340,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="126"/>
+      <c r="H5" s="153"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6456,8 +4377,8 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6493,10 +4414,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="122" t="s">
+      <c r="J11" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="122"/>
+      <c r="K11" s="176"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -6507,17 +4428,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="123"/>
+      <c r="K12" s="150"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -6528,17 +4449,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="125" t="s">
+      <c r="E13" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="123" t="s">
+      <c r="J13" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="123"/>
+      <c r="K13" s="150"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -6547,14 +4468,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="134"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="161"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="123" t="s">
+      <c r="J14" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="123"/>
+      <c r="K14" s="150"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -6563,32 +4484,32 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="136"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="163"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="123" t="s">
+      <c r="J15" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="123"/>
+      <c r="K15" s="150"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="137">
+      <c r="E18" s="164">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="139"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
       <c r="I18" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -6617,44 +4538,44 @@
     </row>
     <row r="27" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F28" s="140"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="141"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="168"/>
       <c r="J28" s="103"/>
       <c r="K28" s="120"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F29" s="142"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F32" s="146"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="130"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6688,6 +4609,311 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47935A54-3BDB-4270-902D-6009F4FADACB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="141" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="123" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="123" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="123" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="123" customWidth="1"/>
+    <col min="6" max="6" width="12" style="123" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="123" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="123" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="123" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="123" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" style="123" customWidth="1"/>
+    <col min="12" max="13" width="8.58203125" style="123" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="123" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="123" customWidth="1"/>
+    <col min="16" max="16" width="4.9140625" style="123" customWidth="1"/>
+    <col min="17" max="17" width="3.9140625" style="123" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="123"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="124"/>
+      <c r="H1" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="195" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="195" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="195" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="195"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="126" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="194" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="194"/>
+      <c r="O3" s="195" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+    </row>
+    <row r="4" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="127" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="178" t="e">
+        <f>IF(OR(J4&lt;&gt;"", K4&lt;&gt;""), J4+K4, "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N4" s="178"/>
+      <c r="O4" s="197" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+    </row>
+    <row r="5" spans="1:17" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="127" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="133" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="178" t="e">
+        <f>IF(OR(J5&lt;&gt;"", K5&lt;&gt;""), J5+K5, "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" s="178"/>
+      <c r="O5" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+    </row>
+    <row r="6" spans="1:17" s="140" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="134">
+        <f>SUM(J4:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="177">
+        <f>SUM(K4:K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="177"/>
+      <c r="M6" s="178" t="e">
+        <f>SUM(M4:M5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" s="178"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+    </row>
+    <row r="7" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="9" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L9" s="142"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="181"/>
+    </row>
+    <row r="10" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="182"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="189"/>
+    </row>
+    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="183"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="191"/>
+    </row>
+    <row r="12" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12" s="183"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="191"/>
+    </row>
+    <row r="13" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L13" s="184"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="193"/>
+    </row>
+    <row r="14" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:O13"/>
+    <mergeCell ref="P10:Q13"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F1F5F6-7B10-4310-95BD-7283D665044A}">
   <dimension ref="B1:I34"/>
   <sheetViews>
@@ -6703,17 +4929,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="149" t="s">
+      <c r="H1" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="149"/>
+      <c r="I1" s="202"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
@@ -6724,44 +4950,44 @@
       <c r="F4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="149" t="s">
+      <c r="G5" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="152" t="s">
+      <c r="H6" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="152"/>
+      <c r="I6" s="205"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="158" t="s">
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -6811,10 +5037,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="159"/>
+      <c r="C17" s="212"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
@@ -6827,24 +5053,24 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -6862,57 +5088,57 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="154" t="s">
+      <c r="C24" s="202"/>
+      <c r="D24" s="207" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150" t="s">
+      <c r="C25" s="202"/>
+      <c r="D25" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="151" t="s">
+      <c r="C26" s="202"/>
+      <c r="D26" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
       <c r="G26" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="202" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150" t="s">
+      <c r="C27" s="202"/>
+      <c r="D27" s="203" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
       <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
@@ -6921,16 +5147,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="149" t="s">
+      <c r="B29" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="153">
+      <c r="C29" s="202"/>
+      <c r="D29" s="206">
         <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
@@ -6942,14 +5168,14 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="149" t="s">
+      <c r="B32" s="202" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="152" t="s">
+      <c r="C32" s="202"/>
+      <c r="D32" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="152"/>
+      <c r="E32" s="205"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="102" t="s">
@@ -6958,17 +5184,17 @@
       <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="148" t="s">
+      <c r="D33" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="148"/>
+      <c r="E33" s="201"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="149" t="s">
+      <c r="B34" s="202" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7015,7 +5241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FC59B0-6CF7-466C-A3DB-049CCD54D43C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7043,17 +5269,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="267" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -7061,45 +5287,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="268" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217" t="s">
+      <c r="C3" s="269"/>
+      <c r="D3" s="270" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="218"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="202" t="s">
+      <c r="E3" s="271"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="255" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="203"/>
-      <c r="I3" s="220" t="s">
+      <c r="H3" s="256"/>
+      <c r="I3" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="275"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="225" t="s">
+      <c r="C4" s="277"/>
+      <c r="D4" s="278" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="226"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="231" t="s">
+      <c r="E4" s="279"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="232"/>
-      <c r="I4" s="228" t="s">
+      <c r="H4" s="285"/>
+      <c r="I4" s="281" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="229"/>
-      <c r="K4" s="230"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="283"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7114,98 +5340,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="252" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="202" t="s">
+      <c r="D6" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="203"/>
-      <c r="F6" s="202" t="s">
+      <c r="E6" s="256"/>
+      <c r="F6" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="202" t="s">
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="255" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="204"/>
-      <c r="K6" s="205"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="258"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="200"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="206" t="s">
+      <c r="D7" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="207"/>
-      <c r="F7" s="206" t="s">
+      <c r="E7" s="260"/>
+      <c r="F7" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="208"/>
-      <c r="H7" s="207"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="260"/>
       <c r="I7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="206" t="e">
+      <c r="J7" s="259" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="209"/>
+      <c r="K7" s="262"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="200"/>
+      <c r="B8" s="253"/>
       <c r="C8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="206" t="s">
+      <c r="D8" s="259" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="207"/>
-      <c r="F8" s="206" t="s">
+      <c r="E8" s="260"/>
+      <c r="F8" s="259" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="206" t="e">
+      <c r="J8" s="259" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="209"/>
+      <c r="K8" s="262"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="201"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="210">
+      <c r="D9" s="263">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="211"/>
-      <c r="F9" s="210">
+      <c r="E9" s="264"/>
+      <c r="F9" s="263">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
       <c r="I9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="210">
+      <c r="J9" s="263">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="213"/>
+      <c r="K9" s="266"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7220,58 +5446,58 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="186"/>
+      <c r="C11" s="239"/>
       <c r="D11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="189" t="s">
+      <c r="E11" s="242" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="190"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="191" t="s">
+      <c r="H11" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="191"/>
-      <c r="J11" s="192" t="e">
+      <c r="I11" s="244"/>
+      <c r="J11" s="245" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="193"/>
+      <c r="K11" s="246"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="187"/>
-      <c r="C12" s="188"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="241"/>
       <c r="D12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="194" t="s">
+      <c r="E12" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="195"/>
+      <c r="F12" s="248"/>
       <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="196" t="s">
+      <c r="H12" s="249" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197" t="e">
+      <c r="I12" s="249"/>
+      <c r="J12" s="250" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="198"/>
+      <c r="K12" s="251"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="223" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="56"/>
@@ -7285,20 +5511,20 @@
       <c r="F14" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="183" t="e">
+      <c r="G14" s="236" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="183"/>
-      <c r="I14" s="173" t="s">
+      <c r="H14" s="236"/>
+      <c r="I14" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="173"/>
-      <c r="K14" s="174"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="227"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="171"/>
+      <c r="B15" s="224"/>
       <c r="C15" s="52" t="s">
         <v>52</v>
       </c>
@@ -7312,40 +5538,40 @@
       <c r="F15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="184" t="e">
+      <c r="G15" s="237" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="184"/>
-      <c r="I15" s="175" t="s">
+      <c r="H15" s="237"/>
+      <c r="I15" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="175"/>
-      <c r="K15" s="176"/>
+      <c r="J15" s="228"/>
+      <c r="K15" s="229"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="171"/>
+      <c r="B16" s="224"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
       <c r="I16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="177" t="e">
+      <c r="J16" s="230" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="178"/>
+      <c r="K16" s="231"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="172"/>
+      <c r="B17" s="225"/>
       <c r="C17" s="43" t="s">
         <v>47</v>
       </c>
@@ -7357,17 +5583,17 @@
       <c r="F17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="181" t="str">
+      <c r="G17" s="234" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="181"/>
+      <c r="H17" s="234"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="179" t="e">
+      <c r="J17" s="232" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="180"/>
+      <c r="K17" s="233"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7375,22 +5601,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
       <c r="I19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="164" t="s">
+      <c r="J19" s="217" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="165"/>
+      <c r="K19" s="218"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7400,22 +5626,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="167" t="s">
+      <c r="B21" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="222"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
       <c r="I21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="164" t="s">
+      <c r="J21" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="165"/>
+      <c r="K21" s="218"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7479,7 +5705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF608324-A83F-422C-AE65-74C424D7D2EC}">
   <dimension ref="A1:P25"/>
   <sheetViews>
@@ -7506,16 +5732,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="297" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -7538,34 +5764,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="298" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="254" t="s">
+      <c r="L5" s="307" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="255"/>
+      <c r="L6" s="308"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="246" t="e">
+      <c r="D7" s="299" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="248"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="301"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -7592,26 +5818,26 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="249" t="s">
+      <c r="B10" s="302" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="250"/>
-      <c r="D10" s="251" t="s">
+      <c r="C10" s="303"/>
+      <c r="D10" s="304" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="253"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="306"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="239">
+      <c r="L10" s="292">
         <v>8250000</v>
       </c>
-      <c r="M10" s="239"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="239"/>
-      <c r="P10" s="239"/>
+      <c r="M10" s="292"/>
+      <c r="N10" s="292"/>
+      <c r="O10" s="292"/>
+      <c r="P10" s="292"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -7620,70 +5846,70 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="318" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="266" t="s">
+      <c r="C12" s="319"/>
+      <c r="D12" s="319"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="266"/>
-      <c r="I12" s="267"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="320"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="256" t="s">
+      <c r="B13" s="309" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="257"/>
-      <c r="D13" s="257"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="258"/>
-      <c r="G13" s="259" t="s">
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="260"/>
-      <c r="I13" s="261"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="314"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="262" t="s">
+      <c r="B14" s="315" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="263"/>
-      <c r="D14" s="263"/>
-      <c r="E14" s="263"/>
-      <c r="F14" s="264"/>
-      <c r="G14" s="259" t="s">
+      <c r="C14" s="316"/>
+      <c r="D14" s="316"/>
+      <c r="E14" s="316"/>
+      <c r="F14" s="317"/>
+      <c r="G14" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="260"/>
-      <c r="I14" s="261"/>
+      <c r="H14" s="313"/>
+      <c r="I14" s="314"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="233" t="s">
+      <c r="B15" s="286" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="236"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="238"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="288"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="291"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -7696,10 +5922,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="241"/>
+      <c r="C17" s="294"/>
       <c r="D17" s="82" t="s">
         <v>75</v>
       </c>
@@ -7724,36 +5950,36 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="242" t="s">
+      <c r="F19" s="295" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="295"/>
+      <c r="I19" s="295"/>
+      <c r="J19" s="295"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="243" t="s">
+      <c r="F20" s="296" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="243"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="243"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="296"/>
+      <c r="I20" s="296"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="240" t="s">
+      <c r="F21" s="293" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="240"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="293"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7820,7 +6046,613 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9C0CF7-8DB5-4BC8-AED4-B182F1EBEE83}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="2.58203125" style="22" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="22" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="22"/>
+    <col min="12" max="12" width="8.58203125" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="91"/>
+    </row>
+    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="75"/>
+      <c r="B2" s="297" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="298" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="145"/>
+    </row>
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="299" t="e">
+        <f>G13+G14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="89"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="89"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="302" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="303"/>
+      <c r="D10" s="324" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="306"/>
+      <c r="J10" s="29"/>
+      <c r="L10" s="292">
+        <v>8250000</v>
+      </c>
+      <c r="M10" s="292"/>
+      <c r="N10" s="292"/>
+      <c r="O10" s="292"/>
+      <c r="P10" s="292"/>
+    </row>
+    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="26"/>
+      <c r="L11" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="318" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="319"/>
+      <c r="D12" s="319"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="319"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="26"/>
+      <c r="L12" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="309" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="312" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="313"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="26"/>
+      <c r="L13" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="315" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="316"/>
+      <c r="D14" s="316"/>
+      <c r="E14" s="316"/>
+      <c r="F14" s="317"/>
+      <c r="G14" s="312"/>
+      <c r="H14" s="313"/>
+      <c r="I14" s="314"/>
+      <c r="J14" s="26"/>
+      <c r="L14" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="286"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="288"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="291"/>
+    </row>
+    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+    </row>
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="321" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="321"/>
+      <c r="D17" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+    </row>
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="27"/>
+      <c r="E19" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="241"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="241"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="27"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="322"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="323" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="323"/>
+      <c r="H21" s="323"/>
+      <c r="I21" s="323"/>
+      <c r="J21" s="323"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="78"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+    </row>
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="78"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+    </row>
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="110" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7704BCE-DAD2-4010-8D18-A6F67F1F87D8}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="2.58203125" style="22" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="22" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="22"/>
+    <col min="12" max="12" width="8.58203125" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="91"/>
+    </row>
+    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="75"/>
+      <c r="B2" s="297" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="298" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="145"/>
+    </row>
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="299" t="e">
+        <f>G13+G14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="89"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="89"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="302" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="303"/>
+      <c r="D10" s="324" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="306"/>
+      <c r="J10" s="29"/>
+      <c r="L10" s="292">
+        <v>8250000</v>
+      </c>
+      <c r="M10" s="292"/>
+      <c r="N10" s="292"/>
+      <c r="O10" s="292"/>
+      <c r="P10" s="292"/>
+    </row>
+    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="26"/>
+      <c r="L11" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="318" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="319"/>
+      <c r="D12" s="319"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="319"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="26"/>
+      <c r="L12" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="309" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="312" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="313"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="26"/>
+      <c r="L13" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="315" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="316"/>
+      <c r="D14" s="316"/>
+      <c r="E14" s="316"/>
+      <c r="F14" s="317"/>
+      <c r="G14" s="312"/>
+      <c r="H14" s="313"/>
+      <c r="I14" s="314"/>
+      <c r="J14" s="26"/>
+      <c r="L14" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="286"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="288"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="291"/>
+    </row>
+    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+    </row>
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="321" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="321"/>
+      <c r="D17" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+    </row>
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="27"/>
+      <c r="E19" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="241"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="241"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="27"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="322"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="323" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="323"/>
+      <c r="H21" s="323"/>
+      <c r="I21" s="323"/>
+      <c r="J21" s="323"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="78"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+    </row>
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="78"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+    </row>
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="110" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AAB72C-F088-49F3-A7DD-8E76D4229389}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7862,22 +6694,22 @@
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="282"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="342"/>
+      <c r="M3" s="339"/>
+      <c r="N3" s="339"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="341"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="342"/>
+      <c r="M4" s="339"/>
+      <c r="N4" s="339"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7893,17 +6725,17 @@
       <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="269" t="s">
+      <c r="E6" s="326" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269" t="s">
+      <c r="F6" s="326"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="326" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
+      <c r="J6" s="326"/>
+      <c r="K6" s="326"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="112" t="s">
@@ -7918,13 +6750,13 @@
       <c r="D7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
-      <c r="K7" s="269"/>
+      <c r="E7" s="326"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="326"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="113" t="s">
@@ -7939,17 +6771,17 @@
       <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="270" t="s">
+      <c r="E8" s="327" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="271"/>
-      <c r="G8" s="271"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="276" t="s">
+      <c r="F8" s="328"/>
+      <c r="G8" s="328"/>
+      <c r="H8" s="329"/>
+      <c r="I8" s="333" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="276"/>
-      <c r="K8" s="276"/>
+      <c r="J8" s="333"/>
+      <c r="K8" s="333"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116" t="s">
@@ -7964,13 +6796,13 @@
       <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="273"/>
-      <c r="F9" s="274"/>
-      <c r="G9" s="274"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="276"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="276"/>
+      <c r="E9" s="330"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="331"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
+      <c r="J9" s="333"/>
+      <c r="K9" s="333"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="111" t="s">
@@ -7987,25 +6819,25 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="277" t="s">
+      <c r="E10" s="334" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="278">
+      <c r="F10" s="159"/>
+      <c r="G10" s="335">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="279"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="280"/>
+      <c r="H10" s="336"/>
+      <c r="I10" s="334"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="337"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="268" t="s">
+      <c r="I11" s="325" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
+      <c r="J11" s="325"/>
+      <c r="K11" s="325"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8028,6 +6860,214 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925A6C2-B59B-4A39-B437-5344B87E26EA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="342"/>
+      <c r="M3" s="339"/>
+      <c r="N3" s="339"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="338"/>
+      <c r="J4" s="341"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="342"/>
+      <c r="M4" s="339"/>
+      <c r="N4" s="339"/>
+    </row>
+    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="326" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="326"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="326" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="326"/>
+      <c r="K6" s="326"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="326"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="326"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="327" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="328"/>
+      <c r="G8" s="328"/>
+      <c r="H8" s="329"/>
+      <c r="I8" s="333" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="333"/>
+      <c r="K8" s="333"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="330"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="331"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
+      <c r="J9" s="333"/>
+      <c r="K9" s="333"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="119">
+        <f>SUM(B8:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="119">
+        <f>SUM(D8:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="334" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="335">
+        <f>SUM(B10-D10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="336"/>
+      <c r="I10" s="334"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="337"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="325" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="325"/>
+      <c r="K11" s="325"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0FC2A9-4FCA-4233-9F70-3FBB7ECEDB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A2E38-4CFC-40F7-AA9B-590EB8680A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <sheet name="振替伝票 (仲介・業務委託)" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">支払依頼書帳票!$A$1:$Q$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'領収証 (業務委託料)'!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'領収証 (仲介手数料)'!$A$1:$J$25</definedName>
   </definedNames>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="205">
   <si>
     <t>支払金額合計</t>
     <rPh sb="0" eb="2">
@@ -1474,6 +1475,14 @@
   </si>
   <si>
     <t>$contractFixDay$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地権者（売主）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社メトロス開発</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1899,7 +1908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2667,86 +2676,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2761,7 +2690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3185,9 +3114,6 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3206,6 +3132,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3287,68 +3219,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="46" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="48" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="50" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="46" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3718,14 +3641,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -4301,30 +4224,30 @@
       <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -4340,10 +4263,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="153" t="s">
+      <c r="G5" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="153"/>
+      <c r="H5" s="154"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4377,8 +4300,8 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4414,10 +4337,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="176" t="s">
+      <c r="J11" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="176"/>
+      <c r="K11" s="177"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -4428,17 +4351,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="152" t="s">
+      <c r="E12" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="150" t="s">
+      <c r="J12" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="150"/>
+      <c r="K12" s="151"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -4449,17 +4372,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="150" t="s">
+      <c r="J13" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="150"/>
+      <c r="K13" s="151"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -4468,14 +4391,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="162"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="150" t="s">
+      <c r="J14" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="150"/>
+      <c r="K14" s="151"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -4484,32 +4407,32 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="164"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="150" t="s">
+      <c r="J15" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="150"/>
+      <c r="K15" s="151"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="159"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="164">
+      <c r="E18" s="165">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="167"/>
       <c r="I18" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4538,44 +4461,44 @@
     </row>
     <row r="27" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F28" s="167"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="169"/>
       <c r="J28" s="103"/>
       <c r="K28" s="120"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F29" s="169"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F30" s="171"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F31" s="171"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F32" s="173"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4622,20 +4545,20 @@
     <col min="1" max="1" width="12.83203125" style="141" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="123" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="123" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="123" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="123" customWidth="1"/>
-    <col min="6" max="6" width="12" style="123" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" style="123" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="123" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="123" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" style="123" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" style="123" customWidth="1"/>
-    <col min="12" max="13" width="8.58203125" style="123" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" style="123" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" style="123" customWidth="1"/>
-    <col min="16" max="16" width="4.9140625" style="123" customWidth="1"/>
-    <col min="17" max="17" width="3.9140625" style="123" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="123"/>
+    <col min="4" max="5" width="21.33203125" style="123" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="123" customWidth="1"/>
+    <col min="7" max="7" width="12" style="123" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" style="123" customWidth="1"/>
+    <col min="9" max="9" width="10.58203125" style="123" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="123" customWidth="1"/>
+    <col min="11" max="11" width="12.08203125" style="123" customWidth="1"/>
+    <col min="12" max="12" width="11.58203125" style="123" customWidth="1"/>
+    <col min="13" max="15" width="8.58203125" style="123" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" style="123" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" style="123" customWidth="1"/>
+    <col min="18" max="18" width="4.9140625" style="123" customWidth="1"/>
+    <col min="19" max="19" width="3.9140625" style="123" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="123"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4649,75 +4572,78 @@
       <c r="D1" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="124"/>
+      <c r="I1" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="123" t="s">
+      <c r="J1" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="K1" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="123" t="s">
+      <c r="O1" s="123" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="196" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="197" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="195" t="s">
+      <c r="D2" s="180" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="192" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="195" t="s">
+      <c r="F2" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="195"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="126" t="s">
+      <c r="A3" s="192"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="G3" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="H3" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="I3" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="J3" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="126" t="s">
+      <c r="K3" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="194" t="s">
+      <c r="L3" s="126"/>
+      <c r="M3" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="194"/>
-      <c r="O3" s="195" t="s">
+      <c r="N3" s="191"/>
+      <c r="O3" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="130" t="s">
@@ -4729,39 +4655,41 @@
       <c r="C4" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="F4" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="G4" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="H4" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="I4" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="127" t="s">
+      <c r="J4" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="133" t="s">
+      <c r="K4" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="196"/>
-      <c r="L4" s="196"/>
-      <c r="M4" s="178" t="e">
-        <f>IF(OR(J4&lt;&gt;"", K4&lt;&gt;""), J4+K4, "")</f>
+      <c r="L4" s="133"/>
+      <c r="M4" s="193" t="e">
+        <f>IF(OR(K4&lt;&gt;"", L4&lt;&gt;""), K4+L4, "")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N4" s="178"/>
-      <c r="O4" s="197" t="s">
+      <c r="N4" s="193"/>
+      <c r="O4" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
     </row>
     <row r="5" spans="1:17" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="130" t="s">
@@ -4773,142 +4701,134 @@
       <c r="C5" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="F5" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="G5" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="H5" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="I5" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="127" t="s">
+      <c r="J5" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="K5" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="196"/>
-      <c r="L5" s="196"/>
-      <c r="M5" s="178" t="e">
-        <f>IF(OR(J5&lt;&gt;"", K5&lt;&gt;""), J5+K5, "")</f>
+      <c r="L5" s="133"/>
+      <c r="M5" s="193" t="e">
+        <f>IF(OR(K5&lt;&gt;"", L5&lt;&gt;""), K5+L5, "")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="178"/>
-      <c r="O5" s="197" t="s">
+      <c r="N5" s="193"/>
+      <c r="O5" s="194" t="s">
         <v>190</v>
       </c>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
     </row>
     <row r="6" spans="1:17" s="140" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="135"/>
       <c r="B6" s="136"/>
       <c r="C6" s="137"/>
       <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="137"/>
+      <c r="J6" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="J6" s="134">
-        <f>SUM(J4:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="177">
+      <c r="K6" s="134">
         <f>SUM(K4:K5)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="177"/>
-      <c r="M6" s="178" t="e">
+      <c r="L6" s="134"/>
+      <c r="M6" s="193" t="e">
         <f>SUM(M4:M5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
     </row>
     <row r="7" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="8" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L9" s="142"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="181"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="179"/>
     </row>
     <row r="10" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="182"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="189"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="186"/>
     </row>
     <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="183"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="191"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="191"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="188"/>
     </row>
     <row r="12" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L12" s="183"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="191"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="188"/>
     </row>
     <row r="13" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L13" s="184"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="192"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="192"/>
-      <c r="Q13" s="193"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="190"/>
     </row>
     <row r="14" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="19">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="N10:N13"/>
     <mergeCell ref="M10:M13"/>
-    <mergeCell ref="N10:O13"/>
     <mergeCell ref="P10:Q13"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4929,17 +4849,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="202" t="s">
+      <c r="H1" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="202"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
@@ -4950,44 +4870,44 @@
       <c r="F4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="209" t="s">
+      <c r="G4" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="202" t="s">
+      <c r="G5" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="205" t="s">
+      <c r="H6" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="205"/>
+      <c r="I6" s="203"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="210" t="s">
+      <c r="C9" s="208" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211" t="s">
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="209"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -5037,10 +4957,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="212"/>
+      <c r="C17" s="210"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
@@ -5053,24 +4973,24 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="213"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="213"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -5088,57 +5008,57 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="202" t="s">
+      <c r="B24" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="202"/>
-      <c r="D24" s="207" t="s">
+      <c r="C24" s="200"/>
+      <c r="D24" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="202" t="s">
+      <c r="B25" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203" t="s">
+      <c r="C25" s="200"/>
+      <c r="D25" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="202" t="s">
+      <c r="B26" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="202"/>
-      <c r="D26" s="204" t="s">
+      <c r="C26" s="200"/>
+      <c r="D26" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
       <c r="G26" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="202" t="s">
+      <c r="B27" s="200" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203" t="s">
+      <c r="C27" s="200"/>
+      <c r="D27" s="201" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
       <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
@@ -5147,16 +5067,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="200" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="206">
+      <c r="C29" s="200"/>
+      <c r="D29" s="204">
         <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="206"/>
-      <c r="F29" s="206"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
@@ -5168,14 +5088,14 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="202"/>
-      <c r="D32" s="205" t="s">
+      <c r="C32" s="200"/>
+      <c r="D32" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="205"/>
+      <c r="E32" s="203"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="102" t="s">
@@ -5184,17 +5104,17 @@
       <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="201" t="s">
+      <c r="D33" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="201"/>
+      <c r="E33" s="199"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="202" t="s">
+      <c r="B34" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
@@ -5269,17 +5189,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="265" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -5287,45 +5207,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="266" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270" t="s">
+      <c r="C3" s="267"/>
+      <c r="D3" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="271"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="255" t="s">
+      <c r="E3" s="269"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="253" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="273" t="s">
+      <c r="H3" s="254"/>
+      <c r="I3" s="271" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="274"/>
-      <c r="K3" s="275"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="273"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="274" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="278" t="s">
+      <c r="C4" s="275"/>
+      <c r="D4" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="279"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="284" t="s">
+      <c r="E4" s="277"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="282" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="281" t="s">
+      <c r="H4" s="283"/>
+      <c r="I4" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="282"/>
-      <c r="K4" s="283"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="281"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5340,98 +5260,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="250" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="255" t="s">
+      <c r="D6" s="253" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="256"/>
-      <c r="F6" s="255" t="s">
+      <c r="E6" s="254"/>
+      <c r="F6" s="253" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="257"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="255" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="257"/>
-      <c r="K6" s="258"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="253"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="259" t="s">
+      <c r="D7" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="259" t="s">
+      <c r="E7" s="258"/>
+      <c r="F7" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="260"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="258"/>
       <c r="I7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="259" t="e">
+      <c r="J7" s="257" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="262"/>
+      <c r="K7" s="260"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="253"/>
+      <c r="B8" s="251"/>
       <c r="C8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="259" t="s">
+      <c r="D8" s="257" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="260"/>
-      <c r="F8" s="259" t="s">
+      <c r="E8" s="258"/>
+      <c r="F8" s="257" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="261"/>
-      <c r="H8" s="261"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
       <c r="I8" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="259" t="e">
+      <c r="J8" s="257" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="262"/>
+      <c r="K8" s="260"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="254"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="263">
+      <c r="D9" s="261">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="264"/>
-      <c r="F9" s="263">
+      <c r="E9" s="262"/>
+      <c r="F9" s="261">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="263"/>
       <c r="I9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="263">
+      <c r="J9" s="261">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="266"/>
+      <c r="K9" s="264"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5446,58 +5366,58 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="236" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="239"/>
+      <c r="C11" s="237"/>
       <c r="D11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="242" t="s">
+      <c r="E11" s="240" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="243"/>
+      <c r="F11" s="241"/>
       <c r="G11" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="244" t="s">
+      <c r="H11" s="242" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="244"/>
-      <c r="J11" s="245" t="e">
+      <c r="I11" s="242"/>
+      <c r="J11" s="243" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="246"/>
+      <c r="K11" s="244"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="240"/>
-      <c r="C12" s="241"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="239"/>
       <c r="D12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="247" t="s">
+      <c r="E12" s="245" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="248"/>
+      <c r="F12" s="246"/>
       <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="249" t="s">
+      <c r="H12" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="249"/>
-      <c r="J12" s="250" t="e">
+      <c r="I12" s="247"/>
+      <c r="J12" s="248" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="251"/>
+      <c r="K12" s="249"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="223" t="s">
+      <c r="B14" s="221" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="56"/>
@@ -5511,20 +5431,20 @@
       <c r="F14" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="236" t="e">
+      <c r="G14" s="234" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="236"/>
-      <c r="I14" s="226" t="s">
+      <c r="H14" s="234"/>
+      <c r="I14" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="226"/>
-      <c r="K14" s="227"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="225"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="224"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="52" t="s">
         <v>52</v>
       </c>
@@ -5538,40 +5458,40 @@
       <c r="F15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="237" t="e">
+      <c r="G15" s="235" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="237"/>
-      <c r="I15" s="228" t="s">
+      <c r="H15" s="235"/>
+      <c r="I15" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="228"/>
-      <c r="K15" s="229"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="227"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="224"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
       <c r="I16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="230" t="e">
+      <c r="J16" s="228" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="231"/>
+      <c r="K16" s="229"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="225"/>
+      <c r="B17" s="223"/>
       <c r="C17" s="43" t="s">
         <v>47</v>
       </c>
@@ -5583,17 +5503,17 @@
       <c r="F17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="234" t="str">
+      <c r="G17" s="232" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="234"/>
+      <c r="H17" s="232"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="232" t="e">
+      <c r="J17" s="230" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="233"/>
+      <c r="K17" s="231"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5601,22 +5521,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="214" t="s">
+      <c r="B19" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="216"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
       <c r="I19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="217" t="s">
+      <c r="J19" s="215" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="218"/>
+      <c r="K19" s="216"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5626,22 +5546,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="220" t="s">
+      <c r="B21" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
       <c r="I21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="217" t="s">
+      <c r="J21" s="215" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="218"/>
+      <c r="K21" s="216"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5732,16 +5652,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="297" t="s">
+      <c r="B2" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -5764,34 +5684,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="298" t="s">
+      <c r="B5" s="296" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="307" t="s">
+      <c r="L5" s="305" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="308"/>
+      <c r="L6" s="306"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="299" t="e">
+      <c r="D7" s="297" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="301"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="299"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -5818,26 +5738,26 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="302" t="s">
+      <c r="B10" s="300" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="303"/>
-      <c r="D10" s="304" t="s">
+      <c r="C10" s="301"/>
+      <c r="D10" s="302" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="305"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="306"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="304"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="292">
+      <c r="L10" s="290">
         <v>8250000</v>
       </c>
-      <c r="M10" s="292"/>
-      <c r="N10" s="292"/>
-      <c r="O10" s="292"/>
-      <c r="P10" s="292"/>
+      <c r="M10" s="290"/>
+      <c r="N10" s="290"/>
+      <c r="O10" s="290"/>
+      <c r="P10" s="290"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -5846,70 +5766,70 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="318" t="s">
+      <c r="B12" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="319"/>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="319" t="s">
+      <c r="C12" s="317"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="317"/>
+      <c r="F12" s="317"/>
+      <c r="G12" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="319"/>
-      <c r="I12" s="320"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="307" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="310"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="311"/>
-      <c r="G13" s="312" t="s">
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="310" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="313"/>
-      <c r="I13" s="314"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="315" t="s">
+      <c r="B14" s="313" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="316"/>
-      <c r="D14" s="316"/>
-      <c r="E14" s="316"/>
-      <c r="F14" s="317"/>
-      <c r="G14" s="312" t="s">
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="310" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="313"/>
-      <c r="I14" s="314"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="286" t="s">
+      <c r="B15" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="291"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="289"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -5922,10 +5842,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="294" t="s">
+      <c r="B17" s="292" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="294"/>
+      <c r="C17" s="292"/>
       <c r="D17" s="82" t="s">
         <v>75</v>
       </c>
@@ -5950,36 +5870,36 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="295" t="s">
+      <c r="F19" s="293" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="295"/>
-      <c r="H19" s="295"/>
-      <c r="I19" s="295"/>
-      <c r="J19" s="295"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="293"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="296" t="s">
+      <c r="F20" s="294" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="296"/>
-      <c r="H20" s="296"/>
-      <c r="I20" s="296"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="293" t="s">
+      <c r="F21" s="291" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="293"/>
-      <c r="H21" s="293"/>
-      <c r="I21" s="293"/>
-      <c r="J21" s="293"/>
+      <c r="G21" s="291"/>
+      <c r="H21" s="291"/>
+      <c r="I21" s="291"/>
+      <c r="J21" s="291"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6072,16 +5992,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="297" t="s">
+      <c r="B2" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
       <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6093,30 +6013,30 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
-      <c r="I4" s="144"/>
+      <c r="I4" s="143"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="298" t="s">
+      <c r="B5" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="145"/>
+      <c r="I5" s="144"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="299" t="e">
+      <c r="D7" s="297" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="301"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="299"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
     </row>
@@ -6137,26 +6057,26 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="302" t="s">
+      <c r="B10" s="300" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="303"/>
-      <c r="D10" s="324" t="s">
+      <c r="C10" s="301"/>
+      <c r="D10" s="322" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="305"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="306"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="304"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="292">
+      <c r="L10" s="290">
         <v>8250000</v>
       </c>
-      <c r="M10" s="292"/>
-      <c r="N10" s="292"/>
-      <c r="O10" s="292"/>
-      <c r="P10" s="292"/>
+      <c r="M10" s="290"/>
+      <c r="N10" s="290"/>
+      <c r="O10" s="290"/>
+      <c r="P10" s="290"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -6165,66 +6085,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="318" t="s">
+      <c r="B12" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="319"/>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="319" t="s">
+      <c r="C12" s="317"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="317"/>
+      <c r="F12" s="317"/>
+      <c r="G12" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="319"/>
-      <c r="I12" s="320"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="307" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="310"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="311"/>
-      <c r="G13" s="312" t="s">
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="310" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="313"/>
-      <c r="I13" s="314"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="315" t="s">
+      <c r="B14" s="313" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="316"/>
-      <c r="D14" s="316"/>
-      <c r="E14" s="316"/>
-      <c r="F14" s="317"/>
-      <c r="G14" s="312"/>
-      <c r="H14" s="313"/>
-      <c r="I14" s="314"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="286"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="291"/>
+      <c r="B15" s="284"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="289"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6237,11 +6157,11 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="321" t="s">
+      <c r="B17" s="320" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="321"/>
-      <c r="D17" s="146" t="s">
+      <c r="C17" s="320"/>
+      <c r="D17" s="145" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="29"/>
@@ -6251,68 +6171,68 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="27"/>
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="239"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="322"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
+      <c r="F20" s="321"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="321"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="323" t="s">
+      <c r="F21" s="319" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="323"/>
-      <c r="H21" s="323"/>
-      <c r="I21" s="323"/>
-      <c r="J21" s="323"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="319"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="78"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="78"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
     </row>
     <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="25" t="s">
@@ -6375,16 +6295,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="297" t="s">
+      <c r="B2" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
       <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6396,30 +6316,30 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
-      <c r="I4" s="144"/>
+      <c r="I4" s="143"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="298" t="s">
+      <c r="B5" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="145"/>
+      <c r="I5" s="144"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="299" t="e">
+      <c r="D7" s="297" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="301"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="299"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
     </row>
@@ -6440,26 +6360,26 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="302" t="s">
+      <c r="B10" s="300" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="303"/>
-      <c r="D10" s="324" t="s">
+      <c r="C10" s="301"/>
+      <c r="D10" s="322" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="305"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="306"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="304"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="292">
+      <c r="L10" s="290">
         <v>8250000</v>
       </c>
-      <c r="M10" s="292"/>
-      <c r="N10" s="292"/>
-      <c r="O10" s="292"/>
-      <c r="P10" s="292"/>
+      <c r="M10" s="290"/>
+      <c r="N10" s="290"/>
+      <c r="O10" s="290"/>
+      <c r="P10" s="290"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -6468,66 +6388,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="318" t="s">
+      <c r="B12" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="319"/>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="319" t="s">
+      <c r="C12" s="317"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="317"/>
+      <c r="F12" s="317"/>
+      <c r="G12" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="319"/>
-      <c r="I12" s="320"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="307" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="310"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="311"/>
-      <c r="G13" s="312" t="s">
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="310" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="313"/>
-      <c r="I13" s="314"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="315" t="s">
+      <c r="B14" s="313" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="316"/>
-      <c r="D14" s="316"/>
-      <c r="E14" s="316"/>
-      <c r="F14" s="317"/>
-      <c r="G14" s="312"/>
-      <c r="H14" s="313"/>
-      <c r="I14" s="314"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="286"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="291"/>
+      <c r="B15" s="284"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="289"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6540,11 +6460,11 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="321" t="s">
+      <c r="B17" s="320" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="321"/>
-      <c r="D17" s="146" t="s">
+      <c r="C17" s="320"/>
+      <c r="D17" s="145" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="29"/>
@@ -6554,68 +6474,68 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="27"/>
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="239"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="322"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
+      <c r="F20" s="321"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="321"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="323" t="s">
+      <c r="F21" s="319" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="323"/>
-      <c r="H21" s="323"/>
-      <c r="I21" s="323"/>
-      <c r="J21" s="323"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="319"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="78"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="78"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
     </row>
     <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="25" t="s">
@@ -6694,22 +6614,22 @@
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
-      <c r="H3" s="338"/>
-      <c r="I3" s="338"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="338"/>
-      <c r="L3" s="342"/>
-      <c r="M3" s="339"/>
-      <c r="N3" s="339"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H4" s="338"/>
-      <c r="I4" s="338"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="338"/>
-      <c r="L4" s="342"/>
-      <c r="M4" s="339"/>
-      <c r="N4" s="339"/>
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="337"/>
+      <c r="N4" s="337"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6725,17 +6645,17 @@
       <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="326" t="s">
+      <c r="E6" s="324" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="326"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326" t="s">
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="326"/>
-      <c r="K6" s="326"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="112" t="s">
@@ -6750,13 +6670,13 @@
       <c r="D7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="326"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="326"/>
-      <c r="K7" s="326"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="324"/>
+      <c r="K7" s="324"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="113" t="s">
@@ -6771,17 +6691,17 @@
       <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="327" t="s">
+      <c r="E8" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="328"/>
-      <c r="G8" s="328"/>
-      <c r="H8" s="329"/>
-      <c r="I8" s="333" t="s">
+      <c r="F8" s="326"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="333"/>
-      <c r="K8" s="333"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="331"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116" t="s">
@@ -6796,13 +6716,13 @@
       <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="330"/>
-      <c r="F9" s="331"/>
-      <c r="G9" s="331"/>
-      <c r="H9" s="332"/>
-      <c r="I9" s="333"/>
-      <c r="J9" s="333"/>
-      <c r="K9" s="333"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="331"/>
+      <c r="J9" s="331"/>
+      <c r="K9" s="331"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="111" t="s">
@@ -6819,25 +6739,25 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="334" t="s">
+      <c r="E10" s="332" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="335">
+      <c r="F10" s="160"/>
+      <c r="G10" s="333">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="336"/>
-      <c r="I10" s="334"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="337"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="332"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="335"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="325" t="s">
+      <c r="I11" s="323" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="325"/>
-      <c r="K11" s="325"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6905,20 +6825,20 @@
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
-      <c r="I3" s="338"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="338"/>
-      <c r="L3" s="342"/>
-      <c r="M3" s="339"/>
-      <c r="N3" s="339"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="338"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="338"/>
-      <c r="L4" s="342"/>
-      <c r="M4" s="339"/>
-      <c r="N4" s="339"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="337"/>
+      <c r="N4" s="337"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6934,17 +6854,17 @@
       <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="326" t="s">
+      <c r="E6" s="324" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="326"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326" t="s">
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="326"/>
-      <c r="K6" s="326"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="112" t="s">
@@ -6959,13 +6879,13 @@
       <c r="D7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="326"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="326"/>
-      <c r="K7" s="326"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="324"/>
+      <c r="K7" s="324"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="113" t="s">
@@ -6980,17 +6900,17 @@
       <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="327" t="s">
+      <c r="E8" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="328"/>
-      <c r="G8" s="328"/>
-      <c r="H8" s="329"/>
-      <c r="I8" s="333" t="s">
+      <c r="F8" s="326"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="333"/>
-      <c r="K8" s="333"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="331"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116" t="s">
@@ -7005,13 +6925,13 @@
       <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="330"/>
-      <c r="F9" s="331"/>
-      <c r="G9" s="331"/>
-      <c r="H9" s="332"/>
-      <c r="I9" s="333"/>
-      <c r="J9" s="333"/>
-      <c r="K9" s="333"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="331"/>
+      <c r="J9" s="331"/>
+      <c r="K9" s="331"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="111" t="s">
@@ -7028,25 +6948,25 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="334" t="s">
+      <c r="E10" s="332" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="335">
+      <c r="F10" s="160"/>
+      <c r="G10" s="333">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="336"/>
-      <c r="I10" s="334"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="337"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="332"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="335"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="325" t="s">
+      <c r="I11" s="323" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="325"/>
-      <c r="K11" s="325"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A2E38-4CFC-40F7-AA9B-590EB8680A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57DD06-BE85-43F7-90F9-7267D6680D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="振替伝票 (仲介・業務委託)" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">支払依頼書帳票!$A$1:$Q$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">支払依頼書帳票!$A$1:$P$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'領収証 (業務委託料)'!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'領収証 (仲介手数料)'!$A$1:$J$25</definedName>
   </definedNames>
@@ -3138,7 +3138,76 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3150,73 +3219,16 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3261,9 +3273,6 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="200" fontId="48" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3273,212 +3282,44 @@
     <xf numFmtId="177" fontId="50" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3527,44 +3368,212 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3599,61 +3608,67 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3691,21 +3706,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4224,30 +4224,30 @@
       <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -4263,10 +4263,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="154"/>
+      <c r="H5" s="177"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4300,8 +4300,8 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4337,10 +4337,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="177" t="s">
+      <c r="J11" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="177"/>
+      <c r="K11" s="174"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -4351,17 +4351,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="151" t="s">
+      <c r="J12" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="151"/>
+      <c r="K12" s="152"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -4372,17 +4372,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="153" t="s">
+      <c r="E13" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="151" t="s">
+      <c r="J13" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="151"/>
+      <c r="K13" s="152"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -4391,14 +4391,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="162"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="159"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="151" t="s">
+      <c r="J14" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="151"/>
+      <c r="K14" s="152"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -4407,32 +4407,32 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="164"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="161"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="151" t="s">
+      <c r="J15" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="151"/>
+      <c r="K15" s="152"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="160"/>
+      <c r="C18" s="157"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="165">
+      <c r="E18" s="162">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="167"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="164"/>
       <c r="I18" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4461,47 +4461,52 @@
     </row>
     <row r="27" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="169"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="166"/>
       <c r="J28" s="103"/>
       <c r="K28" s="120"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F29" s="170"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F30" s="172"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F32" s="174"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -4518,11 +4523,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4536,7 +4536,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4552,16 +4552,15 @@
     <col min="9" max="9" width="10.58203125" style="123" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="123" customWidth="1"/>
     <col min="11" max="11" width="12.08203125" style="123" customWidth="1"/>
-    <col min="12" max="12" width="11.58203125" style="123" customWidth="1"/>
-    <col min="13" max="15" width="8.58203125" style="123" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" style="123" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" style="123" customWidth="1"/>
-    <col min="18" max="18" width="4.9140625" style="123" customWidth="1"/>
-    <col min="19" max="19" width="3.9140625" style="123" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="123"/>
+    <col min="12" max="14" width="8.58203125" style="123" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="123" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" style="123" customWidth="1"/>
+    <col min="17" max="17" width="4.9140625" style="123" customWidth="1"/>
+    <col min="18" max="18" width="3.9140625" style="123" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="121" t="s">
         <v>88</v>
       </c>
@@ -4582,40 +4581,40 @@
       <c r="K1" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="123" t="s">
+      <c r="N1" s="123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="192" t="s">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="178" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="179" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="180" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="192" t="s">
+      <c r="E2" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="178" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="192"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="192"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="178"/>
       <c r="F3" s="126" t="s">
         <v>163</v>
       </c>
@@ -4634,18 +4633,17 @@
       <c r="K3" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="126"/>
-      <c r="M3" s="191" t="s">
+      <c r="L3" s="195" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="191"/>
-      <c r="O3" s="192" t="s">
+      <c r="M3" s="195"/>
+      <c r="N3" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-    </row>
-    <row r="4" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+    </row>
+    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="130" t="s">
         <v>171</v>
       </c>
@@ -4679,19 +4677,18 @@
       <c r="K4" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="133"/>
-      <c r="M4" s="193" t="e">
-        <f>IF(OR(K4&lt;&gt;"", L4&lt;&gt;""), K4+L4, "")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N4" s="193"/>
-      <c r="O4" s="194" t="s">
+      <c r="L4" s="196" t="str">
+        <f>IF(K4&lt;&gt;"", K4, "")</f>
+        <v>$payPriceTax_intermediary$</v>
+      </c>
+      <c r="M4" s="196"/>
+      <c r="N4" s="197" t="s">
         <v>181</v>
       </c>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-    </row>
-    <row r="5" spans="1:17" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+    </row>
+    <row r="5" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="130" t="s">
         <v>182</v>
       </c>
@@ -4725,19 +4722,18 @@
       <c r="K5" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="133"/>
-      <c r="M5" s="193" t="e">
-        <f>IF(OR(K5&lt;&gt;"", L5&lt;&gt;""), K5+L5, "")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" s="193"/>
-      <c r="O5" s="194" t="s">
+      <c r="L5" s="196" t="str">
+        <f t="shared" ref="L5:L6" si="0">IF(K5&lt;&gt;"", K5, "")</f>
+        <v>$payPriceTax_outsourcing$</v>
+      </c>
+      <c r="M5" s="196"/>
+      <c r="N5" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-    </row>
-    <row r="6" spans="1:17" s="140" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+    </row>
+    <row r="6" spans="1:16" s="140" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="135"/>
       <c r="B6" s="136"/>
       <c r="C6" s="137"/>
@@ -4754,81 +4750,79 @@
         <f>SUM(K4:K5)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="134"/>
-      <c r="M6" s="193" t="e">
-        <f>SUM(M4:M5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" s="193"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-    </row>
-    <row r="7" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L6" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="196"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="198"/>
+    </row>
+    <row r="7" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="9" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="150"/>
       <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="179"/>
-    </row>
-    <row r="10" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="186"/>
-    </row>
-    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="188"/>
-    </row>
-    <row r="12" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="188"/>
-    </row>
-    <row r="13" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="190"/>
-    </row>
-    <row r="14" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="183"/>
+    </row>
+    <row r="10" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="190"/>
+    </row>
+    <row r="11" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="192"/>
+    </row>
+    <row r="12" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="192"/>
+    </row>
+    <row r="13" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="194"/>
+    </row>
+    <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="O10:P13"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="P10:Q13"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4849,17 +4843,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="200" t="s">
+      <c r="H1" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="200"/>
+      <c r="I1" s="199"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
@@ -4870,18 +4864,18 @@
       <c r="F4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="200" t="s">
+      <c r="G5" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
@@ -4893,21 +4887,21 @@
       <c r="I6" s="203"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="208" t="s">
+      <c r="C9" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209" t="s">
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -4957,10 +4951,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="210"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
@@ -4973,24 +4967,24 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="211"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="211"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="207"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -5008,57 +5002,57 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="200" t="s">
+      <c r="B24" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="200"/>
-      <c r="D24" s="205" t="s">
+      <c r="C24" s="199"/>
+      <c r="D24" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="200" t="s">
+      <c r="B25" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201" t="s">
+      <c r="C25" s="199"/>
+      <c r="D25" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="D26" s="202" t="s">
+      <c r="C26" s="199"/>
+      <c r="D26" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
       <c r="G26" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="199" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201" t="s">
+      <c r="C27" s="199"/>
+      <c r="D27" s="209" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="209"/>
       <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
@@ -5067,16 +5061,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="204">
+      <c r="C29" s="199"/>
+      <c r="D29" s="211">
         <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
@@ -5088,10 +5082,10 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="200" t="s">
+      <c r="B32" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="200"/>
+      <c r="C32" s="199"/>
       <c r="D32" s="203" t="s">
         <v>100</v>
       </c>
@@ -5104,23 +5098,35 @@
       <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="199" t="s">
+      <c r="D33" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="199"/>
+      <c r="E33" s="208"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="200"/>
-      <c r="D34" s="200"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H1:I1"/>
@@ -5134,18 +5140,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B20:I20"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5189,17 +5183,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -5207,45 +5201,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="266" t="s">
+      <c r="B3" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="267"/>
-      <c r="D3" s="268" t="s">
+      <c r="C3" s="214"/>
+      <c r="D3" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="269"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="253" t="s">
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="229" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="254"/>
-      <c r="I3" s="271" t="s">
+      <c r="H3" s="230"/>
+      <c r="I3" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="272"/>
-      <c r="K3" s="273"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="220"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="274" t="s">
+      <c r="B4" s="221" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="275"/>
-      <c r="D4" s="276" t="s">
+      <c r="C4" s="222"/>
+      <c r="D4" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="277"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="282" t="s">
+      <c r="E4" s="224"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="279" t="s">
+      <c r="H4" s="232"/>
+      <c r="I4" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="280"/>
-      <c r="K4" s="281"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="228"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5260,98 +5254,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="233" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="253" t="s">
+      <c r="D6" s="229" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="254"/>
-      <c r="F6" s="253" t="s">
+      <c r="E6" s="230"/>
+      <c r="F6" s="229" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="253" t="s">
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="255"/>
-      <c r="K6" s="256"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="237"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="251"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="257" t="s">
+      <c r="D7" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="258"/>
-      <c r="F7" s="257" t="s">
+      <c r="E7" s="239"/>
+      <c r="F7" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="259"/>
-      <c r="H7" s="258"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="239"/>
       <c r="I7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="257" t="e">
+      <c r="J7" s="238" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="260"/>
+      <c r="K7" s="241"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="251"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="257" t="s">
+      <c r="D8" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="258"/>
-      <c r="F8" s="257" t="s">
+      <c r="E8" s="239"/>
+      <c r="F8" s="238" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
       <c r="I8" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="257" t="e">
+      <c r="J8" s="238" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="260"/>
+      <c r="K8" s="241"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="252"/>
+      <c r="B9" s="235"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="261">
+      <c r="D9" s="242">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="262"/>
-      <c r="F9" s="261">
+      <c r="E9" s="243"/>
+      <c r="F9" s="242">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="263"/>
-      <c r="H9" s="263"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
       <c r="I9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="261">
+      <c r="J9" s="242">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="264"/>
+      <c r="K9" s="245"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5366,58 +5360,58 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="236" t="s">
+      <c r="B11" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="237"/>
+      <c r="C11" s="247"/>
       <c r="D11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="240" t="s">
+      <c r="E11" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="241"/>
+      <c r="F11" s="251"/>
       <c r="G11" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="242" t="s">
+      <c r="H11" s="252" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="242"/>
-      <c r="J11" s="243" t="e">
+      <c r="I11" s="252"/>
+      <c r="J11" s="253" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="244"/>
+      <c r="K11" s="254"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="238"/>
-      <c r="C12" s="239"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="249"/>
       <c r="D12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="245" t="s">
+      <c r="E12" s="255" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="246"/>
+      <c r="F12" s="256"/>
       <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="247" t="s">
+      <c r="H12" s="257" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="247"/>
-      <c r="J12" s="248" t="e">
+      <c r="I12" s="257"/>
+      <c r="J12" s="258" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="249"/>
+      <c r="K12" s="259"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="221" t="s">
+      <c r="B14" s="260" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="56"/>
@@ -5431,20 +5425,20 @@
       <c r="F14" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="234" t="e">
+      <c r="G14" s="273" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="234"/>
-      <c r="I14" s="224" t="s">
+      <c r="H14" s="273"/>
+      <c r="I14" s="263" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="224"/>
-      <c r="K14" s="225"/>
+      <c r="J14" s="263"/>
+      <c r="K14" s="264"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="222"/>
+      <c r="B15" s="261"/>
       <c r="C15" s="52" t="s">
         <v>52</v>
       </c>
@@ -5458,40 +5452,40 @@
       <c r="F15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="235" t="e">
+      <c r="G15" s="274" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="235"/>
-      <c r="I15" s="226" t="s">
+      <c r="H15" s="274"/>
+      <c r="I15" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="226"/>
-      <c r="K15" s="227"/>
+      <c r="J15" s="265"/>
+      <c r="K15" s="266"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="222"/>
+      <c r="B16" s="261"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="272"/>
       <c r="I16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="228" t="e">
+      <c r="J16" s="267" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="229"/>
+      <c r="K16" s="268"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="223"/>
+      <c r="B17" s="262"/>
       <c r="C17" s="43" t="s">
         <v>47</v>
       </c>
@@ -5503,17 +5497,17 @@
       <c r="F17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="232" t="str">
+      <c r="G17" s="271" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="232"/>
+      <c r="H17" s="271"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="230" t="e">
+      <c r="J17" s="269" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="231"/>
+      <c r="K17" s="270"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5521,22 +5515,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="212" t="s">
+      <c r="B19" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="213"/>
-      <c r="D19" s="214"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="277"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="280"/>
       <c r="I19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="215" t="s">
+      <c r="J19" s="278" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="216"/>
+      <c r="K19" s="279"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5546,22 +5540,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="281" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="219"/>
-      <c r="D21" s="220"/>
+      <c r="C21" s="282"/>
+      <c r="D21" s="283"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="217"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
       <c r="I21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="215" t="s">
+      <c r="J21" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="216"/>
+      <c r="K21" s="279"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5572,15 +5566,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -5594,28 +5601,15 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5652,16 +5646,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="295" t="s">
+      <c r="B2" s="298" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -5684,34 +5678,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="296" t="s">
+      <c r="B5" s="299" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="305" t="s">
+      <c r="L5" s="284" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="306"/>
+      <c r="L6" s="285"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="297" t="e">
+      <c r="D7" s="300" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="299"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="302"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -5738,26 +5732,26 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="300" t="s">
+      <c r="B10" s="303" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="301"/>
-      <c r="D10" s="302" t="s">
+      <c r="C10" s="304"/>
+      <c r="D10" s="305" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="304"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="307"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="290">
+      <c r="L10" s="314">
         <v>8250000</v>
       </c>
-      <c r="M10" s="290"/>
-      <c r="N10" s="290"/>
-      <c r="O10" s="290"/>
-      <c r="P10" s="290"/>
+      <c r="M10" s="314"/>
+      <c r="N10" s="314"/>
+      <c r="O10" s="314"/>
+      <c r="P10" s="314"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -5766,70 +5760,70 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="316" t="s">
+      <c r="B12" s="295" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="317"/>
-      <c r="D12" s="317"/>
-      <c r="E12" s="317"/>
-      <c r="F12" s="317"/>
-      <c r="G12" s="317" t="s">
+      <c r="C12" s="296"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="296"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="296" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="317"/>
-      <c r="I12" s="318"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="297"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="310" t="s">
+      <c r="C13" s="287"/>
+      <c r="D13" s="287"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="289" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="311"/>
-      <c r="I13" s="312"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="291"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="313" t="s">
+      <c r="B14" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="314"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="310" t="s">
+      <c r="C14" s="293"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="311"/>
-      <c r="I14" s="312"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="291"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="284" t="s">
+      <c r="B15" s="308" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="285"/>
-      <c r="D15" s="285"/>
-      <c r="E15" s="285"/>
-      <c r="F15" s="286"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="288"/>
-      <c r="I15" s="289"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="312"/>
+      <c r="I15" s="313"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -5842,10 +5836,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="292" t="s">
+      <c r="B17" s="316" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="292"/>
+      <c r="C17" s="316"/>
       <c r="D17" s="82" t="s">
         <v>75</v>
       </c>
@@ -5870,36 +5864,36 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="293" t="s">
+      <c r="F19" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="293"/>
-      <c r="H19" s="293"/>
-      <c r="I19" s="293"/>
-      <c r="J19" s="293"/>
+      <c r="G19" s="317"/>
+      <c r="H19" s="317"/>
+      <c r="I19" s="317"/>
+      <c r="J19" s="317"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="294" t="s">
+      <c r="F20" s="318" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="294"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="294"/>
+      <c r="G20" s="318"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="318"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="291" t="s">
+      <c r="F21" s="315" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="291"/>
-      <c r="H21" s="291"/>
-      <c r="I21" s="291"/>
-      <c r="J21" s="291"/>
+      <c r="G21" s="315"/>
+      <c r="H21" s="315"/>
+      <c r="I21" s="315"/>
+      <c r="J21" s="315"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5938,6 +5932,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:I13"/>
@@ -5945,18 +5951,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5992,16 +5986,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="295" t="s">
+      <c r="B2" s="298" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
       <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6016,12 +6010,12 @@
       <c r="I4" s="143"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="296" t="s">
+      <c r="B5" s="299" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
@@ -6029,14 +6023,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="297" t="e">
+      <c r="D7" s="300" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="299"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="302"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
     </row>
@@ -6057,26 +6051,26 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="300" t="s">
+      <c r="B10" s="303" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="301"/>
-      <c r="D10" s="322" t="s">
+      <c r="C10" s="304"/>
+      <c r="D10" s="319" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="304"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="307"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="290">
+      <c r="L10" s="314">
         <v>8250000</v>
       </c>
-      <c r="M10" s="290"/>
-      <c r="N10" s="290"/>
-      <c r="O10" s="290"/>
-      <c r="P10" s="290"/>
+      <c r="M10" s="314"/>
+      <c r="N10" s="314"/>
+      <c r="O10" s="314"/>
+      <c r="P10" s="314"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -6085,66 +6079,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="316" t="s">
+      <c r="B12" s="295" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="317"/>
-      <c r="D12" s="317"/>
-      <c r="E12" s="317"/>
-      <c r="F12" s="317"/>
-      <c r="G12" s="317" t="s">
+      <c r="C12" s="296"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="296"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="296" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="317"/>
-      <c r="I12" s="318"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="297"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="286" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="310" t="s">
+      <c r="C13" s="287"/>
+      <c r="D13" s="287"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="289" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="311"/>
-      <c r="I13" s="312"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="291"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="313" t="s">
+      <c r="B14" s="292" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="314"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="311"/>
-      <c r="I14" s="312"/>
+      <c r="C14" s="293"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="289"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="291"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="284"/>
-      <c r="C15" s="285"/>
-      <c r="D15" s="285"/>
-      <c r="E15" s="285"/>
-      <c r="F15" s="286"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="288"/>
-      <c r="I15" s="289"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="312"/>
+      <c r="I15" s="313"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6157,10 +6151,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="320" t="s">
+      <c r="B17" s="321" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="320"/>
+      <c r="C17" s="321"/>
       <c r="D17" s="145" t="s">
         <v>75</v>
       </c>
@@ -6185,31 +6179,31 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="239"/>
-      <c r="G19" s="239"/>
-      <c r="H19" s="239"/>
-      <c r="I19" s="239"/>
-      <c r="J19" s="239"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="321"/>
-      <c r="G20" s="321"/>
-      <c r="H20" s="321"/>
-      <c r="I20" s="321"/>
+      <c r="F20" s="322"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="319" t="s">
+      <c r="F21" s="320" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="319"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="319"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="320"/>
+      <c r="I21" s="320"/>
+      <c r="J21" s="320"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="78"/>
@@ -6242,12 +6236,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -6260,6 +6248,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6295,16 +6289,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="295" t="s">
+      <c r="B2" s="298" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
       <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6319,12 +6313,12 @@
       <c r="I4" s="143"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="296" t="s">
+      <c r="B5" s="299" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
@@ -6332,14 +6326,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="297" t="e">
+      <c r="D7" s="300" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="299"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="302"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
     </row>
@@ -6360,26 +6354,26 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="300" t="s">
+      <c r="B10" s="303" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="301"/>
-      <c r="D10" s="322" t="s">
+      <c r="C10" s="304"/>
+      <c r="D10" s="319" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="304"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="307"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="290">
+      <c r="L10" s="314">
         <v>8250000</v>
       </c>
-      <c r="M10" s="290"/>
-      <c r="N10" s="290"/>
-      <c r="O10" s="290"/>
-      <c r="P10" s="290"/>
+      <c r="M10" s="314"/>
+      <c r="N10" s="314"/>
+      <c r="O10" s="314"/>
+      <c r="P10" s="314"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -6388,66 +6382,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="316" t="s">
+      <c r="B12" s="295" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="317"/>
-      <c r="D12" s="317"/>
-      <c r="E12" s="317"/>
-      <c r="F12" s="317"/>
-      <c r="G12" s="317" t="s">
+      <c r="C12" s="296"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="296"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="296" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="317"/>
-      <c r="I12" s="318"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="297"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="286" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="310" t="s">
+      <c r="C13" s="287"/>
+      <c r="D13" s="287"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="289" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="311"/>
-      <c r="I13" s="312"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="291"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="313" t="s">
+      <c r="B14" s="292" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="314"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="311"/>
-      <c r="I14" s="312"/>
+      <c r="C14" s="293"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="289"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="291"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="284"/>
-      <c r="C15" s="285"/>
-      <c r="D15" s="285"/>
-      <c r="E15" s="285"/>
-      <c r="F15" s="286"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="288"/>
-      <c r="I15" s="289"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="312"/>
+      <c r="I15" s="313"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6460,10 +6454,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="320" t="s">
+      <c r="B17" s="321" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="320"/>
+      <c r="C17" s="321"/>
       <c r="D17" s="145" t="s">
         <v>75</v>
       </c>
@@ -6488,31 +6482,31 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="239"/>
-      <c r="G19" s="239"/>
-      <c r="H19" s="239"/>
-      <c r="I19" s="239"/>
-      <c r="J19" s="239"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="321"/>
-      <c r="G20" s="321"/>
-      <c r="H20" s="321"/>
-      <c r="I20" s="321"/>
+      <c r="F20" s="322"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="319" t="s">
+      <c r="F21" s="320" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="319"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="319"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="320"/>
+      <c r="I21" s="320"/>
+      <c r="J21" s="320"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="78"/>
@@ -6545,12 +6539,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -6563,6 +6551,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6614,22 +6608,22 @@
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="338"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="337"/>
-      <c r="N3" s="337"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="325"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="324"/>
+      <c r="N3" s="324"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H4" s="336"/>
-      <c r="I4" s="336"/>
-      <c r="J4" s="339"/>
-      <c r="K4" s="336"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="337"/>
-      <c r="N4" s="337"/>
+      <c r="H4" s="323"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="327"/>
+      <c r="M4" s="324"/>
+      <c r="N4" s="324"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6645,17 +6639,17 @@
       <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="324" t="s">
+      <c r="E6" s="329" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324" t="s">
+      <c r="F6" s="329"/>
+      <c r="G6" s="329"/>
+      <c r="H6" s="329"/>
+      <c r="I6" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="324"/>
-      <c r="K6" s="324"/>
+      <c r="J6" s="329"/>
+      <c r="K6" s="329"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="112" t="s">
@@ -6670,13 +6664,13 @@
       <c r="D7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
-      <c r="H7" s="324"/>
-      <c r="I7" s="324"/>
-      <c r="J7" s="324"/>
-      <c r="K7" s="324"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="329"/>
+      <c r="J7" s="329"/>
+      <c r="K7" s="329"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="113" t="s">
@@ -6691,17 +6685,17 @@
       <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="325" t="s">
+      <c r="E8" s="330" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="326"/>
-      <c r="G8" s="326"/>
-      <c r="H8" s="327"/>
-      <c r="I8" s="331" t="s">
+      <c r="F8" s="331"/>
+      <c r="G8" s="331"/>
+      <c r="H8" s="332"/>
+      <c r="I8" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="331"/>
-      <c r="K8" s="331"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="336"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116" t="s">
@@ -6716,13 +6710,13 @@
       <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="328"/>
-      <c r="F9" s="329"/>
-      <c r="G9" s="329"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="331"/>
-      <c r="J9" s="331"/>
-      <c r="K9" s="331"/>
+      <c r="E9" s="333"/>
+      <c r="F9" s="334"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="335"/>
+      <c r="I9" s="336"/>
+      <c r="J9" s="336"/>
+      <c r="K9" s="336"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="111" t="s">
@@ -6739,35 +6733,28 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="332" t="s">
+      <c r="E10" s="337" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="333">
+      <c r="F10" s="157"/>
+      <c r="G10" s="338">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="334"/>
-      <c r="I10" s="332"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="335"/>
+      <c r="H10" s="339"/>
+      <c r="I10" s="337"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="340"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="323" t="s">
+      <c r="I11" s="328" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="323"/>
-      <c r="K11" s="323"/>
+      <c r="J11" s="328"/>
+      <c r="K11" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -6776,6 +6763,13 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6825,20 +6819,20 @@
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="338"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="337"/>
-      <c r="N3" s="337"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="325"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="324"/>
+      <c r="N3" s="324"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="336"/>
-      <c r="J4" s="339"/>
-      <c r="K4" s="336"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="337"/>
-      <c r="N4" s="337"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="327"/>
+      <c r="M4" s="324"/>
+      <c r="N4" s="324"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6854,17 +6848,17 @@
       <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="324" t="s">
+      <c r="E6" s="329" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324" t="s">
+      <c r="F6" s="329"/>
+      <c r="G6" s="329"/>
+      <c r="H6" s="329"/>
+      <c r="I6" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="324"/>
-      <c r="K6" s="324"/>
+      <c r="J6" s="329"/>
+      <c r="K6" s="329"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="112" t="s">
@@ -6879,13 +6873,13 @@
       <c r="D7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
-      <c r="H7" s="324"/>
-      <c r="I7" s="324"/>
-      <c r="J7" s="324"/>
-      <c r="K7" s="324"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="329"/>
+      <c r="J7" s="329"/>
+      <c r="K7" s="329"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="113" t="s">
@@ -6900,17 +6894,17 @@
       <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="325" t="s">
+      <c r="E8" s="330" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="326"/>
-      <c r="G8" s="326"/>
-      <c r="H8" s="327"/>
-      <c r="I8" s="331" t="s">
+      <c r="F8" s="331"/>
+      <c r="G8" s="331"/>
+      <c r="H8" s="332"/>
+      <c r="I8" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="331"/>
-      <c r="K8" s="331"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="336"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116" t="s">
@@ -6925,13 +6919,13 @@
       <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="328"/>
-      <c r="F9" s="329"/>
-      <c r="G9" s="329"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="331"/>
-      <c r="J9" s="331"/>
-      <c r="K9" s="331"/>
+      <c r="E9" s="333"/>
+      <c r="F9" s="334"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="335"/>
+      <c r="I9" s="336"/>
+      <c r="J9" s="336"/>
+      <c r="K9" s="336"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="111" t="s">
@@ -6948,34 +6942,28 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="332" t="s">
+      <c r="E10" s="337" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="333">
+      <c r="F10" s="157"/>
+      <c r="G10" s="338">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="334"/>
-      <c r="I10" s="332"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="335"/>
+      <c r="H10" s="339"/>
+      <c r="I10" s="337"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="340"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="323" t="s">
+      <c r="I11" s="328" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="323"/>
-      <c r="K11" s="323"/>
+      <c r="J11" s="328"/>
+      <c r="K11" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -6984,6 +6972,12 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57DD06-BE85-43F7-90F9-7267D6680D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCFC368-BD6A-4C5E-A71F-64F5A10A813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="204">
   <si>
     <t>支払金額合計</t>
     <rPh sb="0" eb="2">
@@ -1190,9 +1190,6 @@
       <t>シハラ</t>
     </rPh>
     <phoneticPr fontId="45"/>
-  </si>
-  <si>
-    <t>買主： 株式会社メトロス開発</t>
   </si>
   <si>
     <t>担当：$contractStaffName$</t>
@@ -4579,30 +4576,30 @@
         <v>155</v>
       </c>
       <c r="K1" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="123" t="s">
         <v>156</v>
-      </c>
-      <c r="N1" s="123" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="178" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="179" t="s">
+      <c r="C2" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="D2" s="184" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="184" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="178" t="s">
+      <c r="F2" s="178" t="s">
         <v>161</v>
-      </c>
-      <c r="F2" s="178" t="s">
-        <v>162</v>
       </c>
       <c r="G2" s="178"/>
       <c r="H2" s="178"/>
@@ -4616,66 +4613,66 @@
       <c r="D3" s="185"/>
       <c r="E3" s="178"/>
       <c r="F3" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="128" t="s">
+      <c r="H3" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="I3" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="129" t="s">
+      <c r="J3" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="126" t="s">
+      <c r="K3" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="126" t="s">
+      <c r="L3" s="195" t="s">
         <v>168</v>
-      </c>
-      <c r="L3" s="195" t="s">
-        <v>169</v>
       </c>
       <c r="M3" s="195"/>
       <c r="N3" s="178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O3" s="178"/>
       <c r="P3" s="178"/>
     </row>
     <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="C4" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="D4" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="131" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="132" t="s">
+      <c r="F4" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="G4" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="H4" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="I4" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="127" t="s">
+      <c r="J4" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="K4" s="133" t="s">
         <v>179</v>
-      </c>
-      <c r="K4" s="133" t="s">
-        <v>180</v>
       </c>
       <c r="L4" s="196" t="str">
         <f>IF(K4&lt;&gt;"", K4, "")</f>
@@ -4683,44 +4680,44 @@
       </c>
       <c r="M4" s="196"/>
       <c r="N4" s="197" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O4" s="197"/>
       <c r="P4" s="197"/>
     </row>
     <row r="5" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="130" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="131" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="132" t="s">
+      <c r="F5" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="G5" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="H5" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="I5" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="127" t="s">
+      <c r="J5" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="127" t="s">
+      <c r="K5" s="133" t="s">
         <v>188</v>
-      </c>
-      <c r="K5" s="133" t="s">
-        <v>189</v>
       </c>
       <c r="L5" s="196" t="str">
         <f t="shared" ref="L5:L6" si="0">IF(K5&lt;&gt;"", K5, "")</f>
@@ -4728,7 +4725,7 @@
       </c>
       <c r="M5" s="196"/>
       <c r="N5" s="197" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O5" s="197"/>
       <c r="P5" s="197"/>
@@ -4744,7 +4741,7 @@
       <c r="H6" s="137"/>
       <c r="I6" s="137"/>
       <c r="J6" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" s="134">
         <f>SUM(K4:K5)</f>
@@ -6011,7 +6008,7 @@
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="299" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="299"/>
       <c r="D5" s="299"/>
@@ -6056,7 +6053,7 @@
       </c>
       <c r="C10" s="304"/>
       <c r="D10" s="319" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="306"/>
       <c r="F10" s="306"/>
@@ -6075,7 +6072,7 @@
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
       <c r="L11" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6098,25 +6095,25 @@
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="286" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="287"/>
       <c r="D13" s="287"/>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
       <c r="G13" s="289" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" s="290"/>
       <c r="I13" s="291"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="292" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="293"/>
       <c r="D14" s="293"/>
@@ -6127,7 +6124,7 @@
       <c r="I14" s="291"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6198,7 +6195,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="320" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="320"/>
       <c r="H21" s="320"/>
@@ -6314,7 +6311,7 @@
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="299" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="299"/>
       <c r="D5" s="299"/>
@@ -6359,7 +6356,7 @@
       </c>
       <c r="C10" s="304"/>
       <c r="D10" s="319" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="306"/>
       <c r="F10" s="306"/>
@@ -6378,7 +6375,7 @@
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
       <c r="L11" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6401,25 +6398,25 @@
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="286" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="287"/>
       <c r="D13" s="287"/>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
       <c r="G13" s="289" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H13" s="290"/>
       <c r="I13" s="291"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="292" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="293"/>
       <c r="D14" s="293"/>
@@ -6430,7 +6427,7 @@
       <c r="I14" s="291"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6455,7 +6452,7 @@
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="321" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="321"/>
       <c r="D17" s="145" t="s">
@@ -6501,7 +6498,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="320" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="320"/>
       <c r="H21" s="320"/>
@@ -6803,6 +6800,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="105"/>
       <c r="I2" s="105"/>
       <c r="J2" s="105"/>
       <c r="K2" s="105"/>
@@ -6813,12 +6811,13 @@
         <v>127</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="109" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
+      <c r="H3" s="323"/>
       <c r="I3" s="323"/>
       <c r="J3" s="325"/>
       <c r="K3" s="323"/>
@@ -6827,6 +6826,7 @@
       <c r="N3" s="324"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="323"/>
       <c r="I4" s="323"/>
       <c r="J4" s="326"/>
       <c r="K4" s="323"/>
@@ -6963,7 +6963,8 @@
       <c r="K11" s="328"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>

--- a/template/売却決済案内.xlsx
+++ b/template/売却決済案内.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCFC368-BD6A-4C5E-A71F-64F5A10A813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29DE4B5-6FFD-4924-905A-B2E91A1EF433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0110C-8D3A-4C7A-8A41-80594298D2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="支払明細書" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">支払依頼書帳票!$A$1:$P$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">振替伝票!$A$1:$K$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'振替伝票 (仲介・業務委託)'!$A$1:$K$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'領収証 (業務委託料)'!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'領収証 (仲介手数料)'!$A$1:$J$25</definedName>
   </definedNames>
@@ -3135,12 +3137,21 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3207,17 +3218,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="48" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3228,72 +3281,33 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="48" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="50" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3306,17 +3320,164 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3365,212 +3526,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3605,67 +3598,61 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3703,6 +3690,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3894,9 +3896,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3934,7 +3936,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4040,7 +4042,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4182,7 +4184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4221,30 +4223,30 @@
       <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="151" t="s">
+      <c r="H1" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
     </row>
     <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="93"/>
@@ -4260,10 +4262,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="177" t="s">
+      <c r="G5" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="177"/>
+      <c r="H5" s="154"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4297,8 +4299,8 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4334,10 +4336,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="174" t="s">
+      <c r="J11" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="174"/>
+      <c r="K11" s="177"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
@@ -4348,17 +4350,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="152" t="s">
+      <c r="J12" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="152"/>
+      <c r="K12" s="151"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
@@ -4369,17 +4371,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="152" t="s">
+      <c r="J13" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="152"/>
+      <c r="K13" s="151"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
@@ -4388,14 +4390,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="159"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="162"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="152" t="s">
+      <c r="J14" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="152"/>
+      <c r="K14" s="151"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
@@ -4404,32 +4406,32 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="161"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="164"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="152" t="s">
+      <c r="J15" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="152"/>
+      <c r="K15" s="151"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="157"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="162">
+      <c r="E18" s="165">
         <f>SUM(E12:G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="164"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="167"/>
       <c r="I18" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4458,52 +4460,47 @@
     </row>
     <row r="27" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="28" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F28" s="165"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="166"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="169"/>
       <c r="J28" s="103"/>
       <c r="K28" s="120"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F30" s="169"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F31" s="169"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F32" s="171"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -4520,6 +4517,11 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4583,35 +4585,35 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="196" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="197" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="192" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="178"/>
+      <c r="A3" s="192"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="192"/>
       <c r="F3" s="126" t="s">
         <v>162</v>
       </c>
@@ -4630,15 +4632,15 @@
       <c r="K3" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="195" t="s">
+      <c r="L3" s="191" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="195"/>
-      <c r="N3" s="178" t="s">
+      <c r="M3" s="191"/>
+      <c r="N3" s="192" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
     </row>
     <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="130" t="s">
@@ -4674,16 +4676,16 @@
       <c r="K4" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="196" t="str">
+      <c r="L4" s="193" t="str">
         <f>IF(K4&lt;&gt;"", K4, "")</f>
         <v>$payPriceTax_intermediary$</v>
       </c>
-      <c r="M4" s="196"/>
-      <c r="N4" s="197" t="s">
+      <c r="M4" s="193"/>
+      <c r="N4" s="194" t="s">
         <v>180</v>
       </c>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
     </row>
     <row r="5" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="130" t="s">
@@ -4719,16 +4721,16 @@
       <c r="K5" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="L5" s="196" t="str">
+      <c r="L5" s="193" t="str">
         <f t="shared" ref="L5:L6" si="0">IF(K5&lt;&gt;"", K5, "")</f>
         <v>$payPriceTax_outsourcing$</v>
       </c>
-      <c r="M5" s="196"/>
-      <c r="N5" s="197" t="s">
+      <c r="M5" s="193"/>
+      <c r="N5" s="194" t="s">
         <v>189</v>
       </c>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="194"/>
     </row>
     <row r="6" spans="1:16" s="140" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="135"/>
@@ -4747,14 +4749,14 @@
         <f>SUM(K4:K5)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="196">
+      <c r="L6" s="193">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="196"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
     </row>
     <row r="7" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="8" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -4763,40 +4765,45 @@
       <c r="L9" s="142"/>
       <c r="M9" s="150"/>
       <c r="N9" s="150"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="183"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="179"/>
     </row>
     <row r="10" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="190"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="186"/>
     </row>
     <row r="11" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="191"/>
-      <c r="P11" s="192"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="188"/>
     </row>
     <row r="12" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="192"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="188"/>
     </row>
     <row r="13" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="194"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="190"/>
     </row>
     <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="N10:N13"/>
@@ -4811,11 +4818,6 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4840,17 +4842,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="199" t="s">
+      <c r="H1" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="199"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
@@ -4861,18 +4863,18 @@
       <c r="F4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="202" t="s">
+      <c r="G4" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="199" t="s">
+      <c r="G5" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="14" t="s">
@@ -4884,21 +4886,21 @@
       <c r="I6" s="203"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="204" t="s">
+      <c r="C9" s="208" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205" t="s">
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="205"/>
-      <c r="H9" s="205"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="209"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -4948,10 +4950,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="206"/>
+      <c r="C17" s="210"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
@@ -4964,24 +4966,24 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="207"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="207"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
     </row>
     <row r="22" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="18"/>
@@ -4999,57 +5001,57 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="199" t="s">
+      <c r="B24" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="199"/>
-      <c r="D24" s="200" t="s">
+      <c r="C24" s="200"/>
+      <c r="D24" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="200"/>
-      <c r="F24" s="200"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
       <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="199" t="s">
+      <c r="B25" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="199"/>
-      <c r="D25" s="209" t="s">
+      <c r="C25" s="200"/>
+      <c r="D25" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="210" t="s">
+      <c r="C26" s="200"/>
+      <c r="D26" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
       <c r="G26" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="199" t="s">
+      <c r="B27" s="200" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="199"/>
-      <c r="D27" s="209" t="s">
+      <c r="C27" s="200"/>
+      <c r="D27" s="201" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="209"/>
-      <c r="F27" s="209"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
       <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
@@ -5058,16 +5060,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="199" t="s">
+      <c r="B29" s="200" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="199"/>
-      <c r="D29" s="211">
+      <c r="C29" s="200"/>
+      <c r="D29" s="204">
         <f>SUM(D24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
       <c r="G29" s="16" t="s">
         <v>20</v>
       </c>
@@ -5079,10 +5081,10 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="199" t="s">
+      <c r="B32" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="199"/>
+      <c r="C32" s="200"/>
       <c r="D32" s="203" t="s">
         <v>100</v>
       </c>
@@ -5095,35 +5097,23 @@
       <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="208" t="s">
+      <c r="D33" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="208"/>
+      <c r="E33" s="199"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="199" t="s">
+      <c r="B34" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H1:I1"/>
@@ -5137,6 +5127,18 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5180,17 +5182,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75"/>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="265" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
@@ -5198,45 +5200,45 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="266" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="215" t="s">
+      <c r="C3" s="267"/>
+      <c r="D3" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="229" t="s">
+      <c r="E3" s="269"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="253" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="230"/>
-      <c r="I3" s="218" t="s">
+      <c r="H3" s="254"/>
+      <c r="I3" s="271" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="219"/>
-      <c r="K3" s="220"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="273"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="274" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="223" t="s">
+      <c r="C4" s="275"/>
+      <c r="D4" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="224"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="231" t="s">
+      <c r="E4" s="277"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="282" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="232"/>
-      <c r="I4" s="226" t="s">
+      <c r="H4" s="283"/>
+      <c r="I4" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="227"/>
-      <c r="K4" s="228"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="281"/>
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5251,98 +5253,98 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="250" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="229" t="s">
+      <c r="D6" s="253" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="230"/>
-      <c r="F6" s="229" t="s">
+      <c r="E6" s="254"/>
+      <c r="F6" s="253" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="229" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="236"/>
-      <c r="K6" s="237"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="234"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="238" t="s">
+      <c r="D7" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="239"/>
-      <c r="F7" s="238" t="s">
+      <c r="E7" s="258"/>
+      <c r="F7" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="240"/>
-      <c r="H7" s="239"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="258"/>
       <c r="I7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="238" t="e">
+      <c r="J7" s="257" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="241"/>
+      <c r="K7" s="260"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="234"/>
+      <c r="B8" s="251"/>
       <c r="C8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="238" t="s">
+      <c r="D8" s="257" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="239"/>
-      <c r="F8" s="238" t="s">
+      <c r="E8" s="258"/>
+      <c r="F8" s="257" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
       <c r="I8" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="238" t="e">
+      <c r="J8" s="257" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="241"/>
+      <c r="K8" s="260"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="235"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="242">
+      <c r="D9" s="261">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="242">
+      <c r="E9" s="262"/>
+      <c r="F9" s="261">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="263"/>
       <c r="I9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="242">
+      <c r="J9" s="261">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="245"/>
+      <c r="K9" s="264"/>
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5357,58 +5359,58 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="236" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="247"/>
+      <c r="C11" s="237"/>
       <c r="D11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="250" t="s">
+      <c r="E11" s="240" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="251"/>
+      <c r="F11" s="241"/>
       <c r="G11" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="252" t="s">
+      <c r="H11" s="242" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="252"/>
-      <c r="J11" s="253" t="e">
+      <c r="I11" s="242"/>
+      <c r="J11" s="243" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="254"/>
+      <c r="K11" s="244"/>
       <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="248"/>
-      <c r="C12" s="249"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="239"/>
       <c r="D12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="255" t="s">
+      <c r="E12" s="245" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="256"/>
+      <c r="F12" s="246"/>
       <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="257" t="s">
+      <c r="H12" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="257"/>
-      <c r="J12" s="258" t="e">
+      <c r="I12" s="247"/>
+      <c r="J12" s="248" t="e">
         <f>365-J11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="259"/>
+      <c r="K12" s="249"/>
       <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="260" t="s">
+      <c r="B14" s="221" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="56"/>
@@ -5422,20 +5424,20 @@
       <c r="F14" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="273" t="e">
+      <c r="G14" s="234" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="273"/>
-      <c r="I14" s="263" t="s">
+      <c r="H14" s="234"/>
+      <c r="I14" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="263"/>
-      <c r="K14" s="264"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="225"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="261"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="52" t="s">
         <v>52</v>
       </c>
@@ -5449,40 +5451,40 @@
       <c r="F15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="274" t="e">
+      <c r="G15" s="235" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="274"/>
-      <c r="I15" s="265" t="s">
+      <c r="H15" s="235"/>
+      <c r="I15" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="265"/>
-      <c r="K15" s="266"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="227"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="261"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="48"/>
       <c r="D16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="272"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
       <c r="I16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="267" t="e">
+      <c r="J16" s="228" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="268"/>
+      <c r="K16" s="229"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="262"/>
+      <c r="B17" s="223"/>
       <c r="C17" s="43" t="s">
         <v>47</v>
       </c>
@@ -5494,17 +5496,17 @@
       <c r="F17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="271" t="str">
+      <c r="G17" s="232" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="271"/>
+      <c r="H17" s="232"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="269" t="e">
+      <c r="J17" s="230" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="270"/>
+      <c r="K17" s="231"/>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5512,22 +5514,22 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="275" t="s">
+      <c r="B19" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="276"/>
-      <c r="D19" s="277"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="280"/>
-      <c r="H19" s="280"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
       <c r="I19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="278" t="s">
+      <c r="J19" s="215" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="279"/>
+      <c r="K19" s="216"/>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5537,22 +5539,22 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="281" t="s">
+      <c r="B21" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="282"/>
-      <c r="D21" s="283"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="280"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
       <c r="I21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="278" t="s">
+      <c r="J21" s="215" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="279"/>
+      <c r="K21" s="216"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5563,28 +5565,15 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -5598,15 +5587,28 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5643,16 +5645,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
       <c r="J2" s="74"/>
       <c r="L2" s="73"/>
       <c r="M2" s="85"/>
@@ -5675,34 +5677,34 @@
       <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="299" t="s">
+      <c r="B5" s="296" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="L5" s="284" t="s">
+      <c r="L5" s="305" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="285"/>
+      <c r="L6" s="306"/>
       <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="300" t="e">
+      <c r="D7" s="297" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="302"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="299"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
       <c r="L7" s="24"/>
@@ -5729,26 +5731,26 @@
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="300" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="304"/>
-      <c r="D10" s="305" t="s">
+      <c r="C10" s="301"/>
+      <c r="D10" s="302" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
-      <c r="I10" s="307"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="304"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="314">
+      <c r="L10" s="290">
         <v>8250000</v>
       </c>
-      <c r="M10" s="314"/>
-      <c r="N10" s="314"/>
-      <c r="O10" s="314"/>
-      <c r="P10" s="314"/>
+      <c r="M10" s="290"/>
+      <c r="N10" s="290"/>
+      <c r="O10" s="290"/>
+      <c r="P10" s="290"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -5757,70 +5759,70 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="295" t="s">
+      <c r="B12" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="296"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="296"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="296" t="s">
+      <c r="C12" s="317"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="317"/>
+      <c r="F12" s="317"/>
+      <c r="G12" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="296"/>
-      <c r="I12" s="297"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="286" t="s">
+      <c r="B13" s="307" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="289" t="s">
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="310" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="290"/>
-      <c r="I13" s="291"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="292" t="s">
+      <c r="B14" s="313" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="293"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="293"/>
-      <c r="F14" s="294"/>
-      <c r="G14" s="289" t="s">
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="310" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="290"/>
-      <c r="I14" s="291"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="308" t="s">
+      <c r="B15" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="311"/>
-      <c r="H15" s="312"/>
-      <c r="I15" s="313"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="289"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -5833,10 +5835,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="292" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="316"/>
+      <c r="C17" s="292"/>
       <c r="D17" s="82" t="s">
         <v>75</v>
       </c>
@@ -5861,36 +5863,36 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="317" t="s">
+      <c r="F19" s="293" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="317"/>
-      <c r="H19" s="317"/>
-      <c r="I19" s="317"/>
-      <c r="J19" s="317"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="293"/>
     </row>
     <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="318" t="s">
+      <c r="F20" s="294" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="318"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="318"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="315" t="s">
+      <c r="F21" s="291" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="315"/>
-      <c r="H21" s="315"/>
-      <c r="I21" s="315"/>
-      <c r="J21" s="315"/>
+      <c r="G21" s="291"/>
+      <c r="H21" s="291"/>
+      <c r="I21" s="291"/>
+      <c r="J21" s="291"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5929,6 +5931,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="L10:P10"/>
@@ -5936,18 +5950,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5983,16 +5985,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
       <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6007,12 +6009,12 @@
       <c r="I4" s="143"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="299" t="s">
+      <c r="B5" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
@@ -6020,14 +6022,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="300" t="e">
+      <c r="D7" s="297" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="302"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="299"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
     </row>
@@ -6048,26 +6050,26 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="300" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="304"/>
-      <c r="D10" s="319" t="s">
+      <c r="C10" s="301"/>
+      <c r="D10" s="322" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
-      <c r="I10" s="307"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="304"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="314">
+      <c r="L10" s="290">
         <v>8250000</v>
       </c>
-      <c r="M10" s="314"/>
-      <c r="N10" s="314"/>
-      <c r="O10" s="314"/>
-      <c r="P10" s="314"/>
+      <c r="M10" s="290"/>
+      <c r="N10" s="290"/>
+      <c r="O10" s="290"/>
+      <c r="P10" s="290"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -6076,66 +6078,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="295" t="s">
+      <c r="B12" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="296"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="296"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="296" t="s">
+      <c r="C12" s="317"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="317"/>
+      <c r="F12" s="317"/>
+      <c r="G12" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="296"/>
-      <c r="I12" s="297"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="286" t="s">
+      <c r="B13" s="307" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="289" t="s">
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="310" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="290"/>
-      <c r="I13" s="291"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="292" t="s">
+      <c r="B14" s="313" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="293"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="293"/>
-      <c r="F14" s="294"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="291"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="308"/>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="311"/>
-      <c r="H15" s="312"/>
-      <c r="I15" s="313"/>
+      <c r="B15" s="284"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="289"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6148,10 +6150,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="321" t="s">
+      <c r="B17" s="320" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="321"/>
+      <c r="C17" s="320"/>
       <c r="D17" s="145" t="s">
         <v>75</v>
       </c>
@@ -6176,31 +6178,31 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="249"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="239"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="322"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
+      <c r="F20" s="321"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="321"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="320" t="s">
+      <c r="F21" s="319" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="320"/>
-      <c r="H21" s="320"/>
-      <c r="I21" s="320"/>
-      <c r="J21" s="320"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="319"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="78"/>
@@ -6233,6 +6235,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -6245,12 +6253,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6286,16 +6288,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="75"/>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
       <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6310,12 +6312,12 @@
       <c r="I4" s="143"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="299" t="s">
+      <c r="B5" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
       <c r="F5" s="90" t="s">
         <v>41</v>
       </c>
@@ -6323,14 +6325,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="300" t="e">
+      <c r="D7" s="297" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="302"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="299"/>
       <c r="I7" s="67"/>
       <c r="J7" s="29"/>
     </row>
@@ -6351,26 +6353,26 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="300" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="304"/>
-      <c r="D10" s="319" t="s">
+      <c r="C10" s="301"/>
+      <c r="D10" s="322" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
-      <c r="I10" s="307"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="304"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="314">
+      <c r="L10" s="290">
         <v>8250000</v>
       </c>
-      <c r="M10" s="314"/>
-      <c r="N10" s="314"/>
-      <c r="O10" s="314"/>
-      <c r="P10" s="314"/>
+      <c r="M10" s="290"/>
+      <c r="N10" s="290"/>
+      <c r="O10" s="290"/>
+      <c r="P10" s="290"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="26"/>
@@ -6379,66 +6381,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="295" t="s">
+      <c r="B12" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="296"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="296"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="296" t="s">
+      <c r="C12" s="317"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="317"/>
+      <c r="F12" s="317"/>
+      <c r="G12" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="296"/>
-      <c r="I12" s="297"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
       <c r="J12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="286" t="s">
+      <c r="B13" s="307" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="289" t="s">
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="310" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="290"/>
-      <c r="I13" s="291"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="26"/>
       <c r="L13" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="292" t="s">
+      <c r="B14" s="313" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="293"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="293"/>
-      <c r="F14" s="294"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="291"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="26"/>
       <c r="L14" s="22" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="308"/>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="311"/>
-      <c r="H15" s="312"/>
-      <c r="I15" s="313"/>
+      <c r="B15" s="284"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="289"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="71"/>
@@ -6451,10 +6453,10 @@
       <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="321" t="s">
+      <c r="B17" s="320" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="321"/>
+      <c r="C17" s="320"/>
       <c r="D17" s="145" t="s">
         <v>75</v>
       </c>
@@ -6479,31 +6481,31 @@
       <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="249"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="239"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="27"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="322"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
+      <c r="F20" s="321"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="321"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="320" t="s">
+      <c r="F21" s="319" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="320"/>
-      <c r="H21" s="320"/>
-      <c r="I21" s="320"/>
-      <c r="J21" s="320"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="319"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="78"/>
@@ -6536,6 +6538,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -6548,12 +6556,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6605,22 +6607,22 @@
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
-      <c r="H3" s="323"/>
-      <c r="I3" s="323"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="323"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="324"/>
-      <c r="N3" s="324"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="323"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="337"/>
+      <c r="N4" s="337"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6636,17 +6638,17 @@
       <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="329" t="s">
+      <c r="E6" s="324" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="329" t="s">
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="329"/>
-      <c r="K6" s="329"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="112" t="s">
@@ -6661,13 +6663,13 @@
       <c r="D7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="329"/>
-      <c r="F7" s="329"/>
-      <c r="G7" s="329"/>
-      <c r="H7" s="329"/>
-      <c r="I7" s="329"/>
-      <c r="J7" s="329"/>
-      <c r="K7" s="329"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="324"/>
+      <c r="K7" s="324"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="113" t="s">
@@ -6682,17 +6684,17 @@
       <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="330" t="s">
+      <c r="E8" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="331"/>
-      <c r="G8" s="331"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="336" t="s">
+      <c r="F8" s="326"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="336"/>
-      <c r="K8" s="336"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="331"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116" t="s">
@@ -6707,13 +6709,13 @@
       <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="333"/>
-      <c r="F9" s="334"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="336"/>
-      <c r="J9" s="336"/>
-      <c r="K9" s="336"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="331"/>
+      <c r="J9" s="331"/>
+      <c r="K9" s="331"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="111" t="s">
@@ -6730,28 +6732,35 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="337" t="s">
+      <c r="E10" s="332" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="157"/>
-      <c r="G10" s="338">
+      <c r="F10" s="160"/>
+      <c r="G10" s="333">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="339"/>
-      <c r="I10" s="337"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="340"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="332"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="335"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="328" t="s">
+      <c r="I11" s="323" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="328"/>
-      <c r="K11" s="328"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -6760,18 +6769,11 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6817,22 +6819,22 @@
         <v>129</v>
       </c>
       <c r="D3" s="110"/>
-      <c r="H3" s="323"/>
-      <c r="I3" s="323"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="323"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="324"/>
-      <c r="N3" s="324"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="323"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="337"/>
+      <c r="N4" s="337"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6848,17 +6850,17 @@
       <c r="D6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="329" t="s">
+      <c r="E6" s="324" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="329" t="s">
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="329"/>
-      <c r="K6" s="329"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="112" t="s">
@@ -6873,13 +6875,13 @@
       <c r="D7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="329"/>
-      <c r="F7" s="329"/>
-      <c r="G7" s="329"/>
-      <c r="H7" s="329"/>
-      <c r="I7" s="329"/>
-      <c r="J7" s="329"/>
-      <c r="K7" s="329"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="324"/>
+      <c r="K7" s="324"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="113" t="s">
@@ -6894,17 +6896,17 @@
       <c r="D8" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="330" t="s">
+      <c r="E8" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="331"/>
-      <c r="G8" s="331"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="336" t="s">
+      <c r="F8" s="326"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="336"/>
-      <c r="K8" s="336"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="331"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116" t="s">
@@ -6919,13 +6921,13 @@
       <c r="D9" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="333"/>
-      <c r="F9" s="334"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="336"/>
-      <c r="J9" s="336"/>
-      <c r="K9" s="336"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="331"/>
+      <c r="J9" s="331"/>
+      <c r="K9" s="331"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="111" t="s">
@@ -6942,28 +6944,34 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="337" t="s">
+      <c r="E10" s="332" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="157"/>
-      <c r="G10" s="338">
+      <c r="F10" s="160"/>
+      <c r="G10" s="333">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="339"/>
-      <c r="I10" s="337"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="340"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="332"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="335"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="328" t="s">
+      <c r="I11" s="323" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="328"/>
-      <c r="K11" s="328"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
@@ -6973,16 +6981,10 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>